--- a/FieldData/2015/xlsx_analysis/10-003 Field Data.xlsx
+++ b/FieldData/2015/xlsx_analysis/10-003 Field Data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fc4fc14c9be0aac/Documents/GitHub/CompSites/FieldData/2015/xlsx_analysis/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_F89473195F3881894CF7771C81199CAA3E0C74E0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DA4A2EB-086D-43C5-A288-341F11D87340}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14380"/>
+    <workbookView xWindow="1770" yWindow="1515" windowWidth="20865" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marsh" sheetId="1" r:id="rId1"/>
@@ -13,7 +19,7 @@
     <sheet name="R-Forbs" sheetId="4" r:id="rId4"/>
     <sheet name="R-Snags" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="111">
   <si>
     <t>Raw Sample Plot Data (Quadrats)</t>
   </si>
@@ -38,9 +44,6 @@
   </si>
   <si>
     <t>ELEVATION</t>
-  </si>
-  <si>
-    <t>ROBEL (cm)</t>
   </si>
   <si>
     <t>Scientific</t>
@@ -58,9 +61,6 @@
     <t>N/E/I/T</t>
   </si>
   <si>
-    <t>Max LH (cm)</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -70,22 +70,10 @@
     <t>E</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>AVG.</t>
-  </si>
-  <si>
     <t>10-003</t>
   </si>
   <si>
     <t>2-1</t>
-  </si>
-  <si>
-    <t>Sand, gravel, and rocks</t>
   </si>
   <si>
     <t>2-2</t>
@@ -97,13 +85,7 @@
     <t>2-3</t>
   </si>
   <si>
-    <t>Grazed</t>
-  </si>
-  <si>
     <t>1-1</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t>1-2</t>
@@ -119,9 +101,6 @@
   </si>
   <si>
     <t>European forget-me-not</t>
-  </si>
-  <si>
-    <t>Gravel</t>
   </si>
   <si>
     <t>1-5</t>
@@ -373,17 +352,26 @@
     <t>U</t>
   </si>
   <si>
-    <t>N/E/I/T/U</t>
+    <t>SITE_ID</t>
+  </si>
+  <si>
+    <t>PERCENT_COVER</t>
+  </si>
+  <si>
+    <t>ORIGIN</t>
+  </si>
+  <si>
+    <t>MAX_LH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -445,6 +433,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -502,7 +496,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1041,21 +1035,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -1236,7 +1215,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1408,18 +1387,6 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1429,15 +1396,11 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1447,12 +1410,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1473,21 +1430,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1558,6 +1500,9 @@
     </xf>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -1691,6 +1636,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2935,2298 +2888,1496 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IN63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
+      <selection pane="bottomRight" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="105" customWidth="1"/>
-    <col min="2" max="2" width="5.875" style="105" customWidth="1"/>
-    <col min="3" max="3" width="5.125" style="105" customWidth="1"/>
-    <col min="4" max="4" width="4.75" style="105" customWidth="1"/>
-    <col min="5" max="8" width="3.75" style="105" customWidth="1"/>
-    <col min="9" max="9" width="4.875" style="105" customWidth="1"/>
-    <col min="10" max="10" width="19.125" style="105" customWidth="1"/>
-    <col min="11" max="11" width="16.75" style="105" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="4.625" style="105" customWidth="1"/>
-    <col min="14" max="14" width="6.75" style="105" customWidth="1"/>
-    <col min="15" max="15" width="5.5" style="105" customWidth="1"/>
-    <col min="16" max="16" width="28.125" style="105" customWidth="1"/>
-    <col min="17" max="256" width="8.625" style="105" customWidth="1"/>
-    <col min="257" max="16384" width="8.625" style="106"/>
+    <col min="1" max="1" width="8.59765625" style="97" customWidth="1"/>
+    <col min="2" max="2" width="5.8984375" style="97" customWidth="1"/>
+    <col min="3" max="3" width="5.09765625" style="97" customWidth="1"/>
+    <col min="4" max="4" width="19.09765625" style="97" customWidth="1"/>
+    <col min="5" max="5" width="16.69921875" style="97" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.59765625" style="97" customWidth="1"/>
+    <col min="7" max="7" width="6.69921875" style="97" customWidth="1"/>
+    <col min="8" max="8" width="5.5" style="97" customWidth="1"/>
+    <col min="9" max="248" width="8.59765625" style="97" customWidth="1"/>
+    <col min="249" max="16384" width="8.59765625" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-    </row>
-    <row r="2" spans="1:16" ht="34.25" customHeight="1">
+    <row r="1" spans="1:8" ht="34.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="123" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="123" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="123" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="123" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="123" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="123" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="123" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="84">
+        <v>2</v>
+      </c>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="88">
+        <v>100</v>
+      </c>
+      <c r="G2" s="83"/>
+      <c r="H2" s="85"/>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="84">
+        <v>2</v>
+      </c>
+      <c r="D3" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="88">
+        <v>10</v>
+      </c>
+      <c r="G3" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="85"/>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="84">
+        <v>2</v>
+      </c>
+      <c r="D4" s="89" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="88">
         <v>1</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="G4" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="85"/>
+    </row>
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="84">
         <v>2</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="D5" s="91"/>
+      <c r="E5" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="88">
+        <f>100-F6-F4-F3</f>
+        <v>88.5</v>
+      </c>
+      <c r="G5" s="83"/>
+      <c r="H5" s="85"/>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="84">
+        <v>2</v>
+      </c>
+      <c r="D6" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="88">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="85"/>
+    </row>
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="84">
+        <v>2</v>
+      </c>
+      <c r="D7" s="91" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="87" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="88">
+        <v>10</v>
+      </c>
+      <c r="G7" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="85"/>
+    </row>
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="84">
+        <v>2</v>
+      </c>
+      <c r="D8" s="86"/>
+      <c r="E8" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="88">
+        <v>84</v>
+      </c>
+      <c r="G8" s="83"/>
+      <c r="H8" s="85"/>
+    </row>
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="84">
+        <v>2</v>
+      </c>
+      <c r="D9" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="88">
+        <v>6</v>
+      </c>
+      <c r="G9" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="85"/>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="84">
+        <v>1</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="87" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="88">
+        <v>17</v>
+      </c>
+      <c r="G10" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="85">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="84">
+        <v>1</v>
+      </c>
+      <c r="D11" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="87" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="88">
+        <v>7</v>
+      </c>
+      <c r="G11" s="83" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" s="85"/>
+    </row>
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="84">
+        <v>1</v>
+      </c>
+      <c r="D12" s="91" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="92" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="88">
         <v>3</v>
       </c>
-      <c r="D2" s="83" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="111" t="s">
+      <c r="G12" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="85"/>
+    </row>
+    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="84">
+        <v>1</v>
+      </c>
+      <c r="D13" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="88">
+        <v>1</v>
+      </c>
+      <c r="G13" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" s="85"/>
+    </row>
+    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="84">
+        <v>1</v>
+      </c>
+      <c r="D14" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="87" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="88">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="85"/>
+    </row>
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="84">
+        <v>1</v>
+      </c>
+      <c r="D15" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="87" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="88">
         <v>5</v>
       </c>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="83" t="s">
+      <c r="G15" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="85"/>
+    </row>
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="84">
+        <v>1</v>
+      </c>
+      <c r="D16" s="94" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="88">
+        <v>12</v>
+      </c>
+      <c r="G16" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="85"/>
+    </row>
+    <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="84">
+        <v>1</v>
+      </c>
+      <c r="D17" s="86"/>
+      <c r="E17" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="88">
+        <v>30</v>
+      </c>
+      <c r="G17" s="83"/>
+      <c r="H17" s="85"/>
+    </row>
+    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="84">
+        <v>1</v>
+      </c>
+      <c r="D18" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="88">
+        <v>2</v>
+      </c>
+      <c r="G18" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="85"/>
+    </row>
+    <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="84">
+        <v>1</v>
+      </c>
+      <c r="D19" s="86" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="88">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="85"/>
+    </row>
+    <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="84">
+        <v>1</v>
+      </c>
+      <c r="D20" s="86"/>
+      <c r="E20" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="88">
+        <f>100-F19-F18-F17-F16-F15-0.5-1-3-7-17</f>
+        <v>22</v>
+      </c>
+      <c r="G20" s="83"/>
+      <c r="H20" s="85"/>
+    </row>
+    <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="84">
+        <v>1</v>
+      </c>
+      <c r="D21" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="88">
+        <v>10</v>
+      </c>
+      <c r="G21" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" s="85"/>
+    </row>
+    <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="84">
+        <v>1</v>
+      </c>
+      <c r="D22" s="86" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="87" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="88">
         <v>6</v>
       </c>
-      <c r="K2" s="83" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="86" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="83" t="s">
-        <v>116</v>
-      </c>
-      <c r="O2" s="83" t="s">
+      <c r="G22" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="83" t="s">
+      <c r="H22" s="85"/>
+    </row>
+    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="84">
+        <v>1</v>
+      </c>
+      <c r="D23" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="88">
+        <v>3</v>
+      </c>
+      <c r="G23" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="85"/>
+    </row>
+    <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="84">
+        <v>1</v>
+      </c>
+      <c r="D24" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="87" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="88">
+        <v>0.5</v>
+      </c>
+      <c r="G24" s="83" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1">
-      <c r="A3" s="83"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="83" t="s">
+      <c r="H24" s="85"/>
+    </row>
+    <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="83" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="83" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="83" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="83" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="83"/>
-    </row>
-    <row r="4" spans="1:16" ht="14" customHeight="1">
-      <c r="A4" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="B25" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="88">
-        <v>2</v>
-      </c>
-      <c r="D4" s="89"/>
-      <c r="E4" s="90">
-        <v>0</v>
-      </c>
-      <c r="F4" s="90">
-        <v>0</v>
-      </c>
-      <c r="G4" s="90">
-        <v>0</v>
-      </c>
-      <c r="H4" s="90">
-        <v>0</v>
-      </c>
-      <c r="I4" s="88">
-        <f t="shared" ref="I4:I35" si="0">AVERAGE(E4:H4)</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="91"/>
-      <c r="K4" s="92" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" s="93">
-        <v>100</v>
-      </c>
-      <c r="M4" s="94"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="92" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A5" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="87" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="88">
-        <v>2</v>
-      </c>
-      <c r="D5" s="89"/>
-      <c r="E5" s="90">
-        <v>0</v>
-      </c>
-      <c r="F5" s="90">
-        <v>0</v>
-      </c>
-      <c r="G5" s="90">
-        <v>0</v>
-      </c>
-      <c r="H5" s="90">
-        <v>0</v>
-      </c>
-      <c r="I5" s="88">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="K5" s="92" t="s">
-        <v>64</v>
-      </c>
-      <c r="L5" s="93">
-        <v>10</v>
-      </c>
-      <c r="M5" s="94"/>
-      <c r="N5" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="O5" s="89"/>
-      <c r="P5" s="87"/>
-    </row>
-    <row r="6" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A6" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="87" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="88">
-        <v>2</v>
-      </c>
-      <c r="D6" s="89"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="88" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" s="95" t="s">
-        <v>66</v>
-      </c>
-      <c r="K6" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="L6" s="93">
+      <c r="C25" s="84">
         <v>1</v>
       </c>
-      <c r="M6" s="94"/>
-      <c r="N6" s="87" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" s="89"/>
-      <c r="P6" s="87"/>
-    </row>
-    <row r="7" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A7" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="87" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="88">
-        <v>2</v>
-      </c>
-      <c r="D7" s="89"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="88" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J7" s="97"/>
-      <c r="K7" s="92" t="s">
-        <v>63</v>
-      </c>
-      <c r="L7" s="93">
-        <f>100-L8-L6-L5</f>
-        <v>88.5</v>
-      </c>
-      <c r="M7" s="94"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="89"/>
-      <c r="P7" s="92" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A8" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="87" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="88">
-        <v>2</v>
-      </c>
-      <c r="D8" s="89"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="88" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" s="97" t="s">
-        <v>68</v>
-      </c>
-      <c r="K8" s="92" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="93">
+      <c r="D25" s="89" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="88">
         <v>0.5</v>
       </c>
-      <c r="M8" s="94"/>
-      <c r="N8" s="87" t="s">
-        <v>14</v>
-      </c>
-      <c r="O8" s="89"/>
-      <c r="P8" s="87"/>
-    </row>
-    <row r="9" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A9" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="88">
-        <v>2</v>
-      </c>
-      <c r="D9" s="89"/>
-      <c r="E9" s="90">
-        <v>0</v>
-      </c>
-      <c r="F9" s="90">
-        <v>0</v>
-      </c>
-      <c r="G9" s="90">
-        <v>0</v>
-      </c>
-      <c r="H9" s="90">
-        <v>0</v>
-      </c>
-      <c r="I9" s="88">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="97" t="s">
-        <v>69</v>
-      </c>
-      <c r="K9" s="92" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="93">
-        <v>10</v>
-      </c>
-      <c r="M9" s="94"/>
-      <c r="N9" s="87" t="s">
+      <c r="G25" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="85"/>
+    </row>
+    <row r="26" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="89"/>
-      <c r="P9" s="87" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A10" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="88">
-        <v>2</v>
-      </c>
-      <c r="D10" s="89"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="88" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J10" s="91"/>
-      <c r="K10" s="92" t="s">
-        <v>63</v>
-      </c>
-      <c r="L10" s="93">
-        <v>84</v>
-      </c>
-      <c r="M10" s="94"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="92" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A11" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="88">
-        <v>2</v>
-      </c>
-      <c r="D11" s="89"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="88" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J11" s="91" t="s">
-        <v>71</v>
-      </c>
-      <c r="K11" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="L11" s="93">
-        <v>6</v>
-      </c>
-      <c r="M11" s="94"/>
-      <c r="N11" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="O11" s="89"/>
-      <c r="P11" s="87"/>
-    </row>
-    <row r="12" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A12" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="87" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="88">
+      <c r="B26" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="84">
         <v>1</v>
       </c>
-      <c r="D12" s="89"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="88" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J12" s="97" t="s">
-        <v>69</v>
-      </c>
-      <c r="K12" s="92" t="s">
-        <v>70</v>
-      </c>
-      <c r="L12" s="93">
-        <v>17</v>
-      </c>
-      <c r="M12" s="94"/>
-      <c r="N12" s="87" t="s">
+      <c r="D26" s="86"/>
+      <c r="E26" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="88">
+        <v>60</v>
+      </c>
+      <c r="G26" s="83"/>
+      <c r="H26" s="85"/>
+    </row>
+    <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="O12" s="89">
-        <v>120</v>
-      </c>
-      <c r="P12" s="87" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A13" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="87" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="88">
+      <c r="B27" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="84">
         <v>1</v>
       </c>
-      <c r="D13" s="89"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="88" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J13" s="91" t="s">
-        <v>113</v>
-      </c>
-      <c r="K13" s="92" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="93">
-        <v>7</v>
-      </c>
-      <c r="M13" s="94" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13" s="87" t="s">
-        <v>115</v>
-      </c>
-      <c r="O13" s="89"/>
-      <c r="P13" s="87"/>
-    </row>
-    <row r="14" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A14" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="87" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="88">
-        <v>1</v>
-      </c>
-      <c r="D14" s="89"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="88" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J14" s="97" t="s">
-        <v>74</v>
-      </c>
-      <c r="K14" s="98" t="s">
-        <v>75</v>
-      </c>
-      <c r="L14" s="93">
-        <v>3</v>
-      </c>
-      <c r="M14" s="99"/>
-      <c r="N14" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="O14" s="89"/>
-      <c r="P14" s="87"/>
-    </row>
-    <row r="15" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A15" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="87" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="88">
-        <v>1</v>
-      </c>
-      <c r="D15" s="89"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="88" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J15" s="91" t="s">
-        <v>71</v>
-      </c>
-      <c r="K15" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="L15" s="93">
-        <v>1</v>
-      </c>
-      <c r="M15" s="99"/>
-      <c r="N15" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="O15" s="89"/>
-      <c r="P15" s="87"/>
-    </row>
-    <row r="16" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A16" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="87" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="88">
-        <v>1</v>
-      </c>
-      <c r="D16" s="89"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="88" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J16" s="91" t="s">
-        <v>76</v>
-      </c>
-      <c r="K16" s="92" t="s">
-        <v>77</v>
-      </c>
-      <c r="L16" s="93">
-        <v>0.5</v>
-      </c>
-      <c r="M16" s="99"/>
-      <c r="N16" s="87" t="s">
-        <v>14</v>
-      </c>
-      <c r="O16" s="89"/>
-      <c r="P16" s="87"/>
-    </row>
-    <row r="17" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A17" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="87" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="88">
-        <v>1</v>
-      </c>
-      <c r="D17" s="89"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="88" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J17" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="K17" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="L17" s="93">
-        <v>5</v>
-      </c>
-      <c r="M17" s="99"/>
-      <c r="N17" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="O17" s="89"/>
-      <c r="P17" s="87"/>
-    </row>
-    <row r="18" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A18" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="87" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="88">
-        <v>1</v>
-      </c>
-      <c r="D18" s="89"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="88" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J18" s="102" t="s">
-        <v>81</v>
-      </c>
-      <c r="K18" s="92" t="s">
-        <v>80</v>
-      </c>
-      <c r="L18" s="93">
-        <v>12</v>
-      </c>
-      <c r="M18" s="99"/>
-      <c r="N18" s="87" t="s">
-        <v>14</v>
-      </c>
-      <c r="O18" s="89"/>
-      <c r="P18" s="87"/>
-    </row>
-    <row r="19" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A19" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="87" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="88">
-        <v>1</v>
-      </c>
-      <c r="D19" s="89"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="88" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J19" s="91"/>
-      <c r="K19" s="92" t="s">
-        <v>82</v>
-      </c>
-      <c r="L19" s="93">
-        <v>30</v>
-      </c>
-      <c r="M19" s="99"/>
-      <c r="N19" s="87"/>
-      <c r="O19" s="89"/>
-      <c r="P19" s="87"/>
-    </row>
-    <row r="20" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A20" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="87" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="88">
-        <v>1</v>
-      </c>
-      <c r="D20" s="89"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="88" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J20" s="91" t="s">
-        <v>83</v>
-      </c>
-      <c r="K20" s="92" t="s">
-        <v>84</v>
-      </c>
-      <c r="L20" s="93">
-        <v>2</v>
-      </c>
-      <c r="M20" s="99"/>
-      <c r="N20" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="O20" s="89"/>
-      <c r="P20" s="87"/>
-    </row>
-    <row r="21" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A21" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="87" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="88">
-        <v>1</v>
-      </c>
-      <c r="D21" s="89"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="88" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J21" s="91" t="s">
-        <v>85</v>
-      </c>
-      <c r="K21" s="92" t="s">
-        <v>86</v>
-      </c>
-      <c r="L21" s="93">
-        <v>0.5</v>
-      </c>
-      <c r="M21" s="99"/>
-      <c r="N21" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="O21" s="89"/>
-      <c r="P21" s="87"/>
-    </row>
-    <row r="22" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A22" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="87" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="88">
-        <v>1</v>
-      </c>
-      <c r="D22" s="89"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="88" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J22" s="91"/>
-      <c r="K22" s="92" t="s">
-        <v>63</v>
-      </c>
-      <c r="L22" s="93">
-        <f>100-L21-L20-L19-L18-L17-0.5-1-3-7-17</f>
-        <v>22</v>
-      </c>
-      <c r="M22" s="100"/>
-      <c r="N22" s="87"/>
-      <c r="O22" s="89"/>
-      <c r="P22" s="87"/>
-    </row>
-    <row r="23" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A23" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="88">
-        <v>1</v>
-      </c>
-      <c r="D23" s="89"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="88" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J23" s="91" t="s">
-        <v>87</v>
-      </c>
-      <c r="K23" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="L23" s="93">
-        <v>10</v>
-      </c>
-      <c r="M23" s="92"/>
-      <c r="N23" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="O23" s="89"/>
-      <c r="P23" s="87"/>
-    </row>
-    <row r="24" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A24" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="88">
-        <v>1</v>
-      </c>
-      <c r="D24" s="89"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="88" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J24" s="91" t="s">
-        <v>88</v>
-      </c>
-      <c r="K24" s="92" t="s">
-        <v>89</v>
-      </c>
-      <c r="L24" s="93">
-        <v>6</v>
-      </c>
-      <c r="M24" s="92"/>
-      <c r="N24" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="O24" s="89"/>
-      <c r="P24" s="87"/>
-    </row>
-    <row r="25" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A25" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="88">
-        <v>1</v>
-      </c>
-      <c r="D25" s="89"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="88" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J25" s="91" t="s">
-        <v>90</v>
-      </c>
-      <c r="K25" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="L25" s="93">
-        <v>3</v>
-      </c>
-      <c r="M25" s="92"/>
-      <c r="N25" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="O25" s="89"/>
-      <c r="P25" s="87"/>
-    </row>
-    <row r="26" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A26" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="88">
-        <v>1</v>
-      </c>
-      <c r="D26" s="89"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="88" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J26" s="91" t="s">
-        <v>92</v>
-      </c>
-      <c r="K26" s="92" t="s">
-        <v>93</v>
-      </c>
-      <c r="L26" s="93">
-        <v>0.5</v>
-      </c>
-      <c r="M26" s="100"/>
-      <c r="N26" s="87" t="s">
-        <v>14</v>
-      </c>
-      <c r="O26" s="89"/>
-      <c r="P26" s="87"/>
-    </row>
-    <row r="27" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A27" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="88">
-        <v>1</v>
-      </c>
-      <c r="D27" s="89"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="88" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J27" s="95" t="s">
-        <v>66</v>
-      </c>
-      <c r="K27" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="L27" s="93">
-        <v>0.5</v>
-      </c>
-      <c r="M27" s="92"/>
-      <c r="N27" s="87" t="s">
-        <v>14</v>
-      </c>
-      <c r="O27" s="89"/>
-      <c r="P27" s="87"/>
-    </row>
-    <row r="28" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A28" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="88">
-        <v>1</v>
-      </c>
-      <c r="D28" s="89"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="88" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J28" s="91"/>
-      <c r="K28" s="92" t="s">
-        <v>94</v>
-      </c>
-      <c r="L28" s="93">
-        <v>60</v>
-      </c>
-      <c r="M28" s="92"/>
-      <c r="N28" s="87"/>
-      <c r="O28" s="89"/>
-      <c r="P28" s="87"/>
-    </row>
-    <row r="29" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A29" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="88">
-        <v>1</v>
-      </c>
-      <c r="D29" s="89"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="88" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J29" s="91"/>
-      <c r="K29" s="92" t="s">
-        <v>63</v>
-      </c>
-      <c r="L29" s="93">
+      <c r="D27" s="86"/>
+      <c r="E27" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="88">
         <f>100-60-1-9-10</f>
         <v>20</v>
       </c>
-      <c r="M29" s="92"/>
-      <c r="N29" s="87"/>
-      <c r="O29" s="89"/>
-      <c r="P29" s="87"/>
-    </row>
-    <row r="30" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A30" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="87" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="88">
+      <c r="G27" s="83"/>
+      <c r="H27" s="85"/>
+    </row>
+    <row r="28" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="84">
         <v>1</v>
       </c>
-      <c r="D30" s="89"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="88" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J30" s="91"/>
-      <c r="K30" s="92" t="s">
-        <v>82</v>
-      </c>
-      <c r="L30" s="93">
+      <c r="D28" s="86"/>
+      <c r="E28" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="88">
         <v>80</v>
       </c>
-      <c r="M30" s="92"/>
-      <c r="N30" s="87"/>
-      <c r="O30" s="89"/>
-      <c r="P30" s="87"/>
-    </row>
-    <row r="31" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A31" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="87" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="88">
+      <c r="G28" s="83"/>
+      <c r="H28" s="85"/>
+    </row>
+    <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="84">
         <v>1</v>
       </c>
-      <c r="D31" s="89"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="88" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J31" s="91"/>
-      <c r="K31" s="92" t="s">
+      <c r="D29" s="86"/>
+      <c r="E29" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="88">
+        <v>20</v>
+      </c>
+      <c r="G29" s="83"/>
+      <c r="H29" s="85"/>
+    </row>
+    <row r="30" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="84">
+        <v>1</v>
+      </c>
+      <c r="D30" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="88">
+        <v>22</v>
+      </c>
+      <c r="G30" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="H30" s="85"/>
+    </row>
+    <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="84">
+        <v>1</v>
+      </c>
+      <c r="D31" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="87" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="88">
+        <v>7</v>
+      </c>
+      <c r="G31" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="85">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="84">
+        <v>1</v>
+      </c>
+      <c r="D32" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="96" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" s="88">
+        <v>7</v>
+      </c>
+      <c r="G32" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="85"/>
+    </row>
+    <row r="33" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="84">
+        <v>1</v>
+      </c>
+      <c r="D33" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="87" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="88">
+        <v>17</v>
+      </c>
+      <c r="G33" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="85"/>
+    </row>
+    <row r="34" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="84">
+        <v>1</v>
+      </c>
+      <c r="D34" s="86" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" s="88">
+        <v>2</v>
+      </c>
+      <c r="G34" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="85"/>
+    </row>
+    <row r="35" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="84">
+        <v>1</v>
+      </c>
+      <c r="D35" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="L31" s="93">
-        <v>20</v>
-      </c>
-      <c r="M31" s="94"/>
-      <c r="N31" s="87"/>
-      <c r="O31" s="89"/>
-      <c r="P31" s="87"/>
-    </row>
-    <row r="32" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A32" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="87" t="s">
+      <c r="F35" s="88">
+        <v>2</v>
+      </c>
+      <c r="G35" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="H35" s="85"/>
+    </row>
+    <row r="36" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="84">
+        <v>1</v>
+      </c>
+      <c r="D36" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="87" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36" s="88">
+        <v>6</v>
+      </c>
+      <c r="G36" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="85"/>
+    </row>
+    <row r="37" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="84">
+        <v>1</v>
+      </c>
+      <c r="D37" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" s="88">
+        <v>5</v>
+      </c>
+      <c r="G37" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="85">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="84">
+        <v>1</v>
+      </c>
+      <c r="D38" s="86" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="88">
+        <v>4</v>
+      </c>
+      <c r="G38" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="85"/>
+    </row>
+    <row r="39" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="84">
+        <v>1</v>
+      </c>
+      <c r="D39" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="F39" s="88">
+        <v>1</v>
+      </c>
+      <c r="G39" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="85"/>
+    </row>
+    <row r="40" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="84">
+        <v>1</v>
+      </c>
+      <c r="D40" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="F40" s="88">
+        <v>3</v>
+      </c>
+      <c r="G40" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="85"/>
+    </row>
+    <row r="41" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="84">
+        <v>1</v>
+      </c>
+      <c r="D41" s="86"/>
+      <c r="E41" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" s="88">
+        <v>35</v>
+      </c>
+      <c r="G41" s="83"/>
+      <c r="H41" s="85"/>
+    </row>
+    <row r="42" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="84">
+        <v>1</v>
+      </c>
+      <c r="D42" s="86"/>
+      <c r="E42" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="F42" s="88">
+        <v>95</v>
+      </c>
+      <c r="G42" s="83"/>
+      <c r="H42" s="85"/>
+    </row>
+    <row r="43" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="84">
+        <v>1</v>
+      </c>
+      <c r="D43" s="86" t="s">
+        <v>76</v>
+      </c>
+      <c r="E43" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="F43" s="88">
+        <v>3</v>
+      </c>
+      <c r="G43" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="85"/>
+    </row>
+    <row r="44" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="84">
+        <v>1</v>
+      </c>
+      <c r="D44" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="F44" s="88">
+        <v>4</v>
+      </c>
+      <c r="G44" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="85"/>
+    </row>
+    <row r="45" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="84">
+        <v>1</v>
+      </c>
+      <c r="D45" s="86" t="s">
+        <v>96</v>
+      </c>
+      <c r="E45" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="F45" s="88">
+        <v>10</v>
+      </c>
+      <c r="G45" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="85"/>
+    </row>
+    <row r="46" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="84">
+        <v>1</v>
+      </c>
+      <c r="D46" s="86" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="F46" s="88">
+        <v>10</v>
+      </c>
+      <c r="G46" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="85"/>
+    </row>
+    <row r="47" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="84">
+        <v>1</v>
+      </c>
+      <c r="D47" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="F47" s="88">
+        <v>3</v>
+      </c>
+      <c r="G47" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="H47" s="85"/>
+    </row>
+    <row r="48" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="84">
+        <v>1</v>
+      </c>
+      <c r="D48" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="E48" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="F48" s="88">
+        <v>3</v>
+      </c>
+      <c r="G48" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="85"/>
+    </row>
+    <row r="49" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="84">
+        <v>1</v>
+      </c>
+      <c r="D49" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" s="88">
+        <v>70</v>
+      </c>
+      <c r="G49" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="85">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="84">
+        <v>1</v>
+      </c>
+      <c r="D50" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="E50" s="87" t="s">
+        <v>64</v>
+      </c>
+      <c r="F50" s="88">
+        <v>7</v>
+      </c>
+      <c r="G50" s="83" t="s">
+        <v>106</v>
+      </c>
+      <c r="H50" s="85"/>
+    </row>
+    <row r="51" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="84">
+        <v>1</v>
+      </c>
+      <c r="D51" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="E51" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="F51" s="88">
+        <v>4</v>
+      </c>
+      <c r="G51" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="85"/>
+    </row>
+    <row r="52" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="84">
+        <v>1</v>
+      </c>
+      <c r="D52" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="E52" s="87" t="s">
+        <v>101</v>
+      </c>
+      <c r="F52" s="88">
+        <v>10</v>
+      </c>
+      <c r="G52" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="85"/>
+    </row>
+    <row r="53" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="84">
+        <v>1</v>
+      </c>
+      <c r="D53" s="86"/>
+      <c r="E53" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="F53" s="88">
+        <v>8</v>
+      </c>
+      <c r="G53" s="83"/>
+      <c r="H53" s="85"/>
+    </row>
+    <row r="54" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" s="84">
+        <v>1</v>
+      </c>
+      <c r="D54" s="86" t="s">
+        <v>76</v>
+      </c>
+      <c r="E54" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="F54" s="88">
+        <v>1</v>
+      </c>
+      <c r="G54" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="85"/>
+    </row>
+    <row r="55" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="84">
+        <v>1</v>
+      </c>
+      <c r="D55" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="E55" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="F55" s="88">
+        <v>0.5</v>
+      </c>
+      <c r="G55" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="H55" s="85"/>
+    </row>
+    <row r="56" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" s="84">
+        <v>1</v>
+      </c>
+      <c r="D56" s="86"/>
+      <c r="E56" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="F56" s="88">
+        <v>99</v>
+      </c>
+      <c r="G56" s="83"/>
+      <c r="H56" s="85"/>
+    </row>
+    <row r="57" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" s="84">
+        <v>1</v>
+      </c>
+      <c r="D57" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="E57" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="F57" s="88">
+        <v>1</v>
+      </c>
+      <c r="G57" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="H57" s="85"/>
+    </row>
+    <row r="58" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" s="84">
+        <v>1</v>
+      </c>
+      <c r="D58" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="F58" s="88">
+        <v>15</v>
+      </c>
+      <c r="G58" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="85"/>
+    </row>
+    <row r="59" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="84">
+        <v>1</v>
+      </c>
+      <c r="D59" s="86" t="s">
+        <v>76</v>
+      </c>
+      <c r="E59" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="F59" s="88">
+        <v>3</v>
+      </c>
+      <c r="G59" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="85"/>
+    </row>
+    <row r="60" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="84">
+        <v>1</v>
+      </c>
+      <c r="D60" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="E60" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="F60" s="88">
+        <v>2</v>
+      </c>
+      <c r="G60" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="85"/>
+    </row>
+    <row r="61" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="84">
+        <v>1</v>
+      </c>
+      <c r="D61" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="E61" s="87" t="s">
+        <v>68</v>
+      </c>
+      <c r="F61" s="88">
+        <v>2</v>
+      </c>
+      <c r="G61" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" s="85"/>
+    </row>
+    <row r="62" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="84">
+        <v>1</v>
+      </c>
+      <c r="D62" s="86"/>
+      <c r="E62" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="F62" s="88">
         <v>30</v>
       </c>
-      <c r="C32" s="88">
+      <c r="G62" s="83"/>
+      <c r="H62" s="85"/>
+    </row>
+    <row r="63" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="84">
         <v>1</v>
       </c>
-      <c r="D32" s="89"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="88" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J32" s="91" t="s">
-        <v>96</v>
-      </c>
-      <c r="K32" s="92" t="s">
-        <v>95</v>
-      </c>
-      <c r="L32" s="93">
-        <v>22</v>
-      </c>
-      <c r="M32" s="94"/>
-      <c r="N32" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="O32" s="89"/>
-      <c r="P32" s="87"/>
-    </row>
-    <row r="33" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A33" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="87" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="88">
-        <v>1</v>
-      </c>
-      <c r="D33" s="89"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="88" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J33" s="91" t="s">
-        <v>69</v>
-      </c>
-      <c r="K33" s="92" t="s">
+      <c r="D63" s="95"/>
+      <c r="E63" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="F63" s="85">
         <v>70</v>
       </c>
-      <c r="L33" s="93">
-        <v>7</v>
-      </c>
-      <c r="M33" s="94"/>
-      <c r="N33" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="O33" s="89">
-        <v>59</v>
-      </c>
-      <c r="P33" s="87" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A34" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="87" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="88">
-        <v>1</v>
-      </c>
-      <c r="D34" s="89"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="88" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J34" s="103" t="s">
-        <v>98</v>
-      </c>
-      <c r="K34" s="104" t="s">
-        <v>97</v>
-      </c>
-      <c r="L34" s="93">
-        <v>7</v>
-      </c>
-      <c r="M34" s="94"/>
-      <c r="N34" s="87" t="s">
-        <v>14</v>
-      </c>
-      <c r="O34" s="89"/>
-      <c r="P34" s="87"/>
-    </row>
-    <row r="35" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A35" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="87" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="88">
-        <v>1</v>
-      </c>
-      <c r="D35" s="89"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="88" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J35" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="K35" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="L35" s="93">
-        <v>17</v>
-      </c>
-      <c r="M35" s="94" t="s">
-        <v>26</v>
-      </c>
-      <c r="N35" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="O35" s="89"/>
-      <c r="P35" s="87"/>
-    </row>
-    <row r="36" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A36" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="87" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="88">
-        <v>1</v>
-      </c>
-      <c r="D36" s="89"/>
-      <c r="E36" s="90"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="90"/>
-      <c r="I36" s="88" t="e">
-        <f t="shared" ref="I36:I65" si="1">AVERAGE(E36:H36)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J36" s="91" t="s">
-        <v>85</v>
-      </c>
-      <c r="K36" s="92" t="s">
-        <v>86</v>
-      </c>
-      <c r="L36" s="93">
-        <v>2</v>
-      </c>
-      <c r="M36" s="94"/>
-      <c r="N36" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="O36" s="89"/>
-      <c r="P36" s="87"/>
-    </row>
-    <row r="37" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A37" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="87" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="88">
-        <v>1</v>
-      </c>
-      <c r="D37" s="89"/>
-      <c r="E37" s="90"/>
-      <c r="F37" s="90"/>
-      <c r="G37" s="90"/>
-      <c r="H37" s="90"/>
-      <c r="I37" s="88" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J37" s="91" t="s">
-        <v>71</v>
-      </c>
-      <c r="K37" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="L37" s="93">
-        <v>2</v>
-      </c>
-      <c r="M37" s="94"/>
-      <c r="N37" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="O37" s="89"/>
-      <c r="P37" s="87"/>
-    </row>
-    <row r="38" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A38" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="87" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="88">
-        <v>1</v>
-      </c>
-      <c r="D38" s="89"/>
-      <c r="E38" s="90"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="90"/>
-      <c r="I38" s="88" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J38" s="91" t="s">
-        <v>92</v>
-      </c>
-      <c r="K38" s="92" t="s">
-        <v>93</v>
-      </c>
-      <c r="L38" s="93">
-        <v>6</v>
-      </c>
-      <c r="M38" s="94" t="s">
-        <v>26</v>
-      </c>
-      <c r="N38" s="87" t="s">
-        <v>14</v>
-      </c>
-      <c r="O38" s="89"/>
-      <c r="P38" s="87"/>
-    </row>
-    <row r="39" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A39" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="87" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" s="88">
-        <v>1</v>
-      </c>
-      <c r="D39" s="89"/>
-      <c r="E39" s="90"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="90"/>
-      <c r="H39" s="90"/>
-      <c r="I39" s="88" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J39" s="91" t="s">
-        <v>99</v>
-      </c>
-      <c r="K39" s="92" t="s">
-        <v>100</v>
-      </c>
-      <c r="L39" s="93">
-        <v>5</v>
-      </c>
-      <c r="M39" s="94"/>
-      <c r="N39" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="O39" s="89">
-        <v>50</v>
-      </c>
-      <c r="P39" s="87"/>
-    </row>
-    <row r="40" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A40" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="87" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" s="88">
-        <v>1</v>
-      </c>
-      <c r="D40" s="89"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="88" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J40" s="91" t="s">
-        <v>101</v>
-      </c>
-      <c r="K40" s="92" t="s">
-        <v>31</v>
-      </c>
-      <c r="L40" s="93">
-        <v>4</v>
-      </c>
-      <c r="M40" s="100"/>
-      <c r="N40" s="87" t="s">
-        <v>14</v>
-      </c>
-      <c r="O40" s="89"/>
-      <c r="P40" s="87"/>
-    </row>
-    <row r="41" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A41" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" s="87" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="88">
-        <v>1</v>
-      </c>
-      <c r="D41" s="89"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="90"/>
-      <c r="G41" s="90"/>
-      <c r="H41" s="90"/>
-      <c r="I41" s="88" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J41" s="101" t="s">
-        <v>102</v>
-      </c>
-      <c r="K41" s="92" t="s">
-        <v>103</v>
-      </c>
-      <c r="L41" s="93">
-        <v>1</v>
-      </c>
-      <c r="M41" s="92"/>
-      <c r="N41" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="O41" s="89"/>
-      <c r="P41" s="87"/>
-    </row>
-    <row r="42" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A42" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" s="87" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42" s="88">
-        <v>1</v>
-      </c>
-      <c r="D42" s="89"/>
-      <c r="E42" s="90"/>
-      <c r="F42" s="90"/>
-      <c r="G42" s="90"/>
-      <c r="H42" s="90"/>
-      <c r="I42" s="88" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J42" s="91" t="s">
-        <v>83</v>
-      </c>
-      <c r="K42" s="92" t="s">
-        <v>84</v>
-      </c>
-      <c r="L42" s="93">
-        <v>3</v>
-      </c>
-      <c r="M42" s="92"/>
-      <c r="N42" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="O42" s="89"/>
-      <c r="P42" s="87"/>
-    </row>
-    <row r="43" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A43" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B43" s="87" t="s">
-        <v>30</v>
-      </c>
-      <c r="C43" s="88">
-        <v>1</v>
-      </c>
-      <c r="D43" s="89"/>
-      <c r="E43" s="90"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="90"/>
-      <c r="H43" s="90"/>
-      <c r="I43" s="88" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J43" s="91"/>
-      <c r="K43" s="87" t="s">
-        <v>63</v>
-      </c>
-      <c r="L43" s="93">
-        <v>35</v>
-      </c>
-      <c r="M43" s="92"/>
-      <c r="N43" s="87"/>
-      <c r="O43" s="89"/>
-      <c r="P43" s="87" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A44" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="88">
-        <v>1</v>
-      </c>
-      <c r="D44" s="89"/>
-      <c r="E44" s="90"/>
-      <c r="F44" s="90"/>
-      <c r="G44" s="90"/>
-      <c r="H44" s="90"/>
-      <c r="I44" s="88" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J44" s="91"/>
-      <c r="K44" s="92" t="s">
-        <v>82</v>
-      </c>
-      <c r="L44" s="93">
-        <v>95</v>
-      </c>
-      <c r="M44" s="94"/>
-      <c r="N44" s="87"/>
-      <c r="O44" s="89"/>
-      <c r="P44" s="87"/>
-    </row>
-    <row r="45" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A45" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" s="88">
-        <v>1</v>
-      </c>
-      <c r="D45" s="89"/>
-      <c r="E45" s="90"/>
-      <c r="F45" s="90"/>
-      <c r="G45" s="90"/>
-      <c r="H45" s="90"/>
-      <c r="I45" s="88" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J45" s="91" t="s">
-        <v>85</v>
-      </c>
-      <c r="K45" s="92" t="s">
-        <v>86</v>
-      </c>
-      <c r="L45" s="93">
-        <v>3</v>
-      </c>
-      <c r="M45" s="94"/>
-      <c r="N45" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="O45" s="89"/>
-      <c r="P45" s="87"/>
-    </row>
-    <row r="46" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A46" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B46" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" s="88">
-        <v>1</v>
-      </c>
-      <c r="D46" s="89"/>
-      <c r="E46" s="90"/>
-      <c r="F46" s="90"/>
-      <c r="G46" s="90"/>
-      <c r="H46" s="90"/>
-      <c r="I46" s="88" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J46" s="91" t="s">
-        <v>104</v>
-      </c>
-      <c r="K46" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="L46" s="93">
-        <v>4</v>
-      </c>
-      <c r="M46" s="94"/>
-      <c r="N46" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="O46" s="89"/>
-      <c r="P46" s="87"/>
-    </row>
-    <row r="47" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A47" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B47" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="C47" s="88">
-        <v>1</v>
-      </c>
-      <c r="D47" s="89"/>
-      <c r="E47" s="90"/>
-      <c r="F47" s="90"/>
-      <c r="G47" s="90"/>
-      <c r="H47" s="90"/>
-      <c r="I47" s="88" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J47" s="91" t="s">
-        <v>105</v>
-      </c>
-      <c r="K47" s="92" t="s">
-        <v>106</v>
-      </c>
-      <c r="L47" s="93">
-        <v>10</v>
-      </c>
-      <c r="M47" s="94"/>
-      <c r="N47" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="O47" s="89"/>
-      <c r="P47" s="87"/>
-    </row>
-    <row r="48" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A48" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B48" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="C48" s="88">
-        <v>1</v>
-      </c>
-      <c r="D48" s="89"/>
-      <c r="E48" s="90"/>
-      <c r="F48" s="90"/>
-      <c r="G48" s="90"/>
-      <c r="H48" s="90"/>
-      <c r="I48" s="88" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J48" s="91" t="s">
-        <v>85</v>
-      </c>
-      <c r="K48" s="92" t="s">
-        <v>86</v>
-      </c>
-      <c r="L48" s="93">
-        <v>10</v>
-      </c>
-      <c r="M48" s="94"/>
-      <c r="N48" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="O48" s="89"/>
-      <c r="P48" s="87"/>
-    </row>
-    <row r="49" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A49" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B49" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="C49" s="88">
-        <v>1</v>
-      </c>
-      <c r="D49" s="89"/>
-      <c r="E49" s="90"/>
-      <c r="F49" s="90"/>
-      <c r="G49" s="90"/>
-      <c r="H49" s="90"/>
-      <c r="I49" s="88" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J49" s="91" t="s">
-        <v>71</v>
-      </c>
-      <c r="K49" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="L49" s="93">
-        <v>3</v>
-      </c>
-      <c r="M49" s="94" t="s">
-        <v>26</v>
-      </c>
-      <c r="N49" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="O49" s="89"/>
-      <c r="P49" s="87"/>
-    </row>
-    <row r="50" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A50" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B50" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50" s="88">
-        <v>1</v>
-      </c>
-      <c r="D50" s="89"/>
-      <c r="E50" s="90"/>
-      <c r="F50" s="90"/>
-      <c r="G50" s="90"/>
-      <c r="H50" s="90"/>
-      <c r="I50" s="88" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J50" s="91" t="s">
-        <v>104</v>
-      </c>
-      <c r="K50" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="L50" s="93">
-        <v>3</v>
-      </c>
-      <c r="M50" s="94"/>
-      <c r="N50" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="O50" s="89"/>
-      <c r="P50" s="87"/>
-    </row>
-    <row r="51" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A51" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B51" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="C51" s="88">
-        <v>1</v>
-      </c>
-      <c r="D51" s="89"/>
-      <c r="E51" s="90"/>
-      <c r="F51" s="90"/>
-      <c r="G51" s="90"/>
-      <c r="H51" s="90"/>
-      <c r="I51" s="88" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J51" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="K51" s="92" t="s">
-        <v>35</v>
-      </c>
-      <c r="L51" s="93">
-        <v>70</v>
-      </c>
-      <c r="M51" s="94"/>
-      <c r="N51" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="O51" s="89">
-        <v>69</v>
-      </c>
-      <c r="P51" s="87"/>
-    </row>
-    <row r="52" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A52" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B52" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="C52" s="88">
-        <v>1</v>
-      </c>
-      <c r="D52" s="89"/>
-      <c r="E52" s="90"/>
-      <c r="F52" s="90"/>
-      <c r="G52" s="90"/>
-      <c r="H52" s="90"/>
-      <c r="I52" s="88" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J52" s="91" t="s">
-        <v>113</v>
-      </c>
-      <c r="K52" s="92" t="s">
-        <v>73</v>
-      </c>
-      <c r="L52" s="93">
-        <v>7</v>
-      </c>
-      <c r="M52" s="100" t="s">
-        <v>26</v>
-      </c>
-      <c r="N52" s="87" t="s">
-        <v>115</v>
-      </c>
-      <c r="O52" s="89"/>
-      <c r="P52" s="87"/>
-    </row>
-    <row r="53" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A53" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B53" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="C53" s="88">
-        <v>1</v>
-      </c>
-      <c r="D53" s="89"/>
-      <c r="E53" s="90"/>
-      <c r="F53" s="90"/>
-      <c r="G53" s="90"/>
-      <c r="H53" s="90"/>
-      <c r="I53" s="88" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J53" s="91" t="s">
-        <v>99</v>
-      </c>
-      <c r="K53" s="92" t="s">
-        <v>100</v>
-      </c>
-      <c r="L53" s="93">
-        <v>4</v>
-      </c>
-      <c r="M53" s="92"/>
-      <c r="N53" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="O53" s="89"/>
-      <c r="P53" s="87"/>
-    </row>
-    <row r="54" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A54" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B54" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="C54" s="88">
-        <v>1</v>
-      </c>
-      <c r="D54" s="89"/>
-      <c r="E54" s="90"/>
-      <c r="F54" s="90"/>
-      <c r="G54" s="90"/>
-      <c r="H54" s="90"/>
-      <c r="I54" s="88" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J54" s="91" t="s">
-        <v>109</v>
-      </c>
-      <c r="K54" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="L54" s="93">
-        <v>10</v>
-      </c>
-      <c r="M54" s="92"/>
-      <c r="N54" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="O54" s="89"/>
-      <c r="P54" s="87"/>
-    </row>
-    <row r="55" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A55" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B55" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="C55" s="88">
-        <v>1</v>
-      </c>
-      <c r="D55" s="89"/>
-      <c r="E55" s="90"/>
-      <c r="F55" s="90"/>
-      <c r="G55" s="90"/>
-      <c r="H55" s="90"/>
-      <c r="I55" s="88" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J55" s="91"/>
-      <c r="K55" s="92" t="s">
-        <v>63</v>
-      </c>
-      <c r="L55" s="93">
-        <v>8</v>
-      </c>
-      <c r="M55" s="92"/>
-      <c r="N55" s="87"/>
-      <c r="O55" s="89"/>
-      <c r="P55" s="87"/>
-    </row>
-    <row r="56" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A56" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B56" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="C56" s="88">
-        <v>1</v>
-      </c>
-      <c r="D56" s="89"/>
-      <c r="E56" s="90"/>
-      <c r="F56" s="90"/>
-      <c r="G56" s="90"/>
-      <c r="H56" s="90"/>
-      <c r="I56" s="88" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J56" s="91" t="s">
-        <v>85</v>
-      </c>
-      <c r="K56" s="92" t="s">
-        <v>86</v>
-      </c>
-      <c r="L56" s="93">
-        <v>1</v>
-      </c>
-      <c r="M56" s="100"/>
-      <c r="N56" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="O56" s="89"/>
-      <c r="P56" s="87"/>
-    </row>
-    <row r="57" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A57" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B57" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="C57" s="88">
-        <v>1</v>
-      </c>
-      <c r="D57" s="89"/>
-      <c r="E57" s="90"/>
-      <c r="F57" s="90"/>
-      <c r="G57" s="90"/>
-      <c r="H57" s="90"/>
-      <c r="I57" s="88" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J57" s="91" t="s">
-        <v>96</v>
-      </c>
-      <c r="K57" s="92" t="s">
-        <v>95</v>
-      </c>
-      <c r="L57" s="93">
-        <v>0.5</v>
-      </c>
-      <c r="M57" s="92"/>
-      <c r="N57" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="O57" s="89"/>
-      <c r="P57" s="87"/>
-    </row>
-    <row r="58" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A58" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B58" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="C58" s="88">
-        <v>1</v>
-      </c>
-      <c r="D58" s="89"/>
-      <c r="E58" s="90"/>
-      <c r="F58" s="90"/>
-      <c r="G58" s="90"/>
-      <c r="H58" s="90"/>
-      <c r="I58" s="88" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J58" s="91"/>
-      <c r="K58" s="87" t="s">
-        <v>94</v>
-      </c>
-      <c r="L58" s="93">
-        <v>99</v>
-      </c>
-      <c r="M58" s="92"/>
-      <c r="N58" s="87"/>
-      <c r="O58" s="89"/>
-      <c r="P58" s="87"/>
-    </row>
-    <row r="59" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A59" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B59" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="C59" s="88">
-        <v>1</v>
-      </c>
-      <c r="D59" s="89"/>
-      <c r="E59" s="90"/>
-      <c r="F59" s="90"/>
-      <c r="G59" s="90"/>
-      <c r="H59" s="90"/>
-      <c r="I59" s="88" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J59" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="K59" s="92" t="s">
-        <v>64</v>
-      </c>
-      <c r="L59" s="93">
-        <v>1</v>
-      </c>
-      <c r="M59" s="92"/>
-      <c r="N59" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="O59" s="89"/>
-      <c r="P59" s="87"/>
-    </row>
-    <row r="60" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A60" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B60" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="C60" s="88">
-        <v>1</v>
-      </c>
-      <c r="D60" s="89"/>
-      <c r="E60" s="90"/>
-      <c r="F60" s="90"/>
-      <c r="G60" s="90"/>
-      <c r="H60" s="90"/>
-      <c r="I60" s="88" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J60" s="91" t="s">
-        <v>104</v>
-      </c>
-      <c r="K60" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="L60" s="93">
-        <v>15</v>
-      </c>
-      <c r="M60" s="92"/>
-      <c r="N60" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="O60" s="89"/>
-      <c r="P60" s="87"/>
-    </row>
-    <row r="61" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A61" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B61" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="C61" s="88">
-        <v>1</v>
-      </c>
-      <c r="D61" s="89"/>
-      <c r="E61" s="90"/>
-      <c r="F61" s="90"/>
-      <c r="G61" s="90"/>
-      <c r="H61" s="90"/>
-      <c r="I61" s="88" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J61" s="91" t="s">
-        <v>85</v>
-      </c>
-      <c r="K61" s="92" t="s">
-        <v>86</v>
-      </c>
-      <c r="L61" s="93">
-        <v>3</v>
-      </c>
-      <c r="M61" s="100"/>
-      <c r="N61" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="O61" s="89"/>
-      <c r="P61" s="87"/>
-    </row>
-    <row r="62" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A62" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B62" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="C62" s="88">
-        <v>1</v>
-      </c>
-      <c r="D62" s="89"/>
-      <c r="E62" s="90"/>
-      <c r="F62" s="90"/>
-      <c r="G62" s="90"/>
-      <c r="H62" s="90"/>
-      <c r="I62" s="88" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J62" s="101" t="s">
-        <v>111</v>
-      </c>
-      <c r="K62" s="92" t="s">
-        <v>112</v>
-      </c>
-      <c r="L62" s="93">
-        <v>2</v>
-      </c>
-      <c r="M62" s="92"/>
-      <c r="N62" s="87" t="s">
-        <v>14</v>
-      </c>
-      <c r="O62" s="89"/>
-      <c r="P62" s="87"/>
-    </row>
-    <row r="63" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A63" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B63" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="C63" s="88">
-        <v>1</v>
-      </c>
-      <c r="D63" s="89"/>
-      <c r="E63" s="90"/>
-      <c r="F63" s="90"/>
-      <c r="G63" s="90"/>
-      <c r="H63" s="90"/>
-      <c r="I63" s="88" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J63" s="91" t="s">
-        <v>76</v>
-      </c>
-      <c r="K63" s="92" t="s">
-        <v>77</v>
-      </c>
-      <c r="L63" s="93">
-        <v>2</v>
-      </c>
-      <c r="M63" s="92"/>
-      <c r="N63" s="87" t="s">
-        <v>14</v>
-      </c>
-      <c r="O63" s="89"/>
-      <c r="P63" s="87"/>
-    </row>
-    <row r="64" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A64" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B64" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="C64" s="88">
-        <v>1</v>
-      </c>
-      <c r="D64" s="89"/>
-      <c r="E64" s="90"/>
-      <c r="F64" s="90"/>
-      <c r="G64" s="90"/>
-      <c r="H64" s="90"/>
-      <c r="I64" s="88" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J64" s="91"/>
-      <c r="K64" s="92" t="s">
-        <v>63</v>
-      </c>
-      <c r="L64" s="93">
-        <v>30</v>
-      </c>
-      <c r="M64" s="92"/>
-      <c r="N64" s="87"/>
-      <c r="O64" s="89"/>
-      <c r="P64" s="87"/>
-    </row>
-    <row r="65" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A65" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B65" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="C65" s="88">
-        <v>1</v>
-      </c>
-      <c r="D65" s="107"/>
-      <c r="E65" s="107"/>
-      <c r="F65" s="107"/>
-      <c r="G65" s="107"/>
-      <c r="H65" s="107"/>
-      <c r="I65" s="88" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J65" s="103"/>
-      <c r="K65" s="87" t="s">
-        <v>94</v>
-      </c>
-      <c r="L65" s="89">
-        <v>70</v>
-      </c>
-      <c r="M65" s="108"/>
-      <c r="N65" s="107"/>
-      <c r="O65" s="107"/>
-      <c r="P65" s="107"/>
+      <c r="G63" s="99"/>
+      <c r="H63" s="99"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="E2:H2"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
@@ -5241,7 +4392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IV313"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -5251,129 +4402,129 @@
       <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6.875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="6.8984375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="5.8984375" style="9" customWidth="1"/>
     <col min="2" max="2" width="5.5" style="9" customWidth="1"/>
-    <col min="3" max="3" width="3.75" style="9" customWidth="1"/>
-    <col min="4" max="4" width="3.875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="4.375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="3.69921875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="3.8984375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="12.8984375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="4.3984375" style="9" customWidth="1"/>
     <col min="7" max="7" width="4.5" style="9" customWidth="1"/>
-    <col min="8" max="22" width="4.75" style="9" customWidth="1"/>
+    <col min="8" max="22" width="4.69921875" style="9" customWidth="1"/>
     <col min="23" max="23" width="32.5" style="9" customWidth="1"/>
-    <col min="24" max="256" width="6.875" style="9" customWidth="1"/>
+    <col min="24" max="256" width="6.8984375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="12.75" customHeight="1">
+    <row r="1" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
-      <c r="E1" s="113" t="s">
+      <c r="E1" s="100" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="101"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="116"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="112" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="113"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="110"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="106" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" s="107"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" s="104"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="13"/>
+    </row>
+    <row r="2" spans="1:23" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="114"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="128" t="s">
+      <c r="E2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="129"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="125" t="s">
+      <c r="F2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="126"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="122" t="s">
+      <c r="G2" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="123"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="119" t="s">
+      <c r="H2" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="R1" s="120"/>
-      <c r="S1" s="121"/>
-      <c r="T1" s="116" t="s">
+      <c r="I2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="U1" s="117"/>
-      <c r="V1" s="118"/>
-      <c r="W1" s="13"/>
-    </row>
-    <row r="2" spans="1:23" ht="63.75" customHeight="1">
-      <c r="A2" s="14" t="s">
+      <c r="J2" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>53</v>
-      </c>
       <c r="K2" s="20" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="N2" s="23" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="O2" s="24" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="P2" s="25" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="Q2" s="26" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="R2" s="27" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="S2" s="28" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="T2" s="29" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="U2" s="30" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="V2" s="31" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="W2" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="12.75" customHeight="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="33"/>
       <c r="B3" s="33"/>
       <c r="C3" s="34"/>
@@ -5413,7 +4564,7 @@
       <c r="V3" s="39"/>
       <c r="W3" s="40"/>
     </row>
-    <row r="4" spans="1:23" ht="12.75" customHeight="1">
+    <row r="4" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="41"/>
       <c r="B4" s="41"/>
       <c r="C4" s="42"/>
@@ -5453,7 +4604,7 @@
       <c r="V4" s="47"/>
       <c r="W4" s="48"/>
     </row>
-    <row r="5" spans="1:23" ht="12.75" customHeight="1">
+    <row r="5" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="42"/>
@@ -5493,7 +4644,7 @@
       <c r="V5" s="47"/>
       <c r="W5" s="48"/>
     </row>
-    <row r="6" spans="1:23" ht="12.75" customHeight="1">
+    <row r="6" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="41"/>
       <c r="B6" s="41"/>
       <c r="C6" s="42"/>
@@ -5533,7 +4684,7 @@
       <c r="V6" s="47"/>
       <c r="W6" s="48"/>
     </row>
-    <row r="7" spans="1:23" ht="12.75" customHeight="1">
+    <row r="7" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="41"/>
       <c r="B7" s="41"/>
       <c r="C7" s="42"/>
@@ -5573,7 +4724,7 @@
       <c r="V7" s="47"/>
       <c r="W7" s="48"/>
     </row>
-    <row r="8" spans="1:23" ht="12.75" customHeight="1">
+    <row r="8" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="41"/>
       <c r="B8" s="41"/>
       <c r="C8" s="42"/>
@@ -5613,7 +4764,7 @@
       <c r="V8" s="47"/>
       <c r="W8" s="48"/>
     </row>
-    <row r="9" spans="1:23" ht="12.75" customHeight="1">
+    <row r="9" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="41"/>
       <c r="B9" s="41"/>
       <c r="C9" s="42"/>
@@ -5653,7 +4804,7 @@
       <c r="V9" s="47"/>
       <c r="W9" s="48"/>
     </row>
-    <row r="10" spans="1:23" ht="12.75" customHeight="1">
+    <row r="10" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="41"/>
       <c r="B10" s="41"/>
       <c r="C10" s="42"/>
@@ -5693,7 +4844,7 @@
       <c r="V10" s="47"/>
       <c r="W10" s="48"/>
     </row>
-    <row r="11" spans="1:23" ht="12.75" customHeight="1">
+    <row r="11" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="41"/>
       <c r="B11" s="41"/>
       <c r="C11" s="42"/>
@@ -5733,7 +4884,7 @@
       <c r="V11" s="47"/>
       <c r="W11" s="48"/>
     </row>
-    <row r="12" spans="1:23" ht="12.75" customHeight="1">
+    <row r="12" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="41"/>
       <c r="B12" s="41"/>
       <c r="C12" s="42"/>
@@ -5773,7 +4924,7 @@
       <c r="V12" s="47"/>
       <c r="W12" s="48"/>
     </row>
-    <row r="13" spans="1:23" ht="12.75" customHeight="1">
+    <row r="13" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="41"/>
       <c r="B13" s="41"/>
       <c r="C13" s="42"/>
@@ -5813,7 +4964,7 @@
       <c r="V13" s="47"/>
       <c r="W13" s="48"/>
     </row>
-    <row r="14" spans="1:23" ht="12.75" customHeight="1">
+    <row r="14" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="41"/>
       <c r="B14" s="41"/>
       <c r="C14" s="42"/>
@@ -5853,7 +5004,7 @@
       <c r="V14" s="47"/>
       <c r="W14" s="48"/>
     </row>
-    <row r="15" spans="1:23" ht="12.75" customHeight="1">
+    <row r="15" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="41"/>
       <c r="B15" s="41"/>
       <c r="C15" s="42"/>
@@ -5893,7 +5044,7 @@
       <c r="V15" s="47"/>
       <c r="W15" s="48"/>
     </row>
-    <row r="16" spans="1:23" ht="12.75" customHeight="1">
+    <row r="16" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="41"/>
       <c r="B16" s="41"/>
       <c r="C16" s="42"/>
@@ -5933,7 +5084,7 @@
       <c r="V16" s="47"/>
       <c r="W16" s="48"/>
     </row>
-    <row r="17" spans="1:23" ht="12.75" customHeight="1">
+    <row r="17" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="41"/>
       <c r="B17" s="41"/>
       <c r="C17" s="42"/>
@@ -5973,7 +5124,7 @@
       <c r="V17" s="47"/>
       <c r="W17" s="48"/>
     </row>
-    <row r="18" spans="1:23" ht="12.75" customHeight="1">
+    <row r="18" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="41"/>
       <c r="B18" s="41"/>
       <c r="C18" s="42"/>
@@ -6013,7 +5164,7 @@
       <c r="V18" s="47"/>
       <c r="W18" s="48"/>
     </row>
-    <row r="19" spans="1:23" ht="12.75" customHeight="1">
+    <row r="19" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="41"/>
       <c r="B19" s="41"/>
       <c r="C19" s="42"/>
@@ -6053,7 +5204,7 @@
       <c r="V19" s="47"/>
       <c r="W19" s="48"/>
     </row>
-    <row r="20" spans="1:23" ht="12.75" customHeight="1">
+    <row r="20" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="41"/>
       <c r="B20" s="41"/>
       <c r="C20" s="42"/>
@@ -6093,7 +5244,7 @@
       <c r="V20" s="47"/>
       <c r="W20" s="48"/>
     </row>
-    <row r="21" spans="1:23" ht="12.75" customHeight="1">
+    <row r="21" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="41"/>
       <c r="B21" s="41"/>
       <c r="C21" s="42"/>
@@ -6133,7 +5284,7 @@
       <c r="V21" s="47"/>
       <c r="W21" s="48"/>
     </row>
-    <row r="22" spans="1:23" ht="12.75" customHeight="1">
+    <row r="22" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="41"/>
       <c r="B22" s="41"/>
       <c r="C22" s="42"/>
@@ -6173,7 +5324,7 @@
       <c r="V22" s="47"/>
       <c r="W22" s="48"/>
     </row>
-    <row r="23" spans="1:23" ht="12.75" customHeight="1">
+    <row r="23" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="41"/>
       <c r="B23" s="41"/>
       <c r="C23" s="42"/>
@@ -6213,7 +5364,7 @@
       <c r="V23" s="47"/>
       <c r="W23" s="48"/>
     </row>
-    <row r="24" spans="1:23" ht="12.75" customHeight="1">
+    <row r="24" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="41"/>
       <c r="B24" s="41"/>
       <c r="C24" s="42"/>
@@ -6253,7 +5404,7 @@
       <c r="V24" s="47"/>
       <c r="W24" s="48"/>
     </row>
-    <row r="25" spans="1:23" ht="12.75" customHeight="1">
+    <row r="25" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="41"/>
       <c r="B25" s="41"/>
       <c r="C25" s="42"/>
@@ -6293,7 +5444,7 @@
       <c r="V25" s="47"/>
       <c r="W25" s="48"/>
     </row>
-    <row r="26" spans="1:23" ht="12.75" customHeight="1">
+    <row r="26" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="41"/>
       <c r="B26" s="41"/>
       <c r="C26" s="42"/>
@@ -6333,7 +5484,7 @@
       <c r="V26" s="47"/>
       <c r="W26" s="48"/>
     </row>
-    <row r="27" spans="1:23" ht="12.75" customHeight="1">
+    <row r="27" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="41"/>
       <c r="B27" s="41"/>
       <c r="C27" s="42"/>
@@ -6373,7 +5524,7 @@
       <c r="V27" s="47"/>
       <c r="W27" s="48"/>
     </row>
-    <row r="28" spans="1:23" ht="12.75" customHeight="1">
+    <row r="28" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="41"/>
       <c r="B28" s="41"/>
       <c r="C28" s="42"/>
@@ -6413,7 +5564,7 @@
       <c r="V28" s="47"/>
       <c r="W28" s="48"/>
     </row>
-    <row r="29" spans="1:23" ht="12.75" customHeight="1">
+    <row r="29" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="41"/>
       <c r="B29" s="41"/>
       <c r="C29" s="42"/>
@@ -6453,7 +5604,7 @@
       <c r="V29" s="47"/>
       <c r="W29" s="48"/>
     </row>
-    <row r="30" spans="1:23" ht="12.75" customHeight="1">
+    <row r="30" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="41"/>
       <c r="B30" s="41"/>
       <c r="C30" s="42"/>
@@ -6493,7 +5644,7 @@
       <c r="V30" s="47"/>
       <c r="W30" s="48"/>
     </row>
-    <row r="31" spans="1:23" ht="12.75" customHeight="1">
+    <row r="31" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="41"/>
       <c r="B31" s="41"/>
       <c r="C31" s="42"/>
@@ -6533,7 +5684,7 @@
       <c r="V31" s="47"/>
       <c r="W31" s="48"/>
     </row>
-    <row r="32" spans="1:23" ht="12.75" customHeight="1">
+    <row r="32" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="41"/>
       <c r="B32" s="41"/>
       <c r="C32" s="42"/>
@@ -6573,7 +5724,7 @@
       <c r="V32" s="47"/>
       <c r="W32" s="48"/>
     </row>
-    <row r="33" spans="1:23" ht="12.75" customHeight="1">
+    <row r="33" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="41"/>
       <c r="B33" s="41"/>
       <c r="C33" s="42"/>
@@ -6613,7 +5764,7 @@
       <c r="V33" s="47"/>
       <c r="W33" s="48"/>
     </row>
-    <row r="34" spans="1:23" ht="12.75" customHeight="1">
+    <row r="34" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="41"/>
       <c r="B34" s="41"/>
       <c r="C34" s="42"/>
@@ -6653,7 +5804,7 @@
       <c r="V34" s="47"/>
       <c r="W34" s="48"/>
     </row>
-    <row r="35" spans="1:23" ht="12.75" customHeight="1">
+    <row r="35" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="41"/>
       <c r="B35" s="41"/>
       <c r="C35" s="42"/>
@@ -6693,7 +5844,7 @@
       <c r="V35" s="47"/>
       <c r="W35" s="48"/>
     </row>
-    <row r="36" spans="1:23" ht="12.75" customHeight="1">
+    <row r="36" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="41"/>
       <c r="B36" s="41"/>
       <c r="C36" s="42"/>
@@ -6733,7 +5884,7 @@
       <c r="V36" s="47"/>
       <c r="W36" s="48"/>
     </row>
-    <row r="37" spans="1:23" ht="12.75" customHeight="1">
+    <row r="37" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="41"/>
       <c r="B37" s="41"/>
       <c r="C37" s="42"/>
@@ -6773,7 +5924,7 @@
       <c r="V37" s="47"/>
       <c r="W37" s="48"/>
     </row>
-    <row r="38" spans="1:23" ht="12.75" customHeight="1">
+    <row r="38" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="41"/>
       <c r="B38" s="41"/>
       <c r="C38" s="42"/>
@@ -6813,7 +5964,7 @@
       <c r="V38" s="47"/>
       <c r="W38" s="48"/>
     </row>
-    <row r="39" spans="1:23" ht="12.75" customHeight="1">
+    <row r="39" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="41"/>
       <c r="B39" s="41"/>
       <c r="C39" s="42"/>
@@ -6853,7 +6004,7 @@
       <c r="V39" s="47"/>
       <c r="W39" s="48"/>
     </row>
-    <row r="40" spans="1:23" ht="12.75" customHeight="1">
+    <row r="40" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="41"/>
       <c r="B40" s="41"/>
       <c r="C40" s="42"/>
@@ -6893,7 +6044,7 @@
       <c r="V40" s="47"/>
       <c r="W40" s="48"/>
     </row>
-    <row r="41" spans="1:23" ht="12.75" customHeight="1">
+    <row r="41" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="41"/>
       <c r="B41" s="41"/>
       <c r="C41" s="42"/>
@@ -6933,7 +6084,7 @@
       <c r="V41" s="47"/>
       <c r="W41" s="48"/>
     </row>
-    <row r="42" spans="1:23" ht="12.75" customHeight="1">
+    <row r="42" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="41"/>
       <c r="B42" s="41"/>
       <c r="C42" s="42"/>
@@ -6973,7 +6124,7 @@
       <c r="V42" s="47"/>
       <c r="W42" s="48"/>
     </row>
-    <row r="43" spans="1:23" ht="12.75" customHeight="1">
+    <row r="43" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="41"/>
       <c r="B43" s="41"/>
       <c r="C43" s="42"/>
@@ -7013,7 +6164,7 @@
       <c r="V43" s="47"/>
       <c r="W43" s="48"/>
     </row>
-    <row r="44" spans="1:23" ht="12.75" customHeight="1">
+    <row r="44" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="41"/>
       <c r="B44" s="41"/>
       <c r="C44" s="42"/>
@@ -7053,7 +6204,7 @@
       <c r="V44" s="47"/>
       <c r="W44" s="48"/>
     </row>
-    <row r="45" spans="1:23" ht="12.75" customHeight="1">
+    <row r="45" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="41"/>
       <c r="B45" s="41"/>
       <c r="C45" s="42"/>
@@ -7093,7 +6244,7 @@
       <c r="V45" s="47"/>
       <c r="W45" s="48"/>
     </row>
-    <row r="46" spans="1:23" ht="12.75" customHeight="1">
+    <row r="46" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="41"/>
       <c r="B46" s="41"/>
       <c r="C46" s="42"/>
@@ -7133,7 +6284,7 @@
       <c r="V46" s="47"/>
       <c r="W46" s="48"/>
     </row>
-    <row r="47" spans="1:23" ht="12.75" customHeight="1">
+    <row r="47" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="41"/>
       <c r="B47" s="41"/>
       <c r="C47" s="42"/>
@@ -7173,7 +6324,7 @@
       <c r="V47" s="47"/>
       <c r="W47" s="48"/>
     </row>
-    <row r="48" spans="1:23" ht="12.75" customHeight="1">
+    <row r="48" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="41"/>
       <c r="B48" s="41"/>
       <c r="C48" s="42"/>
@@ -7213,7 +6364,7 @@
       <c r="V48" s="47"/>
       <c r="W48" s="48"/>
     </row>
-    <row r="49" spans="1:23" ht="12.75" customHeight="1">
+    <row r="49" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="41"/>
       <c r="B49" s="41"/>
       <c r="C49" s="42"/>
@@ -7253,7 +6404,7 @@
       <c r="V49" s="47"/>
       <c r="W49" s="48"/>
     </row>
-    <row r="50" spans="1:23" ht="12.75" customHeight="1">
+    <row r="50" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="41"/>
       <c r="B50" s="41"/>
       <c r="C50" s="42"/>
@@ -7293,7 +6444,7 @@
       <c r="V50" s="47"/>
       <c r="W50" s="48"/>
     </row>
-    <row r="51" spans="1:23" ht="12.75" customHeight="1">
+    <row r="51" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="41"/>
       <c r="B51" s="41"/>
       <c r="C51" s="42"/>
@@ -7333,7 +6484,7 @@
       <c r="V51" s="47"/>
       <c r="W51" s="48"/>
     </row>
-    <row r="52" spans="1:23" ht="12.75" customHeight="1">
+    <row r="52" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="41"/>
       <c r="B52" s="41"/>
       <c r="C52" s="42"/>
@@ -7373,7 +6524,7 @@
       <c r="V52" s="47"/>
       <c r="W52" s="48"/>
     </row>
-    <row r="53" spans="1:23" ht="12.75" customHeight="1">
+    <row r="53" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="41"/>
       <c r="B53" s="41"/>
       <c r="C53" s="42"/>
@@ -7413,7 +6564,7 @@
       <c r="V53" s="47"/>
       <c r="W53" s="48"/>
     </row>
-    <row r="54" spans="1:23" ht="12.75" customHeight="1">
+    <row r="54" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="41"/>
       <c r="B54" s="41"/>
       <c r="C54" s="42"/>
@@ -7453,7 +6604,7 @@
       <c r="V54" s="47"/>
       <c r="W54" s="48"/>
     </row>
-    <row r="55" spans="1:23" ht="12.75" customHeight="1">
+    <row r="55" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="41"/>
       <c r="B55" s="41"/>
       <c r="C55" s="42"/>
@@ -7493,7 +6644,7 @@
       <c r="V55" s="47"/>
       <c r="W55" s="48"/>
     </row>
-    <row r="56" spans="1:23" ht="12.75" customHeight="1">
+    <row r="56" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="41"/>
       <c r="B56" s="41"/>
       <c r="C56" s="42"/>
@@ -7533,7 +6684,7 @@
       <c r="V56" s="47"/>
       <c r="W56" s="48"/>
     </row>
-    <row r="57" spans="1:23" ht="12.75" customHeight="1">
+    <row r="57" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="41"/>
       <c r="B57" s="41"/>
       <c r="C57" s="42"/>
@@ -7573,7 +6724,7 @@
       <c r="V57" s="47"/>
       <c r="W57" s="48"/>
     </row>
-    <row r="58" spans="1:23" ht="12.75" customHeight="1">
+    <row r="58" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="41"/>
       <c r="B58" s="41"/>
       <c r="C58" s="42"/>
@@ -7613,7 +6764,7 @@
       <c r="V58" s="47"/>
       <c r="W58" s="48"/>
     </row>
-    <row r="59" spans="1:23" ht="12.75" customHeight="1">
+    <row r="59" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="41"/>
       <c r="B59" s="41"/>
       <c r="C59" s="42"/>
@@ -7653,7 +6804,7 @@
       <c r="V59" s="47"/>
       <c r="W59" s="48"/>
     </row>
-    <row r="60" spans="1:23" ht="12.75" customHeight="1">
+    <row r="60" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="41"/>
       <c r="B60" s="41"/>
       <c r="C60" s="42"/>
@@ -7693,7 +6844,7 @@
       <c r="V60" s="47"/>
       <c r="W60" s="48"/>
     </row>
-    <row r="61" spans="1:23" ht="12.75" customHeight="1">
+    <row r="61" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="41"/>
       <c r="B61" s="41"/>
       <c r="C61" s="42"/>
@@ -7733,7 +6884,7 @@
       <c r="V61" s="47"/>
       <c r="W61" s="48"/>
     </row>
-    <row r="62" spans="1:23" ht="12.75" customHeight="1">
+    <row r="62" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="41"/>
       <c r="B62" s="41"/>
       <c r="C62" s="42"/>
@@ -7773,7 +6924,7 @@
       <c r="V62" s="47"/>
       <c r="W62" s="48"/>
     </row>
-    <row r="63" spans="1:23" ht="12.75" customHeight="1">
+    <row r="63" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="41"/>
       <c r="B63" s="41"/>
       <c r="C63" s="42"/>
@@ -7813,7 +6964,7 @@
       <c r="V63" s="47"/>
       <c r="W63" s="48"/>
     </row>
-    <row r="64" spans="1:23" ht="12.75" customHeight="1">
+    <row r="64" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="41"/>
       <c r="B64" s="41"/>
       <c r="C64" s="42"/>
@@ -7853,7 +7004,7 @@
       <c r="V64" s="47"/>
       <c r="W64" s="48"/>
     </row>
-    <row r="65" spans="1:23" ht="12.75" customHeight="1">
+    <row r="65" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="41"/>
       <c r="B65" s="41"/>
       <c r="C65" s="42"/>
@@ -7893,7 +7044,7 @@
       <c r="V65" s="47"/>
       <c r="W65" s="48"/>
     </row>
-    <row r="66" spans="1:23" ht="12.75" customHeight="1">
+    <row r="66" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="41"/>
       <c r="B66" s="41"/>
       <c r="C66" s="42"/>
@@ -7933,7 +7084,7 @@
       <c r="V66" s="47"/>
       <c r="W66" s="48"/>
     </row>
-    <row r="67" spans="1:23" ht="12.75" customHeight="1">
+    <row r="67" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="41"/>
       <c r="B67" s="41"/>
       <c r="C67" s="42"/>
@@ -7973,7 +7124,7 @@
       <c r="V67" s="50"/>
       <c r="W67" s="44"/>
     </row>
-    <row r="68" spans="1:23" ht="12.75" customHeight="1">
+    <row r="68" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="41"/>
       <c r="B68" s="41"/>
       <c r="C68" s="42"/>
@@ -8013,7 +7164,7 @@
       <c r="V68" s="50"/>
       <c r="W68" s="44"/>
     </row>
-    <row r="69" spans="1:23" ht="12.75" customHeight="1">
+    <row r="69" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="41"/>
       <c r="B69" s="41"/>
       <c r="C69" s="42"/>
@@ -8053,7 +7204,7 @@
       <c r="V69" s="50"/>
       <c r="W69" s="44"/>
     </row>
-    <row r="70" spans="1:23" ht="12.75" customHeight="1">
+    <row r="70" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="41"/>
       <c r="B70" s="41"/>
       <c r="C70" s="42"/>
@@ -8093,7 +7244,7 @@
       <c r="V70" s="50"/>
       <c r="W70" s="44"/>
     </row>
-    <row r="71" spans="1:23" ht="12.75" customHeight="1">
+    <row r="71" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="41"/>
       <c r="B71" s="41"/>
       <c r="C71" s="42"/>
@@ -8133,7 +7284,7 @@
       <c r="V71" s="50"/>
       <c r="W71" s="44"/>
     </row>
-    <row r="72" spans="1:23" ht="12.75" customHeight="1">
+    <row r="72" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="41"/>
       <c r="B72" s="41"/>
       <c r="C72" s="42"/>
@@ -8173,7 +7324,7 @@
       <c r="V72" s="50"/>
       <c r="W72" s="44"/>
     </row>
-    <row r="73" spans="1:23" ht="12.75" customHeight="1">
+    <row r="73" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="41"/>
       <c r="B73" s="41"/>
       <c r="C73" s="42"/>
@@ -8213,7 +7364,7 @@
       <c r="V73" s="50"/>
       <c r="W73" s="44"/>
     </row>
-    <row r="74" spans="1:23" ht="12.75" customHeight="1">
+    <row r="74" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="41"/>
       <c r="B74" s="41"/>
       <c r="C74" s="42"/>
@@ -8253,7 +7404,7 @@
       <c r="V74" s="50"/>
       <c r="W74" s="44"/>
     </row>
-    <row r="75" spans="1:23" ht="12.75" customHeight="1">
+    <row r="75" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="41"/>
       <c r="B75" s="41"/>
       <c r="C75" s="42"/>
@@ -8293,7 +7444,7 @@
       <c r="V75" s="50"/>
       <c r="W75" s="44"/>
     </row>
-    <row r="76" spans="1:23" ht="12.75" customHeight="1">
+    <row r="76" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="41"/>
       <c r="B76" s="41"/>
       <c r="C76" s="42"/>
@@ -8333,7 +7484,7 @@
       <c r="V76" s="50"/>
       <c r="W76" s="44"/>
     </row>
-    <row r="77" spans="1:23" ht="12.75" customHeight="1">
+    <row r="77" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="41"/>
       <c r="B77" s="41"/>
       <c r="C77" s="42"/>
@@ -8373,7 +7524,7 @@
       <c r="V77" s="50"/>
       <c r="W77" s="44"/>
     </row>
-    <row r="78" spans="1:23" ht="12.75" customHeight="1">
+    <row r="78" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="41"/>
       <c r="B78" s="41"/>
       <c r="C78" s="42"/>
@@ -8413,7 +7564,7 @@
       <c r="V78" s="50"/>
       <c r="W78" s="44"/>
     </row>
-    <row r="79" spans="1:23" ht="12.75" customHeight="1">
+    <row r="79" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="41"/>
       <c r="B79" s="41"/>
       <c r="C79" s="42"/>
@@ -8453,7 +7604,7 @@
       <c r="V79" s="50"/>
       <c r="W79" s="44"/>
     </row>
-    <row r="80" spans="1:23" ht="12.75" customHeight="1">
+    <row r="80" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="41"/>
       <c r="B80" s="41"/>
       <c r="C80" s="42"/>
@@ -8493,7 +7644,7 @@
       <c r="V80" s="50"/>
       <c r="W80" s="44"/>
     </row>
-    <row r="81" spans="1:23" ht="12.75" customHeight="1">
+    <row r="81" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="41"/>
       <c r="B81" s="41"/>
       <c r="C81" s="42"/>
@@ -8533,7 +7684,7 @@
       <c r="V81" s="50"/>
       <c r="W81" s="44"/>
     </row>
-    <row r="82" spans="1:23" ht="12.75" customHeight="1">
+    <row r="82" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="41"/>
       <c r="B82" s="41"/>
       <c r="C82" s="42"/>
@@ -8573,7 +7724,7 @@
       <c r="V82" s="50"/>
       <c r="W82" s="44"/>
     </row>
-    <row r="83" spans="1:23" ht="12.75" customHeight="1">
+    <row r="83" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="41"/>
       <c r="B83" s="41"/>
       <c r="C83" s="42"/>
@@ -8613,7 +7764,7 @@
       <c r="V83" s="50"/>
       <c r="W83" s="44"/>
     </row>
-    <row r="84" spans="1:23" ht="12.75" customHeight="1">
+    <row r="84" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="41"/>
       <c r="B84" s="41"/>
       <c r="C84" s="42"/>
@@ -8653,7 +7804,7 @@
       <c r="V84" s="50"/>
       <c r="W84" s="44"/>
     </row>
-    <row r="85" spans="1:23" ht="12.75" customHeight="1">
+    <row r="85" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="41"/>
       <c r="B85" s="41"/>
       <c r="C85" s="42"/>
@@ -8693,7 +7844,7 @@
       <c r="V85" s="50"/>
       <c r="W85" s="44"/>
     </row>
-    <row r="86" spans="1:23" ht="12.75" customHeight="1">
+    <row r="86" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="41"/>
       <c r="B86" s="41"/>
       <c r="C86" s="42"/>
@@ -8733,7 +7884,7 @@
       <c r="V86" s="50"/>
       <c r="W86" s="44"/>
     </row>
-    <row r="87" spans="1:23" ht="12.75" customHeight="1">
+    <row r="87" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="41"/>
       <c r="B87" s="41"/>
       <c r="C87" s="42"/>
@@ -8773,7 +7924,7 @@
       <c r="V87" s="50"/>
       <c r="W87" s="44"/>
     </row>
-    <row r="88" spans="1:23" ht="12.75" customHeight="1">
+    <row r="88" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="41"/>
       <c r="B88" s="41"/>
       <c r="C88" s="42"/>
@@ -8813,7 +7964,7 @@
       <c r="V88" s="50"/>
       <c r="W88" s="44"/>
     </row>
-    <row r="89" spans="1:23" ht="12.75" customHeight="1">
+    <row r="89" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="41"/>
       <c r="B89" s="41"/>
       <c r="C89" s="42"/>
@@ -8853,7 +8004,7 @@
       <c r="V89" s="50"/>
       <c r="W89" s="44"/>
     </row>
-    <row r="90" spans="1:23" ht="12.75" customHeight="1">
+    <row r="90" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="41"/>
       <c r="B90" s="41"/>
       <c r="C90" s="42"/>
@@ -8893,7 +8044,7 @@
       <c r="V90" s="50"/>
       <c r="W90" s="44"/>
     </row>
-    <row r="91" spans="1:23" ht="12.75" customHeight="1">
+    <row r="91" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="41"/>
       <c r="B91" s="41"/>
       <c r="C91" s="42"/>
@@ -8933,7 +8084,7 @@
       <c r="V91" s="50"/>
       <c r="W91" s="44"/>
     </row>
-    <row r="92" spans="1:23" ht="12.75" customHeight="1">
+    <row r="92" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="41"/>
       <c r="B92" s="41"/>
       <c r="C92" s="42"/>
@@ -8973,7 +8124,7 @@
       <c r="V92" s="50"/>
       <c r="W92" s="44"/>
     </row>
-    <row r="93" spans="1:23" ht="12.75" customHeight="1">
+    <row r="93" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="41"/>
       <c r="B93" s="41"/>
       <c r="C93" s="42"/>
@@ -9013,7 +8164,7 @@
       <c r="V93" s="50"/>
       <c r="W93" s="44"/>
     </row>
-    <row r="94" spans="1:23" ht="12.75" customHeight="1">
+    <row r="94" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="41"/>
       <c r="B94" s="41"/>
       <c r="C94" s="42"/>
@@ -9053,7 +8204,7 @@
       <c r="V94" s="50"/>
       <c r="W94" s="44"/>
     </row>
-    <row r="95" spans="1:23" ht="12.75" customHeight="1">
+    <row r="95" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="41"/>
       <c r="B95" s="41"/>
       <c r="C95" s="42"/>
@@ -9093,7 +8244,7 @@
       <c r="V95" s="50"/>
       <c r="W95" s="44"/>
     </row>
-    <row r="96" spans="1:23" ht="12.75" customHeight="1">
+    <row r="96" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="41"/>
       <c r="B96" s="41"/>
       <c r="C96" s="42"/>
@@ -9133,7 +8284,7 @@
       <c r="V96" s="50"/>
       <c r="W96" s="44"/>
     </row>
-    <row r="97" spans="1:23" ht="12.75" customHeight="1">
+    <row r="97" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="41"/>
       <c r="B97" s="41"/>
       <c r="C97" s="42"/>
@@ -9173,7 +8324,7 @@
       <c r="V97" s="50"/>
       <c r="W97" s="44"/>
     </row>
-    <row r="98" spans="1:23" ht="12.75" customHeight="1">
+    <row r="98" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="41"/>
       <c r="B98" s="41"/>
       <c r="C98" s="42"/>
@@ -9213,7 +8364,7 @@
       <c r="V98" s="50"/>
       <c r="W98" s="44"/>
     </row>
-    <row r="99" spans="1:23" ht="12.75" customHeight="1">
+    <row r="99" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="41"/>
       <c r="B99" s="41"/>
       <c r="C99" s="42"/>
@@ -9253,7 +8404,7 @@
       <c r="V99" s="50"/>
       <c r="W99" s="44"/>
     </row>
-    <row r="100" spans="1:23" ht="12.75" customHeight="1">
+    <row r="100" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="41"/>
       <c r="B100" s="41"/>
       <c r="C100" s="42"/>
@@ -9293,7 +8444,7 @@
       <c r="V100" s="50"/>
       <c r="W100" s="44"/>
     </row>
-    <row r="101" spans="1:23" ht="12.75" customHeight="1">
+    <row r="101" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="41"/>
       <c r="B101" s="41"/>
       <c r="C101" s="42"/>
@@ -9333,7 +8484,7 @@
       <c r="V101" s="50"/>
       <c r="W101" s="44"/>
     </row>
-    <row r="102" spans="1:23" ht="12.75" customHeight="1">
+    <row r="102" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="41"/>
       <c r="B102" s="41"/>
       <c r="C102" s="42"/>
@@ -9373,7 +8524,7 @@
       <c r="V102" s="50"/>
       <c r="W102" s="44"/>
     </row>
-    <row r="103" spans="1:23" ht="12.75" customHeight="1">
+    <row r="103" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="41"/>
       <c r="B103" s="41"/>
       <c r="C103" s="42"/>
@@ -9413,7 +8564,7 @@
       <c r="V103" s="50"/>
       <c r="W103" s="44"/>
     </row>
-    <row r="104" spans="1:23" ht="12.75" customHeight="1">
+    <row r="104" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="41"/>
       <c r="B104" s="41"/>
       <c r="C104" s="42"/>
@@ -9453,7 +8604,7 @@
       <c r="V104" s="50"/>
       <c r="W104" s="44"/>
     </row>
-    <row r="105" spans="1:23" ht="12.75" customHeight="1">
+    <row r="105" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="41"/>
       <c r="B105" s="41"/>
       <c r="C105" s="42"/>
@@ -9493,7 +8644,7 @@
       <c r="V105" s="50"/>
       <c r="W105" s="44"/>
     </row>
-    <row r="106" spans="1:23" ht="12.75" customHeight="1">
+    <row r="106" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="41"/>
       <c r="B106" s="41"/>
       <c r="C106" s="42"/>
@@ -9533,7 +8684,7 @@
       <c r="V106" s="50"/>
       <c r="W106" s="44"/>
     </row>
-    <row r="107" spans="1:23" ht="12.75" customHeight="1">
+    <row r="107" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="41"/>
       <c r="B107" s="41"/>
       <c r="C107" s="42"/>
@@ -9573,7 +8724,7 @@
       <c r="V107" s="50"/>
       <c r="W107" s="44"/>
     </row>
-    <row r="108" spans="1:23" ht="12.75" customHeight="1">
+    <row r="108" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="41"/>
       <c r="B108" s="41"/>
       <c r="C108" s="42"/>
@@ -9613,7 +8764,7 @@
       <c r="V108" s="50"/>
       <c r="W108" s="44"/>
     </row>
-    <row r="109" spans="1:23" ht="12.75" customHeight="1">
+    <row r="109" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="41"/>
       <c r="B109" s="41"/>
       <c r="C109" s="42"/>
@@ -9653,7 +8804,7 @@
       <c r="V109" s="50"/>
       <c r="W109" s="44"/>
     </row>
-    <row r="110" spans="1:23" ht="12.75" customHeight="1">
+    <row r="110" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="41"/>
       <c r="B110" s="41"/>
       <c r="C110" s="42"/>
@@ -9693,7 +8844,7 @@
       <c r="V110" s="50"/>
       <c r="W110" s="44"/>
     </row>
-    <row r="111" spans="1:23" ht="12.75" customHeight="1">
+    <row r="111" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="41"/>
       <c r="B111" s="41"/>
       <c r="C111" s="42"/>
@@ -9733,7 +8884,7 @@
       <c r="V111" s="50"/>
       <c r="W111" s="44"/>
     </row>
-    <row r="112" spans="1:23" ht="12.75" customHeight="1">
+    <row r="112" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="41"/>
       <c r="B112" s="41"/>
       <c r="C112" s="42"/>
@@ -9773,7 +8924,7 @@
       <c r="V112" s="50"/>
       <c r="W112" s="44"/>
     </row>
-    <row r="113" spans="1:23" ht="12.75" customHeight="1">
+    <row r="113" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="41"/>
       <c r="B113" s="41"/>
       <c r="C113" s="42"/>
@@ -9813,7 +8964,7 @@
       <c r="V113" s="50"/>
       <c r="W113" s="44"/>
     </row>
-    <row r="114" spans="1:23" ht="12.75" customHeight="1">
+    <row r="114" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="41"/>
       <c r="B114" s="41"/>
       <c r="C114" s="42"/>
@@ -9853,7 +9004,7 @@
       <c r="V114" s="50"/>
       <c r="W114" s="44"/>
     </row>
-    <row r="115" spans="1:23" ht="12.75" customHeight="1">
+    <row r="115" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="41"/>
       <c r="B115" s="41"/>
       <c r="C115" s="42"/>
@@ -9893,7 +9044,7 @@
       <c r="V115" s="50"/>
       <c r="W115" s="44"/>
     </row>
-    <row r="116" spans="1:23" ht="12.75" customHeight="1">
+    <row r="116" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="41"/>
       <c r="B116" s="41"/>
       <c r="C116" s="42"/>
@@ -9933,7 +9084,7 @@
       <c r="V116" s="50"/>
       <c r="W116" s="44"/>
     </row>
-    <row r="117" spans="1:23" ht="12.75" customHeight="1">
+    <row r="117" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="41"/>
       <c r="B117" s="41"/>
       <c r="C117" s="42"/>
@@ -9973,7 +9124,7 @@
       <c r="V117" s="50"/>
       <c r="W117" s="44"/>
     </row>
-    <row r="118" spans="1:23" ht="12.75" customHeight="1">
+    <row r="118" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="41"/>
       <c r="B118" s="41"/>
       <c r="C118" s="42"/>
@@ -10013,7 +9164,7 @@
       <c r="V118" s="50"/>
       <c r="W118" s="44"/>
     </row>
-    <row r="119" spans="1:23" ht="12.75" customHeight="1">
+    <row r="119" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="41"/>
       <c r="B119" s="41"/>
       <c r="C119" s="42"/>
@@ -10053,7 +9204,7 @@
       <c r="V119" s="50"/>
       <c r="W119" s="44"/>
     </row>
-    <row r="120" spans="1:23" ht="12.75" customHeight="1">
+    <row r="120" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="41"/>
       <c r="B120" s="41"/>
       <c r="C120" s="42"/>
@@ -10093,7 +9244,7 @@
       <c r="V120" s="50"/>
       <c r="W120" s="44"/>
     </row>
-    <row r="121" spans="1:23" ht="12.75" customHeight="1">
+    <row r="121" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="41"/>
       <c r="B121" s="41"/>
       <c r="C121" s="42"/>
@@ -10133,7 +9284,7 @@
       <c r="V121" s="50"/>
       <c r="W121" s="44"/>
     </row>
-    <row r="122" spans="1:23" ht="12.75" customHeight="1">
+    <row r="122" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="41"/>
       <c r="B122" s="41"/>
       <c r="C122" s="42"/>
@@ -10173,7 +9324,7 @@
       <c r="V122" s="50"/>
       <c r="W122" s="44"/>
     </row>
-    <row r="123" spans="1:23" ht="12.75" customHeight="1">
+    <row r="123" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="41"/>
       <c r="B123" s="41"/>
       <c r="C123" s="42"/>
@@ -10213,7 +9364,7 @@
       <c r="V123" s="50"/>
       <c r="W123" s="44"/>
     </row>
-    <row r="124" spans="1:23" ht="12.75" customHeight="1">
+    <row r="124" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="41"/>
       <c r="B124" s="41"/>
       <c r="C124" s="42"/>
@@ -10253,7 +9404,7 @@
       <c r="V124" s="50"/>
       <c r="W124" s="44"/>
     </row>
-    <row r="125" spans="1:23" ht="12.75" customHeight="1">
+    <row r="125" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="41"/>
       <c r="B125" s="41"/>
       <c r="C125" s="42"/>
@@ -10293,7 +9444,7 @@
       <c r="V125" s="50"/>
       <c r="W125" s="44"/>
     </row>
-    <row r="126" spans="1:23" ht="12.75" customHeight="1">
+    <row r="126" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="41"/>
       <c r="B126" s="41"/>
       <c r="C126" s="42"/>
@@ -10333,7 +9484,7 @@
       <c r="V126" s="50"/>
       <c r="W126" s="44"/>
     </row>
-    <row r="127" spans="1:23" ht="12.75" customHeight="1">
+    <row r="127" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="41"/>
       <c r="B127" s="41"/>
       <c r="C127" s="42"/>
@@ -10373,7 +9524,7 @@
       <c r="V127" s="50"/>
       <c r="W127" s="44"/>
     </row>
-    <row r="128" spans="1:23" ht="12.75" customHeight="1">
+    <row r="128" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="41"/>
       <c r="B128" s="41"/>
       <c r="C128" s="42"/>
@@ -10413,7 +9564,7 @@
       <c r="V128" s="50"/>
       <c r="W128" s="44"/>
     </row>
-    <row r="129" spans="1:23" ht="12.75" customHeight="1">
+    <row r="129" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="41"/>
       <c r="B129" s="41"/>
       <c r="C129" s="42"/>
@@ -10453,7 +9604,7 @@
       <c r="V129" s="50"/>
       <c r="W129" s="44"/>
     </row>
-    <row r="130" spans="1:23" ht="12.75" customHeight="1">
+    <row r="130" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="41"/>
       <c r="B130" s="41"/>
       <c r="C130" s="42"/>
@@ -10493,7 +9644,7 @@
       <c r="V130" s="50"/>
       <c r="W130" s="44"/>
     </row>
-    <row r="131" spans="1:23" ht="12.75" customHeight="1">
+    <row r="131" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="41"/>
       <c r="B131" s="41"/>
       <c r="C131" s="42"/>
@@ -10533,7 +9684,7 @@
       <c r="V131" s="50"/>
       <c r="W131" s="44"/>
     </row>
-    <row r="132" spans="1:23" ht="12.75" customHeight="1">
+    <row r="132" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="41"/>
       <c r="B132" s="41"/>
       <c r="C132" s="42"/>
@@ -10573,7 +9724,7 @@
       <c r="V132" s="50"/>
       <c r="W132" s="44"/>
     </row>
-    <row r="133" spans="1:23" ht="12.75" customHeight="1">
+    <row r="133" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="41"/>
       <c r="B133" s="41"/>
       <c r="C133" s="42"/>
@@ -10613,7 +9764,7 @@
       <c r="V133" s="50"/>
       <c r="W133" s="44"/>
     </row>
-    <row r="134" spans="1:23" ht="12.75" customHeight="1">
+    <row r="134" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="41"/>
       <c r="B134" s="41"/>
       <c r="C134" s="42"/>
@@ -10653,7 +9804,7 @@
       <c r="V134" s="50"/>
       <c r="W134" s="44"/>
     </row>
-    <row r="135" spans="1:23" ht="12.75" customHeight="1">
+    <row r="135" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="41"/>
       <c r="B135" s="41"/>
       <c r="C135" s="42"/>
@@ -10693,7 +9844,7 @@
       <c r="V135" s="50"/>
       <c r="W135" s="44"/>
     </row>
-    <row r="136" spans="1:23" ht="12.75" customHeight="1">
+    <row r="136" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="41"/>
       <c r="B136" s="41"/>
       <c r="C136" s="42"/>
@@ -10733,7 +9884,7 @@
       <c r="V136" s="50"/>
       <c r="W136" s="44"/>
     </row>
-    <row r="137" spans="1:23" ht="12.75" customHeight="1">
+    <row r="137" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="41"/>
       <c r="B137" s="41"/>
       <c r="C137" s="42"/>
@@ -10773,7 +9924,7 @@
       <c r="V137" s="50"/>
       <c r="W137" s="44"/>
     </row>
-    <row r="138" spans="1:23" ht="12.75" customHeight="1">
+    <row r="138" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="41"/>
       <c r="B138" s="41"/>
       <c r="C138" s="42"/>
@@ -10813,7 +9964,7 @@
       <c r="V138" s="50"/>
       <c r="W138" s="44"/>
     </row>
-    <row r="139" spans="1:23" ht="12.75" customHeight="1">
+    <row r="139" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="41"/>
       <c r="B139" s="41"/>
       <c r="C139" s="42"/>
@@ -10853,7 +10004,7 @@
       <c r="V139" s="50"/>
       <c r="W139" s="44"/>
     </row>
-    <row r="140" spans="1:23" ht="12.75" customHeight="1">
+    <row r="140" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="41"/>
       <c r="B140" s="41"/>
       <c r="C140" s="42"/>
@@ -10893,7 +10044,7 @@
       <c r="V140" s="50"/>
       <c r="W140" s="44"/>
     </row>
-    <row r="141" spans="1:23" ht="12.75" customHeight="1">
+    <row r="141" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="41"/>
       <c r="B141" s="41"/>
       <c r="C141" s="42"/>
@@ -10933,7 +10084,7 @@
       <c r="V141" s="50"/>
       <c r="W141" s="44"/>
     </row>
-    <row r="142" spans="1:23" ht="12.75" customHeight="1">
+    <row r="142" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="41"/>
       <c r="B142" s="41"/>
       <c r="C142" s="42"/>
@@ -10973,7 +10124,7 @@
       <c r="V142" s="50"/>
       <c r="W142" s="44"/>
     </row>
-    <row r="143" spans="1:23" ht="12.75" customHeight="1">
+    <row r="143" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="41"/>
       <c r="B143" s="41"/>
       <c r="C143" s="42"/>
@@ -11013,7 +10164,7 @@
       <c r="V143" s="50"/>
       <c r="W143" s="44"/>
     </row>
-    <row r="144" spans="1:23" ht="12.75" customHeight="1">
+    <row r="144" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="41"/>
       <c r="B144" s="41"/>
       <c r="C144" s="42"/>
@@ -11053,7 +10204,7 @@
       <c r="V144" s="50"/>
       <c r="W144" s="44"/>
     </row>
-    <row r="145" spans="1:23" ht="12.75" customHeight="1">
+    <row r="145" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="41"/>
       <c r="B145" s="41"/>
       <c r="C145" s="42"/>
@@ -11093,7 +10244,7 @@
       <c r="V145" s="50"/>
       <c r="W145" s="44"/>
     </row>
-    <row r="146" spans="1:23" ht="12.75" customHeight="1">
+    <row r="146" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="41"/>
       <c r="B146" s="41"/>
       <c r="C146" s="42"/>
@@ -11133,7 +10284,7 @@
       <c r="V146" s="50"/>
       <c r="W146" s="44"/>
     </row>
-    <row r="147" spans="1:23" ht="12.75" customHeight="1">
+    <row r="147" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="41"/>
       <c r="B147" s="41"/>
       <c r="C147" s="42"/>
@@ -11173,7 +10324,7 @@
       <c r="V147" s="50"/>
       <c r="W147" s="44"/>
     </row>
-    <row r="148" spans="1:23" ht="12.75" customHeight="1">
+    <row r="148" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="41"/>
       <c r="B148" s="41"/>
       <c r="C148" s="42"/>
@@ -11213,7 +10364,7 @@
       <c r="V148" s="50"/>
       <c r="W148" s="44"/>
     </row>
-    <row r="149" spans="1:23" ht="12.75" customHeight="1">
+    <row r="149" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="41"/>
       <c r="B149" s="41"/>
       <c r="C149" s="42"/>
@@ -11253,7 +10404,7 @@
       <c r="V149" s="50"/>
       <c r="W149" s="44"/>
     </row>
-    <row r="150" spans="1:23" ht="12.75" customHeight="1">
+    <row r="150" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="41"/>
       <c r="B150" s="41"/>
       <c r="C150" s="42"/>
@@ -11293,7 +10444,7 @@
       <c r="V150" s="50"/>
       <c r="W150" s="44"/>
     </row>
-    <row r="151" spans="1:23" ht="12.75" customHeight="1">
+    <row r="151" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="41"/>
       <c r="B151" s="41"/>
       <c r="C151" s="42"/>
@@ -11333,7 +10484,7 @@
       <c r="V151" s="50"/>
       <c r="W151" s="44"/>
     </row>
-    <row r="152" spans="1:23" ht="12.75" customHeight="1">
+    <row r="152" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="41"/>
       <c r="B152" s="41"/>
       <c r="C152" s="42"/>
@@ -11373,7 +10524,7 @@
       <c r="V152" s="50"/>
       <c r="W152" s="44"/>
     </row>
-    <row r="153" spans="1:23" ht="12.75" customHeight="1">
+    <row r="153" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="41"/>
       <c r="B153" s="41"/>
       <c r="C153" s="42"/>
@@ -11413,7 +10564,7 @@
       <c r="V153" s="50"/>
       <c r="W153" s="44"/>
     </row>
-    <row r="154" spans="1:23" ht="12.75" customHeight="1">
+    <row r="154" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="41"/>
       <c r="B154" s="41"/>
       <c r="C154" s="42"/>
@@ -11453,7 +10604,7 @@
       <c r="V154" s="50"/>
       <c r="W154" s="44"/>
     </row>
-    <row r="155" spans="1:23" ht="12.75" customHeight="1">
+    <row r="155" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="41"/>
       <c r="B155" s="41"/>
       <c r="C155" s="42"/>
@@ -11493,7 +10644,7 @@
       <c r="V155" s="50"/>
       <c r="W155" s="44"/>
     </row>
-    <row r="156" spans="1:23" ht="12.75" customHeight="1">
+    <row r="156" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="41"/>
       <c r="B156" s="41"/>
       <c r="C156" s="42"/>
@@ -11533,7 +10684,7 @@
       <c r="V156" s="50"/>
       <c r="W156" s="44"/>
     </row>
-    <row r="157" spans="1:23" ht="12.75" customHeight="1">
+    <row r="157" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="41"/>
       <c r="B157" s="41"/>
       <c r="C157" s="42"/>
@@ -11573,7 +10724,7 @@
       <c r="V157" s="50"/>
       <c r="W157" s="44"/>
     </row>
-    <row r="158" spans="1:23" ht="12.75" customHeight="1">
+    <row r="158" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="41"/>
       <c r="B158" s="41"/>
       <c r="C158" s="42"/>
@@ -11613,7 +10764,7 @@
       <c r="V158" s="50"/>
       <c r="W158" s="44"/>
     </row>
-    <row r="159" spans="1:23" ht="12.75" customHeight="1">
+    <row r="159" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="41"/>
       <c r="B159" s="41"/>
       <c r="C159" s="42"/>
@@ -11653,7 +10804,7 @@
       <c r="V159" s="50"/>
       <c r="W159" s="44"/>
     </row>
-    <row r="160" spans="1:23" ht="12.75" customHeight="1">
+    <row r="160" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="41"/>
       <c r="B160" s="41"/>
       <c r="C160" s="42"/>
@@ -11693,7 +10844,7 @@
       <c r="V160" s="50"/>
       <c r="W160" s="44"/>
     </row>
-    <row r="161" spans="1:23" ht="12.75" customHeight="1">
+    <row r="161" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="41"/>
       <c r="B161" s="41"/>
       <c r="C161" s="42"/>
@@ -11733,7 +10884,7 @@
       <c r="V161" s="50"/>
       <c r="W161" s="44"/>
     </row>
-    <row r="162" spans="1:23" ht="12.75" customHeight="1">
+    <row r="162" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="41"/>
       <c r="B162" s="41"/>
       <c r="C162" s="42"/>
@@ -11773,7 +10924,7 @@
       <c r="V162" s="50"/>
       <c r="W162" s="44"/>
     </row>
-    <row r="163" spans="1:23" ht="12.75" customHeight="1">
+    <row r="163" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="41"/>
       <c r="B163" s="41"/>
       <c r="C163" s="42"/>
@@ -11813,7 +10964,7 @@
       <c r="V163" s="50"/>
       <c r="W163" s="44"/>
     </row>
-    <row r="164" spans="1:23" ht="12.75" customHeight="1">
+    <row r="164" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="41"/>
       <c r="B164" s="41"/>
       <c r="C164" s="42"/>
@@ -11853,7 +11004,7 @@
       <c r="V164" s="50"/>
       <c r="W164" s="44"/>
     </row>
-    <row r="165" spans="1:23" ht="12.75" customHeight="1">
+    <row r="165" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="41"/>
       <c r="B165" s="41"/>
       <c r="C165" s="42"/>
@@ -11893,7 +11044,7 @@
       <c r="V165" s="50"/>
       <c r="W165" s="44"/>
     </row>
-    <row r="166" spans="1:23" ht="12.75" customHeight="1">
+    <row r="166" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="41"/>
       <c r="B166" s="41"/>
       <c r="C166" s="42"/>
@@ -11933,7 +11084,7 @@
       <c r="V166" s="50"/>
       <c r="W166" s="44"/>
     </row>
-    <row r="167" spans="1:23" ht="12.75" customHeight="1">
+    <row r="167" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="41"/>
       <c r="B167" s="41"/>
       <c r="C167" s="42"/>
@@ -11973,7 +11124,7 @@
       <c r="V167" s="50"/>
       <c r="W167" s="44"/>
     </row>
-    <row r="168" spans="1:23" ht="12.75" customHeight="1">
+    <row r="168" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="41"/>
       <c r="B168" s="41"/>
       <c r="C168" s="42"/>
@@ -12013,7 +11164,7 @@
       <c r="V168" s="50"/>
       <c r="W168" s="44"/>
     </row>
-    <row r="169" spans="1:23" ht="12.75" customHeight="1">
+    <row r="169" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="41"/>
       <c r="B169" s="41"/>
       <c r="C169" s="42"/>
@@ -12053,7 +11204,7 @@
       <c r="V169" s="50"/>
       <c r="W169" s="44"/>
     </row>
-    <row r="170" spans="1:23" ht="12.75" customHeight="1">
+    <row r="170" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="41"/>
       <c r="B170" s="41"/>
       <c r="C170" s="42"/>
@@ -12093,7 +11244,7 @@
       <c r="V170" s="50"/>
       <c r="W170" s="44"/>
     </row>
-    <row r="171" spans="1:23" ht="12.75" customHeight="1">
+    <row r="171" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="41"/>
       <c r="B171" s="41"/>
       <c r="C171" s="42"/>
@@ -12133,7 +11284,7 @@
       <c r="V171" s="50"/>
       <c r="W171" s="44"/>
     </row>
-    <row r="172" spans="1:23" ht="12.75" customHeight="1">
+    <row r="172" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="41"/>
       <c r="B172" s="41"/>
       <c r="C172" s="42"/>
@@ -12173,7 +11324,7 @@
       <c r="V172" s="50"/>
       <c r="W172" s="44"/>
     </row>
-    <row r="173" spans="1:23" ht="12.75" customHeight="1">
+    <row r="173" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="41"/>
       <c r="B173" s="41"/>
       <c r="C173" s="42"/>
@@ -12213,7 +11364,7 @@
       <c r="V173" s="50"/>
       <c r="W173" s="44"/>
     </row>
-    <row r="174" spans="1:23" ht="12.75" customHeight="1">
+    <row r="174" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="41"/>
       <c r="B174" s="41"/>
       <c r="C174" s="42"/>
@@ -12253,7 +11404,7 @@
       <c r="V174" s="50"/>
       <c r="W174" s="44"/>
     </row>
-    <row r="175" spans="1:23" ht="12.75" customHeight="1">
+    <row r="175" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="41"/>
       <c r="B175" s="41"/>
       <c r="C175" s="42"/>
@@ -12293,7 +11444,7 @@
       <c r="V175" s="50"/>
       <c r="W175" s="44"/>
     </row>
-    <row r="176" spans="1:23" ht="12.75" customHeight="1">
+    <row r="176" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="41"/>
       <c r="B176" s="41"/>
       <c r="C176" s="42"/>
@@ -12333,7 +11484,7 @@
       <c r="V176" s="50"/>
       <c r="W176" s="44"/>
     </row>
-    <row r="177" spans="1:23" ht="12.75" customHeight="1">
+    <row r="177" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="41"/>
       <c r="B177" s="41"/>
       <c r="C177" s="42"/>
@@ -12373,7 +11524,7 @@
       <c r="V177" s="50"/>
       <c r="W177" s="44"/>
     </row>
-    <row r="178" spans="1:23" ht="12.75" customHeight="1">
+    <row r="178" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="41"/>
       <c r="B178" s="41"/>
       <c r="C178" s="42"/>
@@ -12413,7 +11564,7 @@
       <c r="V178" s="50"/>
       <c r="W178" s="44"/>
     </row>
-    <row r="179" spans="1:23" ht="12.75" customHeight="1">
+    <row r="179" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="41"/>
       <c r="B179" s="41"/>
       <c r="C179" s="42"/>
@@ -12453,7 +11604,7 @@
       <c r="V179" s="50"/>
       <c r="W179" s="44"/>
     </row>
-    <row r="180" spans="1:23" ht="12.75" customHeight="1">
+    <row r="180" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="41"/>
       <c r="B180" s="41"/>
       <c r="C180" s="42"/>
@@ -12493,7 +11644,7 @@
       <c r="V180" s="50"/>
       <c r="W180" s="44"/>
     </row>
-    <row r="181" spans="1:23" ht="12.75" customHeight="1">
+    <row r="181" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="41"/>
       <c r="B181" s="41"/>
       <c r="C181" s="42"/>
@@ -12533,7 +11684,7 @@
       <c r="V181" s="50"/>
       <c r="W181" s="44"/>
     </row>
-    <row r="182" spans="1:23" ht="12.75" customHeight="1">
+    <row r="182" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="41"/>
       <c r="B182" s="41"/>
       <c r="C182" s="42"/>
@@ -12573,7 +11724,7 @@
       <c r="V182" s="50"/>
       <c r="W182" s="44"/>
     </row>
-    <row r="183" spans="1:23" ht="12.75" customHeight="1">
+    <row r="183" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="41"/>
       <c r="B183" s="41"/>
       <c r="C183" s="42"/>
@@ -12613,7 +11764,7 @@
       <c r="V183" s="50"/>
       <c r="W183" s="44"/>
     </row>
-    <row r="184" spans="1:23" ht="12.75" customHeight="1">
+    <row r="184" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="41"/>
       <c r="B184" s="41"/>
       <c r="C184" s="42"/>
@@ -12653,7 +11804,7 @@
       <c r="V184" s="50"/>
       <c r="W184" s="44"/>
     </row>
-    <row r="185" spans="1:23" ht="12.75" customHeight="1">
+    <row r="185" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="41"/>
       <c r="B185" s="41"/>
       <c r="C185" s="42"/>
@@ -12693,7 +11844,7 @@
       <c r="V185" s="50"/>
       <c r="W185" s="44"/>
     </row>
-    <row r="186" spans="1:23" ht="12.75" customHeight="1">
+    <row r="186" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="41"/>
       <c r="B186" s="41"/>
       <c r="C186" s="42"/>
@@ -12733,7 +11884,7 @@
       <c r="V186" s="50"/>
       <c r="W186" s="44"/>
     </row>
-    <row r="187" spans="1:23" ht="12.75" customHeight="1">
+    <row r="187" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="41"/>
       <c r="B187" s="41"/>
       <c r="C187" s="42"/>
@@ -12773,7 +11924,7 @@
       <c r="V187" s="50"/>
       <c r="W187" s="44"/>
     </row>
-    <row r="188" spans="1:23" ht="12.75" customHeight="1">
+    <row r="188" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="41"/>
       <c r="B188" s="41"/>
       <c r="C188" s="42"/>
@@ -12813,7 +11964,7 @@
       <c r="V188" s="50"/>
       <c r="W188" s="44"/>
     </row>
-    <row r="189" spans="1:23" ht="12.75" customHeight="1">
+    <row r="189" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="41"/>
       <c r="B189" s="41"/>
       <c r="C189" s="42"/>
@@ -12853,7 +12004,7 @@
       <c r="V189" s="50"/>
       <c r="W189" s="44"/>
     </row>
-    <row r="190" spans="1:23" ht="12.75" customHeight="1">
+    <row r="190" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="41"/>
       <c r="B190" s="41"/>
       <c r="C190" s="42"/>
@@ -12893,7 +12044,7 @@
       <c r="V190" s="50"/>
       <c r="W190" s="44"/>
     </row>
-    <row r="191" spans="1:23" ht="12.75" customHeight="1">
+    <row r="191" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="41"/>
       <c r="B191" s="41"/>
       <c r="C191" s="42"/>
@@ -12933,7 +12084,7 @@
       <c r="V191" s="50"/>
       <c r="W191" s="44"/>
     </row>
-    <row r="192" spans="1:23" ht="12.75" customHeight="1">
+    <row r="192" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="41"/>
       <c r="B192" s="41"/>
       <c r="C192" s="42"/>
@@ -12973,7 +12124,7 @@
       <c r="V192" s="50"/>
       <c r="W192" s="44"/>
     </row>
-    <row r="193" spans="1:23" ht="12.75" customHeight="1">
+    <row r="193" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="41"/>
       <c r="B193" s="41"/>
       <c r="C193" s="42"/>
@@ -13013,7 +12164,7 @@
       <c r="V193" s="50"/>
       <c r="W193" s="44"/>
     </row>
-    <row r="194" spans="1:23" ht="12.75" customHeight="1">
+    <row r="194" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="41"/>
       <c r="B194" s="41"/>
       <c r="C194" s="42"/>
@@ -13053,7 +12204,7 @@
       <c r="V194" s="50"/>
       <c r="W194" s="44"/>
     </row>
-    <row r="195" spans="1:23" ht="12.75" customHeight="1">
+    <row r="195" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="41"/>
       <c r="B195" s="41"/>
       <c r="C195" s="42"/>
@@ -13093,7 +12244,7 @@
       <c r="V195" s="50"/>
       <c r="W195" s="44"/>
     </row>
-    <row r="196" spans="1:23" ht="12.75" customHeight="1">
+    <row r="196" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="41"/>
       <c r="B196" s="41"/>
       <c r="C196" s="42"/>
@@ -13133,7 +12284,7 @@
       <c r="V196" s="50"/>
       <c r="W196" s="44"/>
     </row>
-    <row r="197" spans="1:23" ht="12.75" customHeight="1">
+    <row r="197" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="41"/>
       <c r="B197" s="41"/>
       <c r="C197" s="42"/>
@@ -13173,7 +12324,7 @@
       <c r="V197" s="50"/>
       <c r="W197" s="44"/>
     </row>
-    <row r="198" spans="1:23" ht="12.75" customHeight="1">
+    <row r="198" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="41"/>
       <c r="B198" s="41"/>
       <c r="C198" s="42"/>
@@ -13213,7 +12364,7 @@
       <c r="V198" s="50"/>
       <c r="W198" s="44"/>
     </row>
-    <row r="199" spans="1:23" ht="12.75" customHeight="1">
+    <row r="199" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="41"/>
       <c r="B199" s="41"/>
       <c r="C199" s="42"/>
@@ -13253,7 +12404,7 @@
       <c r="V199" s="50"/>
       <c r="W199" s="44"/>
     </row>
-    <row r="200" spans="1:23" ht="12.75" customHeight="1">
+    <row r="200" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="41"/>
       <c r="B200" s="41"/>
       <c r="C200" s="42"/>
@@ -13293,7 +12444,7 @@
       <c r="V200" s="50"/>
       <c r="W200" s="44"/>
     </row>
-    <row r="201" spans="1:23" ht="12.75" customHeight="1">
+    <row r="201" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="41"/>
       <c r="B201" s="41"/>
       <c r="C201" s="42"/>
@@ -13333,7 +12484,7 @@
       <c r="V201" s="50"/>
       <c r="W201" s="44"/>
     </row>
-    <row r="202" spans="1:23" ht="12.75" customHeight="1">
+    <row r="202" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="41"/>
       <c r="B202" s="41"/>
       <c r="C202" s="42"/>
@@ -13373,7 +12524,7 @@
       <c r="V202" s="50"/>
       <c r="W202" s="44"/>
     </row>
-    <row r="203" spans="1:23" ht="12.75" customHeight="1">
+    <row r="203" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="41"/>
       <c r="B203" s="41"/>
       <c r="C203" s="42"/>
@@ -13413,7 +12564,7 @@
       <c r="V203" s="50"/>
       <c r="W203" s="44"/>
     </row>
-    <row r="204" spans="1:23" ht="12.75" customHeight="1">
+    <row r="204" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="41"/>
       <c r="B204" s="41"/>
       <c r="C204" s="42"/>
@@ -13453,7 +12604,7 @@
       <c r="V204" s="50"/>
       <c r="W204" s="44"/>
     </row>
-    <row r="205" spans="1:23" ht="12.75" customHeight="1">
+    <row r="205" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="41"/>
       <c r="B205" s="41"/>
       <c r="C205" s="42"/>
@@ -13493,7 +12644,7 @@
       <c r="V205" s="50"/>
       <c r="W205" s="44"/>
     </row>
-    <row r="206" spans="1:23" ht="12.75" customHeight="1">
+    <row r="206" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="41"/>
       <c r="B206" s="41"/>
       <c r="C206" s="42"/>
@@ -13533,7 +12684,7 @@
       <c r="V206" s="50"/>
       <c r="W206" s="44"/>
     </row>
-    <row r="207" spans="1:23" ht="12.75" customHeight="1">
+    <row r="207" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="41"/>
       <c r="B207" s="41"/>
       <c r="C207" s="42"/>
@@ -13573,7 +12724,7 @@
       <c r="V207" s="50"/>
       <c r="W207" s="44"/>
     </row>
-    <row r="208" spans="1:23" ht="12.75" customHeight="1">
+    <row r="208" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="41"/>
       <c r="B208" s="41"/>
       <c r="C208" s="42"/>
@@ -13613,7 +12764,7 @@
       <c r="V208" s="50"/>
       <c r="W208" s="44"/>
     </row>
-    <row r="209" spans="1:23" ht="12.75" customHeight="1">
+    <row r="209" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="41"/>
       <c r="B209" s="41"/>
       <c r="C209" s="42"/>
@@ -13653,7 +12804,7 @@
       <c r="V209" s="50"/>
       <c r="W209" s="44"/>
     </row>
-    <row r="210" spans="1:23" ht="12.75" customHeight="1">
+    <row r="210" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="41"/>
       <c r="B210" s="41"/>
       <c r="C210" s="42"/>
@@ -13693,7 +12844,7 @@
       <c r="V210" s="50"/>
       <c r="W210" s="44"/>
     </row>
-    <row r="211" spans="1:23" ht="12.75" customHeight="1">
+    <row r="211" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="41"/>
       <c r="B211" s="41"/>
       <c r="C211" s="42"/>
@@ -13733,7 +12884,7 @@
       <c r="V211" s="50"/>
       <c r="W211" s="44"/>
     </row>
-    <row r="212" spans="1:23" ht="12.75" customHeight="1">
+    <row r="212" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="41"/>
       <c r="B212" s="41"/>
       <c r="C212" s="42"/>
@@ -13773,7 +12924,7 @@
       <c r="V212" s="50"/>
       <c r="W212" s="44"/>
     </row>
-    <row r="213" spans="1:23" ht="12.75" customHeight="1">
+    <row r="213" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="41"/>
       <c r="B213" s="41"/>
       <c r="C213" s="42"/>
@@ -13813,7 +12964,7 @@
       <c r="V213" s="50"/>
       <c r="W213" s="44"/>
     </row>
-    <row r="214" spans="1:23" ht="12.75" customHeight="1">
+    <row r="214" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="41"/>
       <c r="B214" s="41"/>
       <c r="C214" s="42"/>
@@ -13853,7 +13004,7 @@
       <c r="V214" s="50"/>
       <c r="W214" s="44"/>
     </row>
-    <row r="215" spans="1:23" ht="12.75" customHeight="1">
+    <row r="215" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="41"/>
       <c r="B215" s="41"/>
       <c r="C215" s="42"/>
@@ -13893,7 +13044,7 @@
       <c r="V215" s="50"/>
       <c r="W215" s="44"/>
     </row>
-    <row r="216" spans="1:23" ht="12.75" customHeight="1">
+    <row r="216" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="41"/>
       <c r="B216" s="41"/>
       <c r="C216" s="42"/>
@@ -13933,7 +13084,7 @@
       <c r="V216" s="50"/>
       <c r="W216" s="44"/>
     </row>
-    <row r="217" spans="1:23" ht="12.75" customHeight="1">
+    <row r="217" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="41"/>
       <c r="B217" s="41"/>
       <c r="C217" s="42"/>
@@ -13973,7 +13124,7 @@
       <c r="V217" s="50"/>
       <c r="W217" s="44"/>
     </row>
-    <row r="218" spans="1:23" ht="12.75" customHeight="1">
+    <row r="218" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="41"/>
       <c r="B218" s="41"/>
       <c r="C218" s="42"/>
@@ -14013,7 +13164,7 @@
       <c r="V218" s="50"/>
       <c r="W218" s="44"/>
     </row>
-    <row r="219" spans="1:23" ht="12.75" customHeight="1">
+    <row r="219" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="41"/>
       <c r="B219" s="41"/>
       <c r="C219" s="42"/>
@@ -14053,7 +13204,7 @@
       <c r="V219" s="50"/>
       <c r="W219" s="44"/>
     </row>
-    <row r="220" spans="1:23" ht="12.75" customHeight="1">
+    <row r="220" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="41"/>
       <c r="B220" s="41"/>
       <c r="C220" s="42"/>
@@ -14093,7 +13244,7 @@
       <c r="V220" s="50"/>
       <c r="W220" s="44"/>
     </row>
-    <row r="221" spans="1:23" ht="12.75" customHeight="1">
+    <row r="221" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="41"/>
       <c r="B221" s="41"/>
       <c r="C221" s="42"/>
@@ -14133,7 +13284,7 @@
       <c r="V221" s="50"/>
       <c r="W221" s="44"/>
     </row>
-    <row r="222" spans="1:23" ht="12.75" customHeight="1">
+    <row r="222" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="41"/>
       <c r="B222" s="41"/>
       <c r="C222" s="42"/>
@@ -14173,7 +13324,7 @@
       <c r="V222" s="50"/>
       <c r="W222" s="44"/>
     </row>
-    <row r="223" spans="1:23" ht="12.75" customHeight="1">
+    <row r="223" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="41"/>
       <c r="B223" s="41"/>
       <c r="C223" s="42"/>
@@ -14213,7 +13364,7 @@
       <c r="V223" s="50"/>
       <c r="W223" s="44"/>
     </row>
-    <row r="224" spans="1:23" ht="12.75" customHeight="1">
+    <row r="224" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="41"/>
       <c r="B224" s="41"/>
       <c r="C224" s="42"/>
@@ -14253,7 +13404,7 @@
       <c r="V224" s="50"/>
       <c r="W224" s="44"/>
     </row>
-    <row r="225" spans="1:23" ht="12.75" customHeight="1">
+    <row r="225" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="41"/>
       <c r="B225" s="41"/>
       <c r="C225" s="42"/>
@@ -14293,7 +13444,7 @@
       <c r="V225" s="50"/>
       <c r="W225" s="44"/>
     </row>
-    <row r="226" spans="1:23" ht="12.75" customHeight="1">
+    <row r="226" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="41"/>
       <c r="B226" s="41"/>
       <c r="C226" s="42"/>
@@ -14333,7 +13484,7 @@
       <c r="V226" s="50"/>
       <c r="W226" s="44"/>
     </row>
-    <row r="227" spans="1:23" ht="12.75" customHeight="1">
+    <row r="227" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="41"/>
       <c r="B227" s="41"/>
       <c r="C227" s="42"/>
@@ -14373,7 +13524,7 @@
       <c r="V227" s="50"/>
       <c r="W227" s="44"/>
     </row>
-    <row r="228" spans="1:23" ht="12.75" customHeight="1">
+    <row r="228" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="41"/>
       <c r="B228" s="41"/>
       <c r="C228" s="42"/>
@@ -14413,7 +13564,7 @@
       <c r="V228" s="50"/>
       <c r="W228" s="44"/>
     </row>
-    <row r="229" spans="1:23" ht="12.75" customHeight="1">
+    <row r="229" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="41"/>
       <c r="B229" s="41"/>
       <c r="C229" s="42"/>
@@ -14453,7 +13604,7 @@
       <c r="V229" s="50"/>
       <c r="W229" s="44"/>
     </row>
-    <row r="230" spans="1:23" ht="12.75" customHeight="1">
+    <row r="230" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="41"/>
       <c r="B230" s="41"/>
       <c r="C230" s="42"/>
@@ -14493,7 +13644,7 @@
       <c r="V230" s="50"/>
       <c r="W230" s="44"/>
     </row>
-    <row r="231" spans="1:23" ht="12.75" customHeight="1">
+    <row r="231" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="41"/>
       <c r="B231" s="41"/>
       <c r="C231" s="42"/>
@@ -14533,7 +13684,7 @@
       <c r="V231" s="50"/>
       <c r="W231" s="44"/>
     </row>
-    <row r="232" spans="1:23" ht="12.75" customHeight="1">
+    <row r="232" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="41"/>
       <c r="B232" s="41"/>
       <c r="C232" s="42"/>
@@ -14573,7 +13724,7 @@
       <c r="V232" s="50"/>
       <c r="W232" s="44"/>
     </row>
-    <row r="233" spans="1:23" ht="12.75" customHeight="1">
+    <row r="233" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="41"/>
       <c r="B233" s="41"/>
       <c r="C233" s="42"/>
@@ -14613,7 +13764,7 @@
       <c r="V233" s="50"/>
       <c r="W233" s="44"/>
     </row>
-    <row r="234" spans="1:23" ht="12.75" customHeight="1">
+    <row r="234" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="41"/>
       <c r="B234" s="41"/>
       <c r="C234" s="42"/>
@@ -14653,7 +13804,7 @@
       <c r="V234" s="50"/>
       <c r="W234" s="44"/>
     </row>
-    <row r="235" spans="1:23" ht="12.75" customHeight="1">
+    <row r="235" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="41"/>
       <c r="B235" s="41"/>
       <c r="C235" s="42"/>
@@ -14693,7 +13844,7 @@
       <c r="V235" s="50"/>
       <c r="W235" s="44"/>
     </row>
-    <row r="236" spans="1:23" ht="12.75" customHeight="1">
+    <row r="236" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="41"/>
       <c r="B236" s="41"/>
       <c r="C236" s="42"/>
@@ -14733,7 +13884,7 @@
       <c r="V236" s="50"/>
       <c r="W236" s="44"/>
     </row>
-    <row r="237" spans="1:23" ht="12.75" customHeight="1">
+    <row r="237" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="41"/>
       <c r="B237" s="41"/>
       <c r="C237" s="42"/>
@@ -14773,7 +13924,7 @@
       <c r="V237" s="50"/>
       <c r="W237" s="44"/>
     </row>
-    <row r="238" spans="1:23" ht="12.75" customHeight="1">
+    <row r="238" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="41"/>
       <c r="B238" s="41"/>
       <c r="C238" s="42"/>
@@ -14813,7 +13964,7 @@
       <c r="V238" s="50"/>
       <c r="W238" s="44"/>
     </row>
-    <row r="239" spans="1:23" ht="12.75" customHeight="1">
+    <row r="239" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="41"/>
       <c r="B239" s="41"/>
       <c r="C239" s="42"/>
@@ -14853,7 +14004,7 @@
       <c r="V239" s="50"/>
       <c r="W239" s="44"/>
     </row>
-    <row r="240" spans="1:23" ht="12.75" customHeight="1">
+    <row r="240" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="41"/>
       <c r="B240" s="41"/>
       <c r="C240" s="42"/>
@@ -14893,7 +14044,7 @@
       <c r="V240" s="50"/>
       <c r="W240" s="44"/>
     </row>
-    <row r="241" spans="1:23" ht="12.75" customHeight="1">
+    <row r="241" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="41"/>
       <c r="B241" s="41"/>
       <c r="C241" s="42"/>
@@ -14933,7 +14084,7 @@
       <c r="V241" s="50"/>
       <c r="W241" s="44"/>
     </row>
-    <row r="242" spans="1:23" ht="12.75" customHeight="1">
+    <row r="242" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="41"/>
       <c r="B242" s="41"/>
       <c r="C242" s="42"/>
@@ -14973,7 +14124,7 @@
       <c r="V242" s="50"/>
       <c r="W242" s="44"/>
     </row>
-    <row r="243" spans="1:23" ht="12.75" customHeight="1">
+    <row r="243" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="41"/>
       <c r="B243" s="41"/>
       <c r="C243" s="42"/>
@@ -15013,7 +14164,7 @@
       <c r="V243" s="50"/>
       <c r="W243" s="44"/>
     </row>
-    <row r="244" spans="1:23" ht="12.75" customHeight="1">
+    <row r="244" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="41"/>
       <c r="B244" s="41"/>
       <c r="C244" s="42"/>
@@ -15053,7 +14204,7 @@
       <c r="V244" s="50"/>
       <c r="W244" s="44"/>
     </row>
-    <row r="245" spans="1:23" ht="12.75" customHeight="1">
+    <row r="245" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="41"/>
       <c r="B245" s="41"/>
       <c r="C245" s="42"/>
@@ -15093,7 +14244,7 @@
       <c r="V245" s="50"/>
       <c r="W245" s="44"/>
     </row>
-    <row r="246" spans="1:23" ht="12.75" customHeight="1">
+    <row r="246" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="41"/>
       <c r="B246" s="41"/>
       <c r="C246" s="42"/>
@@ -15133,7 +14284,7 @@
       <c r="V246" s="50"/>
       <c r="W246" s="44"/>
     </row>
-    <row r="247" spans="1:23" ht="12.75" customHeight="1">
+    <row r="247" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="41"/>
       <c r="B247" s="41"/>
       <c r="C247" s="42"/>
@@ -15173,7 +14324,7 @@
       <c r="V247" s="50"/>
       <c r="W247" s="44"/>
     </row>
-    <row r="248" spans="1:23" ht="12.75" customHeight="1">
+    <row r="248" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="41"/>
       <c r="B248" s="41"/>
       <c r="C248" s="42"/>
@@ -15213,7 +14364,7 @@
       <c r="V248" s="50"/>
       <c r="W248" s="44"/>
     </row>
-    <row r="249" spans="1:23" ht="12.75" customHeight="1">
+    <row r="249" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="41"/>
       <c r="B249" s="41"/>
       <c r="C249" s="42"/>
@@ -15253,7 +14404,7 @@
       <c r="V249" s="50"/>
       <c r="W249" s="44"/>
     </row>
-    <row r="250" spans="1:23" ht="12.75" customHeight="1">
+    <row r="250" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="41"/>
       <c r="B250" s="41"/>
       <c r="C250" s="42"/>
@@ -15293,7 +14444,7 @@
       <c r="V250" s="50"/>
       <c r="W250" s="44"/>
     </row>
-    <row r="251" spans="1:23" ht="12.75" customHeight="1">
+    <row r="251" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="41"/>
       <c r="B251" s="41"/>
       <c r="C251" s="42"/>
@@ -15333,7 +14484,7 @@
       <c r="V251" s="50"/>
       <c r="W251" s="44"/>
     </row>
-    <row r="252" spans="1:23" ht="12.75" customHeight="1">
+    <row r="252" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="41"/>
       <c r="B252" s="41"/>
       <c r="C252" s="42"/>
@@ -15373,7 +14524,7 @@
       <c r="V252" s="50"/>
       <c r="W252" s="44"/>
     </row>
-    <row r="253" spans="1:23" ht="12.75" customHeight="1">
+    <row r="253" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="41"/>
       <c r="B253" s="41"/>
       <c r="C253" s="42"/>
@@ -15413,7 +14564,7 @@
       <c r="V253" s="50"/>
       <c r="W253" s="44"/>
     </row>
-    <row r="254" spans="1:23" ht="12.75" customHeight="1">
+    <row r="254" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="41"/>
       <c r="B254" s="41"/>
       <c r="C254" s="42"/>
@@ -15453,7 +14604,7 @@
       <c r="V254" s="50"/>
       <c r="W254" s="44"/>
     </row>
-    <row r="255" spans="1:23" ht="12.75" customHeight="1">
+    <row r="255" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="41"/>
       <c r="B255" s="41"/>
       <c r="C255" s="42"/>
@@ -15493,7 +14644,7 @@
       <c r="V255" s="50"/>
       <c r="W255" s="44"/>
     </row>
-    <row r="256" spans="1:23" ht="12.75" customHeight="1">
+    <row r="256" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="41"/>
       <c r="B256" s="41"/>
       <c r="C256" s="42"/>
@@ -15533,7 +14684,7 @@
       <c r="V256" s="50"/>
       <c r="W256" s="44"/>
     </row>
-    <row r="257" spans="1:23" ht="12.75" customHeight="1">
+    <row r="257" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="41"/>
       <c r="B257" s="41"/>
       <c r="C257" s="42"/>
@@ -15573,7 +14724,7 @@
       <c r="V257" s="50"/>
       <c r="W257" s="44"/>
     </row>
-    <row r="258" spans="1:23" ht="12.75" customHeight="1">
+    <row r="258" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="41"/>
       <c r="B258" s="41"/>
       <c r="C258" s="42"/>
@@ -15613,7 +14764,7 @@
       <c r="V258" s="50"/>
       <c r="W258" s="44"/>
     </row>
-    <row r="259" spans="1:23" ht="12.75" customHeight="1">
+    <row r="259" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="41"/>
       <c r="B259" s="41"/>
       <c r="C259" s="42"/>
@@ -15653,7 +14804,7 @@
       <c r="V259" s="50"/>
       <c r="W259" s="44"/>
     </row>
-    <row r="260" spans="1:23" ht="12.75" customHeight="1">
+    <row r="260" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="41"/>
       <c r="B260" s="41"/>
       <c r="C260" s="42"/>
@@ -15693,7 +14844,7 @@
       <c r="V260" s="50"/>
       <c r="W260" s="44"/>
     </row>
-    <row r="261" spans="1:23" ht="12.75" customHeight="1">
+    <row r="261" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="41"/>
       <c r="B261" s="41"/>
       <c r="C261" s="42"/>
@@ -15733,7 +14884,7 @@
       <c r="V261" s="50"/>
       <c r="W261" s="44"/>
     </row>
-    <row r="262" spans="1:23" ht="12.75" customHeight="1">
+    <row r="262" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="41"/>
       <c r="B262" s="41"/>
       <c r="C262" s="42"/>
@@ -15773,7 +14924,7 @@
       <c r="V262" s="50"/>
       <c r="W262" s="44"/>
     </row>
-    <row r="263" spans="1:23" ht="12.75" customHeight="1">
+    <row r="263" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="41"/>
       <c r="B263" s="41"/>
       <c r="C263" s="42"/>
@@ -15813,7 +14964,7 @@
       <c r="V263" s="50"/>
       <c r="W263" s="44"/>
     </row>
-    <row r="264" spans="1:23" ht="12.75" customHeight="1">
+    <row r="264" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="41"/>
       <c r="B264" s="41"/>
       <c r="C264" s="42"/>
@@ -15853,7 +15004,7 @@
       <c r="V264" s="50"/>
       <c r="W264" s="44"/>
     </row>
-    <row r="265" spans="1:23" ht="12.75" customHeight="1">
+    <row r="265" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="41"/>
       <c r="B265" s="41"/>
       <c r="C265" s="42"/>
@@ -15893,7 +15044,7 @@
       <c r="V265" s="50"/>
       <c r="W265" s="44"/>
     </row>
-    <row r="266" spans="1:23" ht="12.75" customHeight="1">
+    <row r="266" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="41"/>
       <c r="B266" s="41"/>
       <c r="C266" s="42"/>
@@ -15933,7 +15084,7 @@
       <c r="V266" s="50"/>
       <c r="W266" s="44"/>
     </row>
-    <row r="267" spans="1:23" ht="12.75" customHeight="1">
+    <row r="267" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="41"/>
       <c r="B267" s="41"/>
       <c r="C267" s="42"/>
@@ -15973,7 +15124,7 @@
       <c r="V267" s="50"/>
       <c r="W267" s="44"/>
     </row>
-    <row r="268" spans="1:23" ht="12.75" customHeight="1">
+    <row r="268" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="41"/>
       <c r="B268" s="41"/>
       <c r="C268" s="42"/>
@@ -16013,7 +15164,7 @@
       <c r="V268" s="50"/>
       <c r="W268" s="44"/>
     </row>
-    <row r="269" spans="1:23" ht="12.75" customHeight="1">
+    <row r="269" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="41"/>
       <c r="B269" s="41"/>
       <c r="C269" s="42"/>
@@ -16053,7 +15204,7 @@
       <c r="V269" s="50"/>
       <c r="W269" s="44"/>
     </row>
-    <row r="270" spans="1:23" ht="12.75" customHeight="1">
+    <row r="270" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="41"/>
       <c r="B270" s="41"/>
       <c r="C270" s="42"/>
@@ -16093,7 +15244,7 @@
       <c r="V270" s="50"/>
       <c r="W270" s="44"/>
     </row>
-    <row r="271" spans="1:23" ht="12.75" customHeight="1">
+    <row r="271" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="41"/>
       <c r="B271" s="41"/>
       <c r="C271" s="42"/>
@@ -16133,7 +15284,7 @@
       <c r="V271" s="50"/>
       <c r="W271" s="44"/>
     </row>
-    <row r="272" spans="1:23" ht="12.75" customHeight="1">
+    <row r="272" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="41"/>
       <c r="B272" s="41"/>
       <c r="C272" s="42"/>
@@ -16173,7 +15324,7 @@
       <c r="V272" s="50"/>
       <c r="W272" s="44"/>
     </row>
-    <row r="273" spans="1:23" ht="12.75" customHeight="1">
+    <row r="273" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="41"/>
       <c r="B273" s="41"/>
       <c r="C273" s="42"/>
@@ -16210,7 +15361,7 @@
       <c r="V273" s="50"/>
       <c r="W273" s="44"/>
     </row>
-    <row r="274" spans="1:23" ht="12.75" customHeight="1">
+    <row r="274" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="41"/>
       <c r="B274" s="41"/>
       <c r="C274" s="42"/>
@@ -16247,7 +15398,7 @@
       <c r="V274" s="50"/>
       <c r="W274" s="44"/>
     </row>
-    <row r="275" spans="1:23" ht="12.75" customHeight="1">
+    <row r="275" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="41"/>
       <c r="B275" s="41"/>
       <c r="C275" s="42"/>
@@ -16284,7 +15435,7 @@
       <c r="V275" s="50"/>
       <c r="W275" s="44"/>
     </row>
-    <row r="276" spans="1:23" ht="12.75" customHeight="1">
+    <row r="276" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="41"/>
       <c r="B276" s="41"/>
       <c r="C276" s="42"/>
@@ -16321,7 +15472,7 @@
       <c r="V276" s="50"/>
       <c r="W276" s="44"/>
     </row>
-    <row r="277" spans="1:23" ht="12.75" customHeight="1">
+    <row r="277" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="41"/>
       <c r="B277" s="41"/>
       <c r="C277" s="42"/>
@@ -16358,7 +15509,7 @@
       <c r="V277" s="50"/>
       <c r="W277" s="44"/>
     </row>
-    <row r="278" spans="1:23" ht="12.75" customHeight="1">
+    <row r="278" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="41"/>
       <c r="B278" s="41"/>
       <c r="C278" s="42"/>
@@ -16395,7 +15546,7 @@
       <c r="V278" s="50"/>
       <c r="W278" s="44"/>
     </row>
-    <row r="279" spans="1:23" ht="12.75" customHeight="1">
+    <row r="279" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="41"/>
       <c r="B279" s="41"/>
       <c r="C279" s="42"/>
@@ -16432,7 +15583,7 @@
       <c r="V279" s="50"/>
       <c r="W279" s="44"/>
     </row>
-    <row r="280" spans="1:23" ht="12.75" customHeight="1">
+    <row r="280" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="41"/>
       <c r="B280" s="41"/>
       <c r="C280" s="42"/>
@@ -16469,7 +15620,7 @@
       <c r="V280" s="50"/>
       <c r="W280" s="44"/>
     </row>
-    <row r="281" spans="1:23" ht="12.75" customHeight="1">
+    <row r="281" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="41"/>
       <c r="B281" s="41"/>
       <c r="C281" s="42"/>
@@ -16506,7 +15657,7 @@
       <c r="V281" s="50"/>
       <c r="W281" s="44"/>
     </row>
-    <row r="282" spans="1:23" ht="12.75" customHeight="1">
+    <row r="282" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="41"/>
       <c r="B282" s="41"/>
       <c r="C282" s="42"/>
@@ -16543,7 +15694,7 @@
       <c r="V282" s="50"/>
       <c r="W282" s="44"/>
     </row>
-    <row r="283" spans="1:23" ht="12.75" customHeight="1">
+    <row r="283" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="41"/>
       <c r="B283" s="41"/>
       <c r="C283" s="42"/>
@@ -16580,7 +15731,7 @@
       <c r="V283" s="50"/>
       <c r="W283" s="44"/>
     </row>
-    <row r="284" spans="1:23" ht="12.75" customHeight="1">
+    <row r="284" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="41"/>
       <c r="B284" s="41"/>
       <c r="C284" s="42"/>
@@ -16617,7 +15768,7 @@
       <c r="V284" s="50"/>
       <c r="W284" s="44"/>
     </row>
-    <row r="285" spans="1:23" ht="12.75" customHeight="1">
+    <row r="285" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="41"/>
       <c r="B285" s="41"/>
       <c r="C285" s="42"/>
@@ -16654,7 +15805,7 @@
       <c r="V285" s="50"/>
       <c r="W285" s="44"/>
     </row>
-    <row r="286" spans="1:23" ht="12.75" customHeight="1">
+    <row r="286" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="41"/>
       <c r="B286" s="41"/>
       <c r="C286" s="42"/>
@@ -16691,7 +15842,7 @@
       <c r="V286" s="50"/>
       <c r="W286" s="44"/>
     </row>
-    <row r="287" spans="1:23" ht="12.75" customHeight="1">
+    <row r="287" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="41"/>
       <c r="B287" s="41"/>
       <c r="C287" s="42"/>
@@ -16728,7 +15879,7 @@
       <c r="V287" s="50"/>
       <c r="W287" s="44"/>
     </row>
-    <row r="288" spans="1:23" ht="12.75" customHeight="1">
+    <row r="288" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="41"/>
       <c r="B288" s="41"/>
       <c r="C288" s="42"/>
@@ -16765,7 +15916,7 @@
       <c r="V288" s="50"/>
       <c r="W288" s="44"/>
     </row>
-    <row r="289" spans="1:23" ht="12.75" customHeight="1">
+    <row r="289" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="41"/>
       <c r="B289" s="41"/>
       <c r="C289" s="42"/>
@@ -16802,7 +15953,7 @@
       <c r="V289" s="50"/>
       <c r="W289" s="44"/>
     </row>
-    <row r="290" spans="1:23" ht="12.75" customHeight="1">
+    <row r="290" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="41"/>
       <c r="B290" s="41"/>
       <c r="C290" s="42"/>
@@ -16839,7 +15990,7 @@
       <c r="V290" s="50"/>
       <c r="W290" s="44"/>
     </row>
-    <row r="291" spans="1:23" ht="12.75" customHeight="1">
+    <row r="291" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="41"/>
       <c r="B291" s="41"/>
       <c r="C291" s="42"/>
@@ -16876,7 +16027,7 @@
       <c r="V291" s="50"/>
       <c r="W291" s="44"/>
     </row>
-    <row r="292" spans="1:23" ht="12.75" customHeight="1">
+    <row r="292" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="41"/>
       <c r="B292" s="41"/>
       <c r="C292" s="42"/>
@@ -16913,7 +16064,7 @@
       <c r="V292" s="50"/>
       <c r="W292" s="44"/>
     </row>
-    <row r="293" spans="1:23" ht="12.75" customHeight="1">
+    <row r="293" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="41"/>
       <c r="B293" s="41"/>
       <c r="C293" s="42"/>
@@ -16950,7 +16101,7 @@
       <c r="V293" s="50"/>
       <c r="W293" s="44"/>
     </row>
-    <row r="294" spans="1:23" ht="12.75" customHeight="1">
+    <row r="294" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="41"/>
       <c r="B294" s="41"/>
       <c r="C294" s="42"/>
@@ -16987,7 +16138,7 @@
       <c r="V294" s="50"/>
       <c r="W294" s="44"/>
     </row>
-    <row r="295" spans="1:23" ht="12.75" customHeight="1">
+    <row r="295" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="41"/>
       <c r="B295" s="41"/>
       <c r="C295" s="42"/>
@@ -17024,7 +16175,7 @@
       <c r="V295" s="50"/>
       <c r="W295" s="44"/>
     </row>
-    <row r="296" spans="1:23" ht="12.75" customHeight="1">
+    <row r="296" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="41"/>
       <c r="B296" s="41"/>
       <c r="C296" s="42"/>
@@ -17061,7 +16212,7 @@
       <c r="V296" s="50"/>
       <c r="W296" s="44"/>
     </row>
-    <row r="297" spans="1:23" ht="12.75" customHeight="1">
+    <row r="297" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="41"/>
       <c r="B297" s="41"/>
       <c r="C297" s="42"/>
@@ -17098,7 +16249,7 @@
       <c r="V297" s="50"/>
       <c r="W297" s="44"/>
     </row>
-    <row r="298" spans="1:23" ht="12.75" customHeight="1">
+    <row r="298" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="41"/>
       <c r="B298" s="41"/>
       <c r="C298" s="42"/>
@@ -17135,7 +16286,7 @@
       <c r="V298" s="50"/>
       <c r="W298" s="44"/>
     </row>
-    <row r="299" spans="1:23" ht="12.75" customHeight="1">
+    <row r="299" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="41"/>
       <c r="B299" s="41"/>
       <c r="C299" s="42"/>
@@ -17172,7 +16323,7 @@
       <c r="V299" s="50"/>
       <c r="W299" s="44"/>
     </row>
-    <row r="300" spans="1:23" ht="12.75" customHeight="1">
+    <row r="300" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="41"/>
       <c r="B300" s="41"/>
       <c r="C300" s="42"/>
@@ -17209,7 +16360,7 @@
       <c r="V300" s="50"/>
       <c r="W300" s="44"/>
     </row>
-    <row r="301" spans="1:23" ht="12.75" customHeight="1">
+    <row r="301" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="41"/>
       <c r="B301" s="41"/>
       <c r="C301" s="42"/>
@@ -17246,7 +16397,7 @@
       <c r="V301" s="50"/>
       <c r="W301" s="44"/>
     </row>
-    <row r="302" spans="1:23" ht="12.75" customHeight="1">
+    <row r="302" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="41"/>
       <c r="B302" s="41"/>
       <c r="C302" s="42"/>
@@ -17283,7 +16434,7 @@
       <c r="V302" s="50"/>
       <c r="W302" s="44"/>
     </row>
-    <row r="303" spans="1:23" ht="12.75" customHeight="1">
+    <row r="303" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="41"/>
       <c r="B303" s="41"/>
       <c r="C303" s="42"/>
@@ -17320,7 +16471,7 @@
       <c r="V303" s="50"/>
       <c r="W303" s="44"/>
     </row>
-    <row r="304" spans="1:23" ht="12.75" customHeight="1">
+    <row r="304" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="41"/>
       <c r="B304" s="41"/>
       <c r="C304" s="42"/>
@@ -17357,7 +16508,7 @@
       <c r="V304" s="50"/>
       <c r="W304" s="44"/>
     </row>
-    <row r="305" spans="1:23" ht="12.75" customHeight="1">
+    <row r="305" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="41"/>
       <c r="B305" s="41"/>
       <c r="C305" s="42"/>
@@ -17391,7 +16542,7 @@
       <c r="V305" s="50"/>
       <c r="W305" s="44"/>
     </row>
-    <row r="306" spans="1:23" ht="12.75" customHeight="1">
+    <row r="306" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="41"/>
       <c r="B306" s="41"/>
       <c r="C306" s="42"/>
@@ -17425,7 +16576,7 @@
       <c r="V306" s="50"/>
       <c r="W306" s="44"/>
     </row>
-    <row r="307" spans="1:23" ht="12.75" customHeight="1">
+    <row r="307" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="41"/>
       <c r="B307" s="41"/>
       <c r="C307" s="42"/>
@@ -17456,7 +16607,7 @@
       <c r="V307" s="50"/>
       <c r="W307" s="44"/>
     </row>
-    <row r="308" spans="1:23" ht="12.75" customHeight="1">
+    <row r="308" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="41"/>
       <c r="B308" s="41"/>
       <c r="C308" s="42"/>
@@ -17487,7 +16638,7 @@
       <c r="V308" s="50"/>
       <c r="W308" s="44"/>
     </row>
-    <row r="309" spans="1:23" ht="12.75" customHeight="1">
+    <row r="309" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="41"/>
       <c r="B309" s="41"/>
       <c r="C309" s="42"/>
@@ -17518,7 +16669,7 @@
       <c r="V309" s="50"/>
       <c r="W309" s="44"/>
     </row>
-    <row r="310" spans="1:23" ht="12.75" customHeight="1">
+    <row r="310" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="41"/>
       <c r="B310" s="41"/>
       <c r="C310" s="42"/>
@@ -17549,7 +16700,7 @@
       <c r="V310" s="50"/>
       <c r="W310" s="44"/>
     </row>
-    <row r="311" spans="1:23" ht="12.75" customHeight="1">
+    <row r="311" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="41"/>
       <c r="B311" s="41"/>
       <c r="C311" s="42"/>
@@ -17580,7 +16731,7 @@
       <c r="V311" s="50"/>
       <c r="W311" s="44"/>
     </row>
-    <row r="312" spans="1:23" ht="12.75" customHeight="1">
+    <row r="312" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="41"/>
       <c r="B312" s="41"/>
       <c r="C312" s="42"/>
@@ -17611,7 +16762,7 @@
       <c r="V312" s="50"/>
       <c r="W312" s="44"/>
     </row>
-    <row r="313" spans="1:23" ht="12.75" customHeight="1">
+    <row r="313" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="41"/>
       <c r="B313" s="41"/>
       <c r="C313" s="42"/>
@@ -17662,7 +16813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IV64"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -17672,54 +16823,54 @@
       <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6.625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="51" customWidth="1"/>
-    <col min="2" max="2" width="6.25" style="51" customWidth="1"/>
-    <col min="3" max="3" width="4.625" style="51" customWidth="1"/>
-    <col min="4" max="4" width="4.125" style="51" customWidth="1"/>
+    <col min="1" max="1" width="6.09765625" style="51" customWidth="1"/>
+    <col min="2" max="2" width="6.19921875" style="51" customWidth="1"/>
+    <col min="3" max="3" width="4.59765625" style="51" customWidth="1"/>
+    <col min="4" max="4" width="4.09765625" style="51" customWidth="1"/>
     <col min="5" max="5" width="4.5" style="51" customWidth="1"/>
-    <col min="6" max="6" width="5.375" style="51" customWidth="1"/>
-    <col min="7" max="7" width="18.25" style="51" customWidth="1"/>
-    <col min="8" max="8" width="9.875" style="51" customWidth="1"/>
-    <col min="9" max="9" width="9.75" style="51" customWidth="1"/>
-    <col min="10" max="10" width="31.875" style="51" customWidth="1"/>
-    <col min="11" max="256" width="6.625" style="51" customWidth="1"/>
+    <col min="6" max="6" width="5.3984375" style="51" customWidth="1"/>
+    <col min="7" max="7" width="18.19921875" style="51" customWidth="1"/>
+    <col min="8" max="8" width="9.8984375" style="51" customWidth="1"/>
+    <col min="9" max="9" width="9.69921875" style="51" customWidth="1"/>
+    <col min="10" max="10" width="31.8984375" style="51" customWidth="1"/>
+    <col min="11" max="256" width="6.59765625" style="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="64.5" customHeight="1">
+    <row r="1" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B1" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="E1" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="52" t="s">
-        <v>55</v>
-      </c>
       <c r="F1" s="52" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G1" s="53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H1" s="54" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I1" s="55" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J1" s="56" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="16.5" customHeight="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="57"/>
       <c r="B2" s="57"/>
       <c r="C2" s="58">
@@ -17733,7 +16884,7 @@
       <c r="I2" s="62"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" ht="16" customHeight="1">
+    <row r="3" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="63"/>
       <c r="B3" s="63"/>
       <c r="C3" s="4"/>
@@ -17745,7 +16896,7 @@
       <c r="I3" s="66"/>
       <c r="J3" s="67"/>
     </row>
-    <row r="4" spans="1:10" ht="16" customHeight="1">
+    <row r="4" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="63"/>
       <c r="B4" s="63"/>
       <c r="C4" s="4"/>
@@ -17757,7 +16908,7 @@
       <c r="I4" s="66"/>
       <c r="J4" s="67"/>
     </row>
-    <row r="5" spans="1:10" ht="16" customHeight="1">
+    <row r="5" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="63"/>
       <c r="B5" s="63"/>
       <c r="C5" s="4"/>
@@ -17769,7 +16920,7 @@
       <c r="I5" s="66"/>
       <c r="J5" s="67"/>
     </row>
-    <row r="6" spans="1:10" ht="16" customHeight="1">
+    <row r="6" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="63"/>
       <c r="B6" s="63"/>
       <c r="C6" s="4"/>
@@ -17781,7 +16932,7 @@
       <c r="I6" s="66"/>
       <c r="J6" s="67"/>
     </row>
-    <row r="7" spans="1:10" ht="16" customHeight="1">
+    <row r="7" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="63"/>
       <c r="B7" s="63"/>
       <c r="C7" s="4"/>
@@ -17793,7 +16944,7 @@
       <c r="I7" s="66"/>
       <c r="J7" s="67"/>
     </row>
-    <row r="8" spans="1:10" ht="16" customHeight="1">
+    <row r="8" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="63"/>
       <c r="B8" s="63"/>
       <c r="C8" s="4"/>
@@ -17805,7 +16956,7 @@
       <c r="I8" s="66"/>
       <c r="J8" s="67"/>
     </row>
-    <row r="9" spans="1:10" ht="16" customHeight="1">
+    <row r="9" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="63"/>
       <c r="B9" s="63"/>
       <c r="C9" s="4"/>
@@ -17817,7 +16968,7 @@
       <c r="I9" s="66"/>
       <c r="J9" s="67"/>
     </row>
-    <row r="10" spans="1:10" ht="16" customHeight="1">
+    <row r="10" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="63"/>
       <c r="B10" s="63"/>
       <c r="C10" s="4"/>
@@ -17829,7 +16980,7 @@
       <c r="I10" s="66"/>
       <c r="J10" s="67"/>
     </row>
-    <row r="11" spans="1:10" ht="16" customHeight="1">
+    <row r="11" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="63"/>
       <c r="B11" s="63"/>
       <c r="C11" s="4"/>
@@ -17841,7 +16992,7 @@
       <c r="I11" s="66"/>
       <c r="J11" s="67"/>
     </row>
-    <row r="12" spans="1:10" ht="16" customHeight="1">
+    <row r="12" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="63"/>
       <c r="B12" s="63"/>
       <c r="C12" s="4"/>
@@ -17853,7 +17004,7 @@
       <c r="I12" s="66"/>
       <c r="J12" s="67"/>
     </row>
-    <row r="13" spans="1:10" ht="16" customHeight="1">
+    <row r="13" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="63"/>
       <c r="B13" s="63"/>
       <c r="C13" s="4"/>
@@ -17865,7 +17016,7 @@
       <c r="I13" s="66"/>
       <c r="J13" s="67"/>
     </row>
-    <row r="14" spans="1:10" ht="16" customHeight="1">
+    <row r="14" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="63"/>
       <c r="B14" s="63"/>
       <c r="C14" s="4"/>
@@ -17877,7 +17028,7 @@
       <c r="I14" s="66"/>
       <c r="J14" s="67"/>
     </row>
-    <row r="15" spans="1:10" ht="16" customHeight="1">
+    <row r="15" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="63"/>
       <c r="B15" s="63"/>
       <c r="C15" s="4"/>
@@ -17889,7 +17040,7 @@
       <c r="I15" s="66"/>
       <c r="J15" s="67"/>
     </row>
-    <row r="16" spans="1:10" ht="16" customHeight="1">
+    <row r="16" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="63"/>
       <c r="B16" s="63"/>
       <c r="C16" s="4"/>
@@ -17901,7 +17052,7 @@
       <c r="I16" s="66"/>
       <c r="J16" s="67"/>
     </row>
-    <row r="17" spans="1:10" ht="16" customHeight="1">
+    <row r="17" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="63"/>
       <c r="B17" s="63"/>
       <c r="C17" s="4"/>
@@ -17913,7 +17064,7 @@
       <c r="I17" s="66"/>
       <c r="J17" s="67"/>
     </row>
-    <row r="18" spans="1:10" ht="16" customHeight="1">
+    <row r="18" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="63"/>
       <c r="B18" s="63"/>
       <c r="C18" s="4"/>
@@ -17925,7 +17076,7 @@
       <c r="I18" s="66"/>
       <c r="J18" s="67"/>
     </row>
-    <row r="19" spans="1:10" ht="16" customHeight="1">
+    <row r="19" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="63"/>
       <c r="B19" s="63"/>
       <c r="C19" s="4"/>
@@ -17937,7 +17088,7 @@
       <c r="I19" s="66"/>
       <c r="J19" s="67"/>
     </row>
-    <row r="20" spans="1:10" ht="16" customHeight="1">
+    <row r="20" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="63"/>
       <c r="B20" s="63"/>
       <c r="C20" s="4"/>
@@ -17949,7 +17100,7 @@
       <c r="I20" s="66"/>
       <c r="J20" s="67"/>
     </row>
-    <row r="21" spans="1:10" ht="16" customHeight="1">
+    <row r="21" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="63"/>
       <c r="B21" s="63"/>
       <c r="C21" s="4"/>
@@ -17961,7 +17112,7 @@
       <c r="I21" s="66"/>
       <c r="J21" s="67"/>
     </row>
-    <row r="22" spans="1:10" ht="16" customHeight="1">
+    <row r="22" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="63"/>
       <c r="B22" s="63"/>
       <c r="C22" s="4"/>
@@ -17973,7 +17124,7 @@
       <c r="I22" s="66"/>
       <c r="J22" s="67"/>
     </row>
-    <row r="23" spans="1:10" ht="16" customHeight="1">
+    <row r="23" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="63"/>
       <c r="B23" s="63"/>
       <c r="C23" s="4"/>
@@ -17985,7 +17136,7 @@
       <c r="I23" s="66"/>
       <c r="J23" s="67"/>
     </row>
-    <row r="24" spans="1:10" ht="16" customHeight="1">
+    <row r="24" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="63"/>
       <c r="B24" s="63"/>
       <c r="C24" s="4"/>
@@ -17997,7 +17148,7 @@
       <c r="I24" s="66"/>
       <c r="J24" s="67"/>
     </row>
-    <row r="25" spans="1:10" ht="16" customHeight="1">
+    <row r="25" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="63"/>
       <c r="B25" s="63"/>
       <c r="C25" s="4"/>
@@ -18009,7 +17160,7 @@
       <c r="I25" s="66"/>
       <c r="J25" s="67"/>
     </row>
-    <row r="26" spans="1:10" ht="16" customHeight="1">
+    <row r="26" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="63"/>
       <c r="B26" s="63"/>
       <c r="C26" s="4"/>
@@ -18021,7 +17172,7 @@
       <c r="I26" s="66"/>
       <c r="J26" s="67"/>
     </row>
-    <row r="27" spans="1:10" ht="16" customHeight="1">
+    <row r="27" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="63"/>
       <c r="B27" s="63"/>
       <c r="C27" s="4"/>
@@ -18033,7 +17184,7 @@
       <c r="I27" s="66"/>
       <c r="J27" s="67"/>
     </row>
-    <row r="28" spans="1:10" ht="16" customHeight="1">
+    <row r="28" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="63"/>
       <c r="B28" s="63"/>
       <c r="C28" s="4"/>
@@ -18045,7 +17196,7 @@
       <c r="I28" s="66"/>
       <c r="J28" s="67"/>
     </row>
-    <row r="29" spans="1:10" ht="16" customHeight="1">
+    <row r="29" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="63"/>
       <c r="B29" s="63"/>
       <c r="C29" s="4"/>
@@ -18057,7 +17208,7 @@
       <c r="I29" s="66"/>
       <c r="J29" s="67"/>
     </row>
-    <row r="30" spans="1:10" ht="16" customHeight="1">
+    <row r="30" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="63"/>
       <c r="B30" s="63"/>
       <c r="C30" s="4"/>
@@ -18069,7 +17220,7 @@
       <c r="I30" s="66"/>
       <c r="J30" s="67"/>
     </row>
-    <row r="31" spans="1:10" ht="16" customHeight="1">
+    <row r="31" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="63"/>
       <c r="B31" s="63"/>
       <c r="C31" s="4"/>
@@ -18081,7 +17232,7 @@
       <c r="I31" s="66"/>
       <c r="J31" s="67"/>
     </row>
-    <row r="32" spans="1:10" ht="16" customHeight="1">
+    <row r="32" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="63"/>
       <c r="B32" s="63"/>
       <c r="C32" s="4"/>
@@ -18093,7 +17244,7 @@
       <c r="I32" s="66"/>
       <c r="J32" s="67"/>
     </row>
-    <row r="33" spans="1:10" ht="16" customHeight="1">
+    <row r="33" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="63"/>
       <c r="B33" s="63"/>
       <c r="C33" s="4"/>
@@ -18105,7 +17256,7 @@
       <c r="I33" s="66"/>
       <c r="J33" s="67"/>
     </row>
-    <row r="34" spans="1:10" ht="16" customHeight="1">
+    <row r="34" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="63"/>
       <c r="B34" s="63"/>
       <c r="C34" s="4"/>
@@ -18117,7 +17268,7 @@
       <c r="I34" s="66"/>
       <c r="J34" s="67"/>
     </row>
-    <row r="35" spans="1:10" ht="16" customHeight="1">
+    <row r="35" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="63"/>
       <c r="B35" s="63"/>
       <c r="C35" s="4"/>
@@ -18129,7 +17280,7 @@
       <c r="I35" s="66"/>
       <c r="J35" s="67"/>
     </row>
-    <row r="36" spans="1:10" ht="16" customHeight="1">
+    <row r="36" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="63"/>
       <c r="B36" s="63"/>
       <c r="C36" s="4"/>
@@ -18141,7 +17292,7 @@
       <c r="I36" s="66"/>
       <c r="J36" s="67"/>
     </row>
-    <row r="37" spans="1:10" ht="16" customHeight="1">
+    <row r="37" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="63"/>
       <c r="B37" s="63"/>
       <c r="C37" s="4"/>
@@ -18153,7 +17304,7 @@
       <c r="I37" s="66"/>
       <c r="J37" s="67"/>
     </row>
-    <row r="38" spans="1:10" ht="16" customHeight="1">
+    <row r="38" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="63"/>
       <c r="B38" s="63"/>
       <c r="C38" s="4"/>
@@ -18165,7 +17316,7 @@
       <c r="I38" s="66"/>
       <c r="J38" s="67"/>
     </row>
-    <row r="39" spans="1:10" ht="16" customHeight="1">
+    <row r="39" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="63"/>
       <c r="B39" s="63"/>
       <c r="C39" s="4"/>
@@ -18177,7 +17328,7 @@
       <c r="I39" s="66"/>
       <c r="J39" s="67"/>
     </row>
-    <row r="40" spans="1:10" ht="16" customHeight="1">
+    <row r="40" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="63"/>
       <c r="B40" s="63"/>
       <c r="C40" s="4"/>
@@ -18189,7 +17340,7 @@
       <c r="I40" s="66"/>
       <c r="J40" s="67"/>
     </row>
-    <row r="41" spans="1:10" ht="16" customHeight="1">
+    <row r="41" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="63"/>
       <c r="B41" s="63"/>
       <c r="C41" s="4"/>
@@ -18201,7 +17352,7 @@
       <c r="I41" s="66"/>
       <c r="J41" s="67"/>
     </row>
-    <row r="42" spans="1:10" ht="16" customHeight="1">
+    <row r="42" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="63"/>
       <c r="B42" s="63"/>
       <c r="C42" s="4"/>
@@ -18213,7 +17364,7 @@
       <c r="I42" s="66"/>
       <c r="J42" s="67"/>
     </row>
-    <row r="43" spans="1:10" ht="16" customHeight="1">
+    <row r="43" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="63"/>
       <c r="B43" s="63"/>
       <c r="C43" s="4"/>
@@ -18225,7 +17376,7 @@
       <c r="I43" s="66"/>
       <c r="J43" s="67"/>
     </row>
-    <row r="44" spans="1:10" ht="16" customHeight="1">
+    <row r="44" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="63"/>
       <c r="B44" s="63"/>
       <c r="C44" s="4"/>
@@ -18237,7 +17388,7 @@
       <c r="I44" s="66"/>
       <c r="J44" s="67"/>
     </row>
-    <row r="45" spans="1:10" ht="16" customHeight="1">
+    <row r="45" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="63"/>
       <c r="B45" s="63"/>
       <c r="C45" s="4"/>
@@ -18249,7 +17400,7 @@
       <c r="I45" s="66"/>
       <c r="J45" s="67"/>
     </row>
-    <row r="46" spans="1:10" ht="16" customHeight="1">
+    <row r="46" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="63"/>
       <c r="B46" s="63"/>
       <c r="C46" s="4"/>
@@ -18261,7 +17412,7 @@
       <c r="I46" s="66"/>
       <c r="J46" s="67"/>
     </row>
-    <row r="47" spans="1:10" ht="16" customHeight="1">
+    <row r="47" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="63"/>
       <c r="B47" s="63"/>
       <c r="C47" s="4"/>
@@ -18273,7 +17424,7 @@
       <c r="I47" s="66"/>
       <c r="J47" s="67"/>
     </row>
-    <row r="48" spans="1:10" ht="16" customHeight="1">
+    <row r="48" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="63"/>
       <c r="B48" s="63"/>
       <c r="C48" s="4"/>
@@ -18285,7 +17436,7 @@
       <c r="I48" s="66"/>
       <c r="J48" s="67"/>
     </row>
-    <row r="49" spans="1:10" ht="16" customHeight="1">
+    <row r="49" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="63"/>
       <c r="B49" s="63"/>
       <c r="C49" s="4"/>
@@ -18297,7 +17448,7 @@
       <c r="I49" s="66"/>
       <c r="J49" s="67"/>
     </row>
-    <row r="50" spans="1:10" ht="16" customHeight="1">
+    <row r="50" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="63"/>
       <c r="B50" s="63"/>
       <c r="C50" s="4"/>
@@ -18309,7 +17460,7 @@
       <c r="I50" s="66"/>
       <c r="J50" s="67"/>
     </row>
-    <row r="51" spans="1:10" ht="16" customHeight="1">
+    <row r="51" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="63"/>
       <c r="B51" s="63"/>
       <c r="C51" s="4"/>
@@ -18321,7 +17472,7 @@
       <c r="I51" s="66"/>
       <c r="J51" s="67"/>
     </row>
-    <row r="52" spans="1:10" ht="16" customHeight="1">
+    <row r="52" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="63"/>
       <c r="B52" s="63"/>
       <c r="C52" s="4"/>
@@ -18333,7 +17484,7 @@
       <c r="I52" s="66"/>
       <c r="J52" s="67"/>
     </row>
-    <row r="53" spans="1:10" ht="16" customHeight="1">
+    <row r="53" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="63"/>
       <c r="B53" s="63"/>
       <c r="C53" s="4"/>
@@ -18345,7 +17496,7 @@
       <c r="I53" s="66"/>
       <c r="J53" s="67"/>
     </row>
-    <row r="54" spans="1:10" ht="16" customHeight="1">
+    <row r="54" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="63"/>
       <c r="B54" s="63"/>
       <c r="C54" s="4"/>
@@ -18357,7 +17508,7 @@
       <c r="I54" s="66"/>
       <c r="J54" s="67"/>
     </row>
-    <row r="55" spans="1:10" ht="16" customHeight="1">
+    <row r="55" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="63"/>
       <c r="B55" s="63"/>
       <c r="C55" s="4"/>
@@ -18369,7 +17520,7 @@
       <c r="I55" s="66"/>
       <c r="J55" s="67"/>
     </row>
-    <row r="56" spans="1:10" ht="16" customHeight="1">
+    <row r="56" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="63"/>
       <c r="B56" s="63"/>
       <c r="C56" s="4"/>
@@ -18381,7 +17532,7 @@
       <c r="I56" s="66"/>
       <c r="J56" s="67"/>
     </row>
-    <row r="57" spans="1:10" ht="16" customHeight="1">
+    <row r="57" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="63"/>
       <c r="B57" s="63"/>
       <c r="C57" s="4"/>
@@ -18393,7 +17544,7 @@
       <c r="I57" s="66"/>
       <c r="J57" s="67"/>
     </row>
-    <row r="58" spans="1:10" ht="16" customHeight="1">
+    <row r="58" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="63"/>
       <c r="B58" s="63"/>
       <c r="C58" s="4"/>
@@ -18405,7 +17556,7 @@
       <c r="I58" s="66"/>
       <c r="J58" s="67"/>
     </row>
-    <row r="59" spans="1:10" ht="16" customHeight="1">
+    <row r="59" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="63"/>
       <c r="B59" s="63"/>
       <c r="C59" s="4"/>
@@ -18417,7 +17568,7 @@
       <c r="I59" s="66"/>
       <c r="J59" s="67"/>
     </row>
-    <row r="60" spans="1:10" ht="16" customHeight="1">
+    <row r="60" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="63"/>
       <c r="B60" s="63"/>
       <c r="C60" s="4"/>
@@ -18429,7 +17580,7 @@
       <c r="I60" s="66"/>
       <c r="J60" s="67"/>
     </row>
-    <row r="61" spans="1:10" ht="16" customHeight="1">
+    <row r="61" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="63"/>
       <c r="B61" s="63"/>
       <c r="C61" s="4"/>
@@ -18441,7 +17592,7 @@
       <c r="I61" s="66"/>
       <c r="J61" s="67"/>
     </row>
-    <row r="62" spans="1:10" ht="16" customHeight="1">
+    <row r="62" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="63"/>
       <c r="B62" s="63"/>
       <c r="C62" s="4"/>
@@ -18453,7 +17604,7 @@
       <c r="I62" s="66"/>
       <c r="J62" s="67"/>
     </row>
-    <row r="63" spans="1:10" ht="16" customHeight="1">
+    <row r="63" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="63"/>
       <c r="B63" s="63"/>
       <c r="C63" s="4"/>
@@ -18465,7 +17616,7 @@
       <c r="I63" s="66"/>
       <c r="J63" s="67"/>
     </row>
-    <row r="64" spans="1:10" ht="16" customHeight="1">
+    <row r="64" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="63"/>
       <c r="B64" s="63"/>
       <c r="C64" s="4"/>
@@ -18492,7 +17643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:IV57"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -18502,36 +17653,36 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="68" customWidth="1"/>
-    <col min="2" max="2" width="6.25" style="68" customWidth="1"/>
-    <col min="3" max="3" width="4.875" style="68" customWidth="1"/>
-    <col min="4" max="4" width="3.875" style="68" customWidth="1"/>
-    <col min="5" max="5" width="4.875" style="68" customWidth="1"/>
-    <col min="6" max="6" width="20.875" style="68" customWidth="1"/>
+    <col min="2" max="2" width="6.19921875" style="68" customWidth="1"/>
+    <col min="3" max="3" width="4.8984375" style="68" customWidth="1"/>
+    <col min="4" max="4" width="3.8984375" style="68" customWidth="1"/>
+    <col min="5" max="5" width="4.8984375" style="68" customWidth="1"/>
+    <col min="6" max="6" width="20.8984375" style="68" customWidth="1"/>
     <col min="7" max="7" width="7.5" style="68" customWidth="1"/>
     <col min="8" max="8" width="4.5" style="68" customWidth="1"/>
-    <col min="9" max="9" width="3.875" style="68" customWidth="1"/>
+    <col min="9" max="9" width="3.8984375" style="68" customWidth="1"/>
     <col min="10" max="10" width="34.5" style="68" customWidth="1"/>
-    <col min="11" max="256" width="9.625" style="68" customWidth="1"/>
+    <col min="11" max="256" width="9.59765625" style="68" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" customHeight="1">
-      <c r="A1" s="131" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="133"/>
-    </row>
-    <row r="2" spans="1:10" ht="39" customHeight="1">
+    <row r="1" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="120"/>
+    </row>
+    <row r="2" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="69" t="s">
         <v>1</v>
       </c>
@@ -18539,31 +17690,31 @@
         <v>2</v>
       </c>
       <c r="C2" s="69" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D2" s="69" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="69" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F2" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="69" t="s">
+      <c r="H2" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="69" t="s">
+      <c r="I2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="69" t="s">
+      <c r="J2" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="69" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="16" customHeight="1">
+    </row>
+    <row r="3" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="70"/>
       <c r="B3" s="70"/>
       <c r="C3" s="71"/>
@@ -18575,7 +17726,7 @@
       <c r="I3" s="73"/>
       <c r="J3" s="73"/>
     </row>
-    <row r="4" spans="1:10" ht="16" customHeight="1">
+    <row r="4" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -18587,7 +17738,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:10" ht="16" customHeight="1">
+    <row r="5" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -18599,7 +17750,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="16" customHeight="1">
+    <row r="6" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -18611,7 +17762,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:10" ht="16" customHeight="1">
+    <row r="7" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -18623,7 +17774,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="16" customHeight="1">
+    <row r="8" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -18635,7 +17786,7 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:10" ht="16" customHeight="1">
+    <row r="9" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -18647,7 +17798,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10" ht="16" customHeight="1">
+    <row r="10" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -18659,7 +17810,7 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" ht="16" customHeight="1">
+    <row r="11" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -18671,7 +17822,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" ht="16" customHeight="1">
+    <row r="12" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -18683,7 +17834,7 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:10" ht="16" customHeight="1">
+    <row r="13" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -18695,7 +17846,7 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:10" ht="16" customHeight="1">
+    <row r="14" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -18707,7 +17858,7 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10" ht="16" customHeight="1">
+    <row r="15" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -18719,7 +17870,7 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:10" ht="16" customHeight="1">
+    <row r="16" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -18731,7 +17882,7 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="1:10" ht="16" customHeight="1">
+    <row r="17" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -18743,7 +17894,7 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:10" ht="16" customHeight="1">
+    <row r="18" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
@@ -18755,7 +17906,7 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10" ht="16" customHeight="1">
+    <row r="19" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
@@ -18767,7 +17918,7 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10" ht="16" customHeight="1">
+    <row r="20" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
@@ -18779,7 +17930,7 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:10" ht="16" customHeight="1">
+    <row r="21" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
@@ -18791,7 +17942,7 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="1:10" ht="16" customHeight="1">
+    <row r="22" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
@@ -18803,7 +17954,7 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="1:10" ht="16" customHeight="1">
+    <row r="23" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
@@ -18815,7 +17966,7 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:10" ht="16" customHeight="1">
+    <row r="24" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
@@ -18827,7 +17978,7 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="1:10" ht="16" customHeight="1">
+    <row r="25" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
@@ -18839,7 +17990,7 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="1:10" ht="16" customHeight="1">
+    <row r="26" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
@@ -18851,7 +18002,7 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:10" ht="16" customHeight="1">
+    <row r="27" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
@@ -18863,7 +18014,7 @@
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:10" ht="16" customHeight="1">
+    <row r="28" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
@@ -18875,7 +18026,7 @@
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:10" ht="16" customHeight="1">
+    <row r="29" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
@@ -18887,7 +18038,7 @@
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:10" ht="16" customHeight="1">
+    <row r="30" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
@@ -18899,7 +18050,7 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:10" ht="16" customHeight="1">
+    <row r="31" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
@@ -18911,7 +18062,7 @@
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:10" ht="16" customHeight="1">
+    <row r="32" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
@@ -18923,7 +18074,7 @@
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="1:10" ht="16" customHeight="1">
+    <row r="33" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
@@ -18935,7 +18086,7 @@
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="1:10" ht="16" customHeight="1">
+    <row r="34" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
@@ -18947,7 +18098,7 @@
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="1:10" ht="16" customHeight="1">
+    <row r="35" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="2"/>
@@ -18959,7 +18110,7 @@
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" spans="1:10" ht="16" customHeight="1">
+    <row r="36" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
@@ -18971,7 +18122,7 @@
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="1:10" ht="16" customHeight="1">
+    <row r="37" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="2"/>
@@ -18983,7 +18134,7 @@
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="1:10" ht="16" customHeight="1">
+    <row r="38" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
@@ -18995,7 +18146,7 @@
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="1:10" ht="16" customHeight="1">
+    <row r="39" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="2"/>
@@ -19007,7 +18158,7 @@
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="1:10" ht="16" customHeight="1">
+    <row r="40" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="2"/>
@@ -19019,7 +18170,7 @@
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="1:10" ht="16" customHeight="1">
+    <row r="41" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="2"/>
@@ -19031,7 +18182,7 @@
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="1:10" ht="16" customHeight="1">
+    <row r="42" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="2"/>
@@ -19043,7 +18194,7 @@
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="1:10" ht="16" customHeight="1">
+    <row r="43" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="2"/>
@@ -19055,7 +18206,7 @@
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="1:10" ht="16" customHeight="1">
+    <row r="44" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="2"/>
@@ -19067,7 +18218,7 @@
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="1:10" ht="16" customHeight="1">
+    <row r="45" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="2"/>
@@ -19079,7 +18230,7 @@
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="1:10" ht="16" customHeight="1">
+    <row r="46" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="2"/>
@@ -19091,7 +18242,7 @@
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="1:10" ht="16" customHeight="1">
+    <row r="47" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="2"/>
@@ -19103,7 +18254,7 @@
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="1:10" ht="16" customHeight="1">
+    <row r="48" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="2"/>
@@ -19115,7 +18266,7 @@
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
     </row>
-    <row r="49" spans="1:10" ht="16" customHeight="1">
+    <row r="49" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="2"/>
@@ -19127,7 +18278,7 @@
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
     </row>
-    <row r="50" spans="1:10" ht="16" customHeight="1">
+    <row r="50" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="2"/>
@@ -19139,7 +18290,7 @@
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="1:10" ht="16" customHeight="1">
+    <row r="51" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="2"/>
@@ -19151,7 +18302,7 @@
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="1:10" ht="16" customHeight="1">
+    <row r="52" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="2"/>
@@ -19163,7 +18314,7 @@
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
     </row>
-    <row r="53" spans="1:10" ht="16" customHeight="1">
+    <row r="53" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="2"/>
@@ -19175,7 +18326,7 @@
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
     </row>
-    <row r="54" spans="1:10" ht="16" customHeight="1">
+    <row r="54" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="2"/>
@@ -19187,7 +18338,7 @@
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="1:10" ht="16" customHeight="1">
+    <row r="55" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="2"/>
@@ -19199,7 +18350,7 @@
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="1:10" ht="16" customHeight="1">
+    <row r="56" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="2"/>
@@ -19211,7 +18362,7 @@
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="1:10" ht="16" customHeight="1">
+    <row r="57" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="2"/>
@@ -19241,68 +18392,68 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:IV173"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6.625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="6.625" style="74" customWidth="1"/>
+    <col min="1" max="2" width="6.59765625" style="74" customWidth="1"/>
     <col min="3" max="3" width="4.5" style="74" customWidth="1"/>
-    <col min="4" max="4" width="4.625" style="74" customWidth="1"/>
-    <col min="5" max="5" width="7.25" style="74" customWidth="1"/>
-    <col min="6" max="6" width="7.75" style="74" customWidth="1"/>
-    <col min="7" max="8" width="7.375" style="74" customWidth="1"/>
-    <col min="9" max="9" width="38.625" style="74" customWidth="1"/>
-    <col min="10" max="256" width="6.625" style="74" customWidth="1"/>
+    <col min="4" max="4" width="4.59765625" style="74" customWidth="1"/>
+    <col min="5" max="5" width="7.19921875" style="74" customWidth="1"/>
+    <col min="6" max="6" width="7.69921875" style="74" customWidth="1"/>
+    <col min="7" max="8" width="7.3984375" style="74" customWidth="1"/>
+    <col min="9" max="9" width="38.59765625" style="74" customWidth="1"/>
+    <col min="10" max="256" width="6.59765625" style="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24" customHeight="1">
+    <row r="1" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="75"/>
       <c r="B1" s="75"/>
       <c r="C1" s="76"/>
       <c r="D1" s="77"/>
-      <c r="E1" s="134" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="135"/>
-      <c r="G1" s="134" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="135"/>
+      <c r="E1" s="121" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="122"/>
+      <c r="G1" s="121" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="122"/>
       <c r="I1" s="78"/>
     </row>
-    <row r="2" spans="1:9" ht="38.25" customHeight="1">
+    <row r="2" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B2" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="53" t="s">
-        <v>54</v>
-      </c>
       <c r="E2" s="79" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F2" s="53" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G2" s="79" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H2" s="53" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="36"/>
       <c r="B3" s="36"/>
       <c r="C3" s="80"/>
@@ -19319,7 +18470,7 @@
       </c>
       <c r="I3" s="40"/>
     </row>
-    <row r="4" spans="1:9" ht="12.75" customHeight="1">
+    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
       <c r="C4" s="49"/>
@@ -19336,7 +18487,7 @@
       </c>
       <c r="I4" s="48"/>
     </row>
-    <row r="5" spans="1:9" ht="12.75" customHeight="1">
+    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="44"/>
       <c r="B5" s="44"/>
       <c r="C5" s="49"/>
@@ -19353,7 +18504,7 @@
       </c>
       <c r="I5" s="48"/>
     </row>
-    <row r="6" spans="1:9" ht="12.75" customHeight="1">
+    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="44"/>
       <c r="B6" s="44"/>
       <c r="C6" s="49"/>
@@ -19370,7 +18521,7 @@
       </c>
       <c r="I6" s="48"/>
     </row>
-    <row r="7" spans="1:9" ht="12.75" customHeight="1">
+    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="44"/>
       <c r="B7" s="44"/>
       <c r="C7" s="49"/>
@@ -19387,7 +18538,7 @@
       </c>
       <c r="I7" s="48"/>
     </row>
-    <row r="8" spans="1:9" ht="12.75" customHeight="1">
+    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="44"/>
       <c r="B8" s="44"/>
       <c r="C8" s="49"/>
@@ -19404,7 +18555,7 @@
       </c>
       <c r="I8" s="48"/>
     </row>
-    <row r="9" spans="1:9" ht="12.75" customHeight="1">
+    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="44"/>
       <c r="B9" s="44"/>
       <c r="C9" s="49"/>
@@ -19421,7 +18572,7 @@
       </c>
       <c r="I9" s="48"/>
     </row>
-    <row r="10" spans="1:9" ht="12.75" customHeight="1">
+    <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="44"/>
       <c r="B10" s="44"/>
       <c r="C10" s="49"/>
@@ -19438,7 +18589,7 @@
       </c>
       <c r="I10" s="48"/>
     </row>
-    <row r="11" spans="1:9" ht="12.75" customHeight="1">
+    <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="44"/>
       <c r="B11" s="44"/>
       <c r="C11" s="49"/>
@@ -19455,7 +18606,7 @@
       </c>
       <c r="I11" s="48"/>
     </row>
-    <row r="12" spans="1:9" ht="12.75" customHeight="1">
+    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="44"/>
       <c r="B12" s="44"/>
       <c r="C12" s="49"/>
@@ -19472,7 +18623,7 @@
       </c>
       <c r="I12" s="48"/>
     </row>
-    <row r="13" spans="1:9" ht="12.75" customHeight="1">
+    <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="44"/>
       <c r="B13" s="44"/>
       <c r="C13" s="49"/>
@@ -19489,7 +18640,7 @@
       </c>
       <c r="I13" s="48"/>
     </row>
-    <row r="14" spans="1:9" ht="12.75" customHeight="1">
+    <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="44"/>
       <c r="B14" s="44"/>
       <c r="C14" s="49"/>
@@ -19506,7 +18657,7 @@
       </c>
       <c r="I14" s="48"/>
     </row>
-    <row r="15" spans="1:9" ht="12.75" customHeight="1">
+    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="44"/>
       <c r="B15" s="44"/>
       <c r="C15" s="49"/>
@@ -19523,7 +18674,7 @@
       </c>
       <c r="I15" s="48"/>
     </row>
-    <row r="16" spans="1:9" ht="12.75" customHeight="1">
+    <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="44"/>
       <c r="B16" s="44"/>
       <c r="C16" s="49"/>
@@ -19540,7 +18691,7 @@
       </c>
       <c r="I16" s="48"/>
     </row>
-    <row r="17" spans="1:9" ht="12.75" customHeight="1">
+    <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="44"/>
       <c r="B17" s="44"/>
       <c r="C17" s="49"/>
@@ -19557,7 +18708,7 @@
       </c>
       <c r="I17" s="48"/>
     </row>
-    <row r="18" spans="1:9" ht="12.75" customHeight="1">
+    <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="44"/>
       <c r="B18" s="44"/>
       <c r="C18" s="49"/>
@@ -19574,7 +18725,7 @@
       </c>
       <c r="I18" s="48"/>
     </row>
-    <row r="19" spans="1:9" ht="12.75" customHeight="1">
+    <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="44"/>
       <c r="B19" s="44"/>
       <c r="C19" s="49"/>
@@ -19591,7 +18742,7 @@
       </c>
       <c r="I19" s="48"/>
     </row>
-    <row r="20" spans="1:9" ht="12.75" customHeight="1">
+    <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="44"/>
       <c r="B20" s="44"/>
       <c r="C20" s="49"/>
@@ -19608,7 +18759,7 @@
       </c>
       <c r="I20" s="48"/>
     </row>
-    <row r="21" spans="1:9" ht="12.75" customHeight="1">
+    <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="44"/>
       <c r="B21" s="44"/>
       <c r="C21" s="49"/>
@@ -19625,7 +18776,7 @@
       </c>
       <c r="I21" s="48"/>
     </row>
-    <row r="22" spans="1:9" ht="12.75" customHeight="1">
+    <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="44"/>
       <c r="B22" s="44"/>
       <c r="C22" s="49"/>
@@ -19642,7 +18793,7 @@
       </c>
       <c r="I22" s="48"/>
     </row>
-    <row r="23" spans="1:9" ht="12.75" customHeight="1">
+    <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="44"/>
       <c r="B23" s="44"/>
       <c r="C23" s="49"/>
@@ -19659,7 +18810,7 @@
       </c>
       <c r="I23" s="48"/>
     </row>
-    <row r="24" spans="1:9" ht="12.75" customHeight="1">
+    <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="44"/>
       <c r="B24" s="44"/>
       <c r="C24" s="49"/>
@@ -19676,7 +18827,7 @@
       </c>
       <c r="I24" s="48"/>
     </row>
-    <row r="25" spans="1:9" ht="12.75" customHeight="1">
+    <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="44"/>
       <c r="B25" s="44"/>
       <c r="C25" s="49"/>
@@ -19693,7 +18844,7 @@
       </c>
       <c r="I25" s="48"/>
     </row>
-    <row r="26" spans="1:9" ht="12.75" customHeight="1">
+    <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="44"/>
       <c r="B26" s="44"/>
       <c r="C26" s="49"/>
@@ -19710,7 +18861,7 @@
       </c>
       <c r="I26" s="48"/>
     </row>
-    <row r="27" spans="1:9" ht="12.75" customHeight="1">
+    <row r="27" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="44"/>
       <c r="B27" s="44"/>
       <c r="C27" s="49"/>
@@ -19727,7 +18878,7 @@
       </c>
       <c r="I27" s="48"/>
     </row>
-    <row r="28" spans="1:9" ht="12.75" customHeight="1">
+    <row r="28" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="44"/>
       <c r="B28" s="44"/>
       <c r="C28" s="49"/>
@@ -19744,7 +18895,7 @@
       </c>
       <c r="I28" s="48"/>
     </row>
-    <row r="29" spans="1:9" ht="12.75" customHeight="1">
+    <row r="29" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="44"/>
       <c r="B29" s="44"/>
       <c r="C29" s="49"/>
@@ -19761,7 +18912,7 @@
       </c>
       <c r="I29" s="48"/>
     </row>
-    <row r="30" spans="1:9" ht="12.75" customHeight="1">
+    <row r="30" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="44"/>
       <c r="B30" s="44"/>
       <c r="C30" s="49"/>
@@ -19778,7 +18929,7 @@
       </c>
       <c r="I30" s="48"/>
     </row>
-    <row r="31" spans="1:9" ht="12.75" customHeight="1">
+    <row r="31" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="44"/>
       <c r="B31" s="44"/>
       <c r="C31" s="49"/>
@@ -19795,7 +18946,7 @@
       </c>
       <c r="I31" s="48"/>
     </row>
-    <row r="32" spans="1:9" ht="12.75" customHeight="1">
+    <row r="32" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="44"/>
       <c r="B32" s="44"/>
       <c r="C32" s="49"/>
@@ -19812,7 +18963,7 @@
       </c>
       <c r="I32" s="48"/>
     </row>
-    <row r="33" spans="1:9" ht="12.75" customHeight="1">
+    <row r="33" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="44"/>
       <c r="B33" s="44"/>
       <c r="C33" s="49"/>
@@ -19829,7 +18980,7 @@
       </c>
       <c r="I33" s="48"/>
     </row>
-    <row r="34" spans="1:9" ht="12.75" customHeight="1">
+    <row r="34" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="44"/>
       <c r="B34" s="44"/>
       <c r="C34" s="49"/>
@@ -19846,7 +18997,7 @@
       </c>
       <c r="I34" s="48"/>
     </row>
-    <row r="35" spans="1:9" ht="12.75" customHeight="1">
+    <row r="35" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="44"/>
       <c r="B35" s="44"/>
       <c r="C35" s="49"/>
@@ -19863,7 +19014,7 @@
       </c>
       <c r="I35" s="48"/>
     </row>
-    <row r="36" spans="1:9" ht="12.75" customHeight="1">
+    <row r="36" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="44"/>
       <c r="B36" s="44"/>
       <c r="C36" s="49"/>
@@ -19880,7 +19031,7 @@
       </c>
       <c r="I36" s="48"/>
     </row>
-    <row r="37" spans="1:9" ht="12.75" customHeight="1">
+    <row r="37" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="44"/>
       <c r="B37" s="44"/>
       <c r="C37" s="49"/>
@@ -19897,7 +19048,7 @@
       </c>
       <c r="I37" s="48"/>
     </row>
-    <row r="38" spans="1:9" ht="12.75" customHeight="1">
+    <row r="38" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="44"/>
       <c r="B38" s="44"/>
       <c r="C38" s="49"/>
@@ -19914,7 +19065,7 @@
       </c>
       <c r="I38" s="48"/>
     </row>
-    <row r="39" spans="1:9" ht="12.75" customHeight="1">
+    <row r="39" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="44"/>
       <c r="B39" s="44"/>
       <c r="C39" s="49"/>
@@ -19931,7 +19082,7 @@
       </c>
       <c r="I39" s="48"/>
     </row>
-    <row r="40" spans="1:9" ht="12.75" customHeight="1">
+    <row r="40" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="44"/>
       <c r="B40" s="44"/>
       <c r="C40" s="49"/>
@@ -19948,7 +19099,7 @@
       </c>
       <c r="I40" s="48"/>
     </row>
-    <row r="41" spans="1:9" ht="12.75" customHeight="1">
+    <row r="41" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="44"/>
       <c r="B41" s="44"/>
       <c r="C41" s="49"/>
@@ -19965,7 +19116,7 @@
       </c>
       <c r="I41" s="48"/>
     </row>
-    <row r="42" spans="1:9" ht="12.75" customHeight="1">
+    <row r="42" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="44"/>
       <c r="B42" s="44"/>
       <c r="C42" s="49"/>
@@ -19982,7 +19133,7 @@
       </c>
       <c r="I42" s="48"/>
     </row>
-    <row r="43" spans="1:9" ht="12.75" customHeight="1">
+    <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="44"/>
       <c r="B43" s="44"/>
       <c r="C43" s="49"/>
@@ -19999,7 +19150,7 @@
       </c>
       <c r="I43" s="48"/>
     </row>
-    <row r="44" spans="1:9" ht="12.75" customHeight="1">
+    <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="44"/>
       <c r="B44" s="44"/>
       <c r="C44" s="49"/>
@@ -20016,7 +19167,7 @@
       </c>
       <c r="I44" s="48"/>
     </row>
-    <row r="45" spans="1:9" ht="12.75" customHeight="1">
+    <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="44"/>
       <c r="B45" s="44"/>
       <c r="C45" s="49"/>
@@ -20033,7 +19184,7 @@
       </c>
       <c r="I45" s="48"/>
     </row>
-    <row r="46" spans="1:9" ht="12.75" customHeight="1">
+    <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="44"/>
       <c r="B46" s="44"/>
       <c r="C46" s="49"/>
@@ -20050,7 +19201,7 @@
       </c>
       <c r="I46" s="48"/>
     </row>
-    <row r="47" spans="1:9" ht="12.75" customHeight="1">
+    <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="44"/>
       <c r="B47" s="44"/>
       <c r="C47" s="49"/>
@@ -20067,7 +19218,7 @@
       </c>
       <c r="I47" s="48"/>
     </row>
-    <row r="48" spans="1:9" ht="12.75" customHeight="1">
+    <row r="48" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="44"/>
       <c r="B48" s="44"/>
       <c r="C48" s="49"/>
@@ -20084,7 +19235,7 @@
       </c>
       <c r="I48" s="48"/>
     </row>
-    <row r="49" spans="1:9" ht="12.75" customHeight="1">
+    <row r="49" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="44"/>
       <c r="B49" s="44"/>
       <c r="C49" s="49"/>
@@ -20101,7 +19252,7 @@
       </c>
       <c r="I49" s="48"/>
     </row>
-    <row r="50" spans="1:9" ht="12.75" customHeight="1">
+    <row r="50" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="44"/>
       <c r="B50" s="44"/>
       <c r="C50" s="49"/>
@@ -20118,7 +19269,7 @@
       </c>
       <c r="I50" s="48"/>
     </row>
-    <row r="51" spans="1:9" ht="12.75" customHeight="1">
+    <row r="51" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="44"/>
       <c r="B51" s="44"/>
       <c r="C51" s="49"/>
@@ -20135,7 +19286,7 @@
       </c>
       <c r="I51" s="48"/>
     </row>
-    <row r="52" spans="1:9" ht="12.75" customHeight="1">
+    <row r="52" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="44"/>
       <c r="B52" s="44"/>
       <c r="C52" s="49"/>
@@ -20152,7 +19303,7 @@
       </c>
       <c r="I52" s="48"/>
     </row>
-    <row r="53" spans="1:9" ht="12.75" customHeight="1">
+    <row r="53" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="44"/>
       <c r="B53" s="44"/>
       <c r="C53" s="49"/>
@@ -20169,7 +19320,7 @@
       </c>
       <c r="I53" s="48"/>
     </row>
-    <row r="54" spans="1:9" ht="12.75" customHeight="1">
+    <row r="54" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="44"/>
       <c r="B54" s="44"/>
       <c r="C54" s="49"/>
@@ -20186,7 +19337,7 @@
       </c>
       <c r="I54" s="48"/>
     </row>
-    <row r="55" spans="1:9" ht="12.75" customHeight="1">
+    <row r="55" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="44"/>
       <c r="B55" s="44"/>
       <c r="C55" s="49"/>
@@ -20203,7 +19354,7 @@
       </c>
       <c r="I55" s="48"/>
     </row>
-    <row r="56" spans="1:9" ht="12.75" customHeight="1">
+    <row r="56" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="44"/>
       <c r="B56" s="44"/>
       <c r="C56" s="49"/>
@@ -20220,7 +19371,7 @@
       </c>
       <c r="I56" s="48"/>
     </row>
-    <row r="57" spans="1:9" ht="12.75" customHeight="1">
+    <row r="57" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="44"/>
       <c r="B57" s="44"/>
       <c r="C57" s="49"/>
@@ -20237,7 +19388,7 @@
       </c>
       <c r="I57" s="48"/>
     </row>
-    <row r="58" spans="1:9" ht="12.75" customHeight="1">
+    <row r="58" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="44"/>
       <c r="B58" s="44"/>
       <c r="C58" s="49"/>
@@ -20254,7 +19405,7 @@
       </c>
       <c r="I58" s="48"/>
     </row>
-    <row r="59" spans="1:9" ht="12.75" customHeight="1">
+    <row r="59" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="44"/>
       <c r="B59" s="44"/>
       <c r="C59" s="49"/>
@@ -20271,7 +19422,7 @@
       </c>
       <c r="I59" s="48"/>
     </row>
-    <row r="60" spans="1:9" ht="12.75" customHeight="1">
+    <row r="60" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="44"/>
       <c r="B60" s="44"/>
       <c r="C60" s="49"/>
@@ -20288,7 +19439,7 @@
       </c>
       <c r="I60" s="48"/>
     </row>
-    <row r="61" spans="1:9" ht="12.75" customHeight="1">
+    <row r="61" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="44"/>
       <c r="B61" s="44"/>
       <c r="C61" s="49"/>
@@ -20305,7 +19456,7 @@
       </c>
       <c r="I61" s="48"/>
     </row>
-    <row r="62" spans="1:9" ht="12.75" customHeight="1">
+    <row r="62" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="44"/>
       <c r="B62" s="44"/>
       <c r="C62" s="49"/>
@@ -20322,7 +19473,7 @@
       </c>
       <c r="I62" s="48"/>
     </row>
-    <row r="63" spans="1:9" ht="12.75" customHeight="1">
+    <row r="63" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="44"/>
       <c r="B63" s="44"/>
       <c r="C63" s="49"/>
@@ -20339,7 +19490,7 @@
       </c>
       <c r="I63" s="48"/>
     </row>
-    <row r="64" spans="1:9" ht="12.75" customHeight="1">
+    <row r="64" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="44"/>
       <c r="B64" s="44"/>
       <c r="C64" s="49"/>
@@ -20356,7 +19507,7 @@
       </c>
       <c r="I64" s="48"/>
     </row>
-    <row r="65" spans="1:9" ht="12.75" customHeight="1">
+    <row r="65" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="44"/>
       <c r="B65" s="44"/>
       <c r="C65" s="49"/>
@@ -20373,7 +19524,7 @@
       </c>
       <c r="I65" s="48"/>
     </row>
-    <row r="66" spans="1:9" ht="12.75" customHeight="1">
+    <row r="66" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="44"/>
       <c r="B66" s="44"/>
       <c r="C66" s="49"/>
@@ -20390,7 +19541,7 @@
       </c>
       <c r="I66" s="48"/>
     </row>
-    <row r="67" spans="1:9" ht="12.75" customHeight="1">
+    <row r="67" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="44"/>
       <c r="B67" s="44"/>
       <c r="C67" s="49"/>
@@ -20407,7 +19558,7 @@
       </c>
       <c r="I67" s="48"/>
     </row>
-    <row r="68" spans="1:9" ht="12.75" customHeight="1">
+    <row r="68" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="44"/>
       <c r="B68" s="44"/>
       <c r="C68" s="49"/>
@@ -20424,7 +19575,7 @@
       </c>
       <c r="I68" s="48"/>
     </row>
-    <row r="69" spans="1:9" ht="12.75" customHeight="1">
+    <row r="69" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="44"/>
       <c r="B69" s="44"/>
       <c r="C69" s="49"/>
@@ -20441,7 +19592,7 @@
       </c>
       <c r="I69" s="48"/>
     </row>
-    <row r="70" spans="1:9" ht="12.75" customHeight="1">
+    <row r="70" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="44"/>
       <c r="B70" s="44"/>
       <c r="C70" s="49"/>
@@ -20458,7 +19609,7 @@
       </c>
       <c r="I70" s="48"/>
     </row>
-    <row r="71" spans="1:9" ht="12.75" customHeight="1">
+    <row r="71" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="44"/>
       <c r="B71" s="44"/>
       <c r="C71" s="49"/>
@@ -20475,7 +19626,7 @@
       </c>
       <c r="I71" s="48"/>
     </row>
-    <row r="72" spans="1:9" ht="12.75" customHeight="1">
+    <row r="72" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="44"/>
       <c r="B72" s="44"/>
       <c r="C72" s="49"/>
@@ -20492,7 +19643,7 @@
       </c>
       <c r="I72" s="48"/>
     </row>
-    <row r="73" spans="1:9" ht="12.75" customHeight="1">
+    <row r="73" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="44"/>
       <c r="B73" s="44"/>
       <c r="C73" s="49"/>
@@ -20509,7 +19660,7 @@
       </c>
       <c r="I73" s="48"/>
     </row>
-    <row r="74" spans="1:9" ht="12.75" customHeight="1">
+    <row r="74" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="44"/>
       <c r="B74" s="44"/>
       <c r="C74" s="49"/>
@@ -20526,7 +19677,7 @@
       </c>
       <c r="I74" s="48"/>
     </row>
-    <row r="75" spans="1:9" ht="12.75" customHeight="1">
+    <row r="75" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="44"/>
       <c r="B75" s="44"/>
       <c r="C75" s="49"/>
@@ -20543,7 +19694,7 @@
       </c>
       <c r="I75" s="48"/>
     </row>
-    <row r="76" spans="1:9" ht="12.75" customHeight="1">
+    <row r="76" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="44"/>
       <c r="B76" s="44"/>
       <c r="C76" s="49"/>
@@ -20560,7 +19711,7 @@
       </c>
       <c r="I76" s="48"/>
     </row>
-    <row r="77" spans="1:9" ht="12.75" customHeight="1">
+    <row r="77" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="44"/>
       <c r="B77" s="44"/>
       <c r="C77" s="49"/>
@@ -20577,7 +19728,7 @@
       </c>
       <c r="I77" s="48"/>
     </row>
-    <row r="78" spans="1:9" ht="12.75" customHeight="1">
+    <row r="78" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="44"/>
       <c r="B78" s="44"/>
       <c r="C78" s="49"/>
@@ -20594,7 +19745,7 @@
       </c>
       <c r="I78" s="48"/>
     </row>
-    <row r="79" spans="1:9" ht="12.75" customHeight="1">
+    <row r="79" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="44"/>
       <c r="B79" s="44"/>
       <c r="C79" s="49"/>
@@ -20611,7 +19762,7 @@
       </c>
       <c r="I79" s="48"/>
     </row>
-    <row r="80" spans="1:9" ht="12.75" customHeight="1">
+    <row r="80" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="44"/>
       <c r="B80" s="44"/>
       <c r="C80" s="49"/>
@@ -20628,7 +19779,7 @@
       </c>
       <c r="I80" s="48"/>
     </row>
-    <row r="81" spans="1:9" ht="12.75" customHeight="1">
+    <row r="81" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="44"/>
       <c r="B81" s="44"/>
       <c r="C81" s="49"/>
@@ -20645,7 +19796,7 @@
       </c>
       <c r="I81" s="48"/>
     </row>
-    <row r="82" spans="1:9" ht="12.75" customHeight="1">
+    <row r="82" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="44"/>
       <c r="B82" s="44"/>
       <c r="C82" s="49"/>
@@ -20662,7 +19813,7 @@
       </c>
       <c r="I82" s="48"/>
     </row>
-    <row r="83" spans="1:9" ht="12.75" customHeight="1">
+    <row r="83" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="44"/>
       <c r="B83" s="44"/>
       <c r="C83" s="49"/>
@@ -20679,7 +19830,7 @@
       </c>
       <c r="I83" s="48"/>
     </row>
-    <row r="84" spans="1:9" ht="12.75" customHeight="1">
+    <row r="84" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="44"/>
       <c r="B84" s="44"/>
       <c r="C84" s="49"/>
@@ -20696,7 +19847,7 @@
       </c>
       <c r="I84" s="48"/>
     </row>
-    <row r="85" spans="1:9" ht="12.75" customHeight="1">
+    <row r="85" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="44"/>
       <c r="B85" s="44"/>
       <c r="C85" s="49"/>
@@ -20713,7 +19864,7 @@
       </c>
       <c r="I85" s="48"/>
     </row>
-    <row r="86" spans="1:9" ht="12.75" customHeight="1">
+    <row r="86" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="44"/>
       <c r="B86" s="44"/>
       <c r="C86" s="49"/>
@@ -20730,7 +19881,7 @@
       </c>
       <c r="I86" s="48"/>
     </row>
-    <row r="87" spans="1:9" ht="12.75" customHeight="1">
+    <row r="87" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="44"/>
       <c r="B87" s="44"/>
       <c r="C87" s="49"/>
@@ -20747,7 +19898,7 @@
       </c>
       <c r="I87" s="48"/>
     </row>
-    <row r="88" spans="1:9" ht="12.75" customHeight="1">
+    <row r="88" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="44"/>
       <c r="B88" s="44"/>
       <c r="C88" s="49"/>
@@ -20764,7 +19915,7 @@
       </c>
       <c r="I88" s="48"/>
     </row>
-    <row r="89" spans="1:9" ht="12.75" customHeight="1">
+    <row r="89" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="44"/>
       <c r="B89" s="44"/>
       <c r="C89" s="49"/>
@@ -20781,7 +19932,7 @@
       </c>
       <c r="I89" s="48"/>
     </row>
-    <row r="90" spans="1:9" ht="12.75" customHeight="1">
+    <row r="90" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="44"/>
       <c r="B90" s="44"/>
       <c r="C90" s="49"/>
@@ -20798,7 +19949,7 @@
       </c>
       <c r="I90" s="48"/>
     </row>
-    <row r="91" spans="1:9" ht="12.75" customHeight="1">
+    <row r="91" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="44"/>
       <c r="B91" s="44"/>
       <c r="C91" s="49"/>
@@ -20815,7 +19966,7 @@
       </c>
       <c r="I91" s="48"/>
     </row>
-    <row r="92" spans="1:9" ht="12.75" customHeight="1">
+    <row r="92" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="44"/>
       <c r="B92" s="44"/>
       <c r="C92" s="49"/>
@@ -20832,7 +19983,7 @@
       </c>
       <c r="I92" s="48"/>
     </row>
-    <row r="93" spans="1:9" ht="12.75" customHeight="1">
+    <row r="93" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="44"/>
       <c r="B93" s="44"/>
       <c r="C93" s="49"/>
@@ -20849,7 +20000,7 @@
       </c>
       <c r="I93" s="48"/>
     </row>
-    <row r="94" spans="1:9" ht="12.75" customHeight="1">
+    <row r="94" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="44"/>
       <c r="B94" s="44"/>
       <c r="C94" s="49"/>
@@ -20866,7 +20017,7 @@
       </c>
       <c r="I94" s="48"/>
     </row>
-    <row r="95" spans="1:9" ht="12.75" customHeight="1">
+    <row r="95" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="44"/>
       <c r="B95" s="44"/>
       <c r="C95" s="49"/>
@@ -20883,7 +20034,7 @@
       </c>
       <c r="I95" s="48"/>
     </row>
-    <row r="96" spans="1:9" ht="12.75" customHeight="1">
+    <row r="96" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="44"/>
       <c r="B96" s="44"/>
       <c r="C96" s="49"/>
@@ -20900,7 +20051,7 @@
       </c>
       <c r="I96" s="48"/>
     </row>
-    <row r="97" spans="1:9" ht="12.75" customHeight="1">
+    <row r="97" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="44"/>
       <c r="B97" s="44"/>
       <c r="C97" s="49"/>
@@ -20917,7 +20068,7 @@
       </c>
       <c r="I97" s="48"/>
     </row>
-    <row r="98" spans="1:9" ht="12.75" customHeight="1">
+    <row r="98" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="44"/>
       <c r="B98" s="44"/>
       <c r="C98" s="49"/>
@@ -20934,7 +20085,7 @@
       </c>
       <c r="I98" s="48"/>
     </row>
-    <row r="99" spans="1:9" ht="12.75" customHeight="1">
+    <row r="99" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="44"/>
       <c r="B99" s="44"/>
       <c r="C99" s="49"/>
@@ -20951,7 +20102,7 @@
       </c>
       <c r="I99" s="48"/>
     </row>
-    <row r="100" spans="1:9" ht="12.75" customHeight="1">
+    <row r="100" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="44"/>
       <c r="B100" s="44"/>
       <c r="C100" s="49"/>
@@ -20968,7 +20119,7 @@
       </c>
       <c r="I100" s="48"/>
     </row>
-    <row r="101" spans="1:9" ht="12.75" customHeight="1">
+    <row r="101" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="44"/>
       <c r="B101" s="44"/>
       <c r="C101" s="49"/>
@@ -20985,7 +20136,7 @@
       </c>
       <c r="I101" s="48"/>
     </row>
-    <row r="102" spans="1:9" ht="12.75" customHeight="1">
+    <row r="102" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="44"/>
       <c r="B102" s="44"/>
       <c r="C102" s="49"/>
@@ -21002,7 +20153,7 @@
       </c>
       <c r="I102" s="48"/>
     </row>
-    <row r="103" spans="1:9" ht="12.75" customHeight="1">
+    <row r="103" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="44"/>
       <c r="B103" s="44"/>
       <c r="C103" s="49"/>
@@ -21019,7 +20170,7 @@
       </c>
       <c r="I103" s="48"/>
     </row>
-    <row r="104" spans="1:9" ht="12.75" customHeight="1">
+    <row r="104" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="44"/>
       <c r="B104" s="44"/>
       <c r="C104" s="49"/>
@@ -21036,7 +20187,7 @@
       </c>
       <c r="I104" s="48"/>
     </row>
-    <row r="105" spans="1:9" ht="12.75" customHeight="1">
+    <row r="105" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="44"/>
       <c r="B105" s="44"/>
       <c r="C105" s="49"/>
@@ -21053,7 +20204,7 @@
       </c>
       <c r="I105" s="48"/>
     </row>
-    <row r="106" spans="1:9" ht="12.75" customHeight="1">
+    <row r="106" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="44"/>
       <c r="B106" s="44"/>
       <c r="C106" s="49"/>
@@ -21070,7 +20221,7 @@
       </c>
       <c r="I106" s="48"/>
     </row>
-    <row r="107" spans="1:9" ht="12.75" customHeight="1">
+    <row r="107" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="44"/>
       <c r="B107" s="44"/>
       <c r="C107" s="49"/>
@@ -21087,7 +20238,7 @@
       </c>
       <c r="I107" s="48"/>
     </row>
-    <row r="108" spans="1:9" ht="12.75" customHeight="1">
+    <row r="108" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="44"/>
       <c r="B108" s="44"/>
       <c r="C108" s="49"/>
@@ -21104,7 +20255,7 @@
       </c>
       <c r="I108" s="48"/>
     </row>
-    <row r="109" spans="1:9" ht="12.75" customHeight="1">
+    <row r="109" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="44"/>
       <c r="B109" s="44"/>
       <c r="C109" s="49"/>
@@ -21121,7 +20272,7 @@
       </c>
       <c r="I109" s="48"/>
     </row>
-    <row r="110" spans="1:9" ht="12.75" customHeight="1">
+    <row r="110" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="44"/>
       <c r="B110" s="44"/>
       <c r="C110" s="49"/>
@@ -21138,7 +20289,7 @@
       </c>
       <c r="I110" s="48"/>
     </row>
-    <row r="111" spans="1:9" ht="12.75" customHeight="1">
+    <row r="111" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="44"/>
       <c r="B111" s="44"/>
       <c r="C111" s="49"/>
@@ -21155,7 +20306,7 @@
       </c>
       <c r="I111" s="48"/>
     </row>
-    <row r="112" spans="1:9" ht="12.75" customHeight="1">
+    <row r="112" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="44"/>
       <c r="B112" s="44"/>
       <c r="C112" s="49"/>
@@ -21172,7 +20323,7 @@
       </c>
       <c r="I112" s="48"/>
     </row>
-    <row r="113" spans="1:9" ht="12.75" customHeight="1">
+    <row r="113" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="44"/>
       <c r="B113" s="44"/>
       <c r="C113" s="49"/>
@@ -21189,7 +20340,7 @@
       </c>
       <c r="I113" s="48"/>
     </row>
-    <row r="114" spans="1:9" ht="12.75" customHeight="1">
+    <row r="114" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="44"/>
       <c r="B114" s="44"/>
       <c r="C114" s="49"/>
@@ -21206,7 +20357,7 @@
       </c>
       <c r="I114" s="48"/>
     </row>
-    <row r="115" spans="1:9" ht="12.75" customHeight="1">
+    <row r="115" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="44"/>
       <c r="B115" s="44"/>
       <c r="C115" s="49"/>
@@ -21223,7 +20374,7 @@
       </c>
       <c r="I115" s="48"/>
     </row>
-    <row r="116" spans="1:9" ht="12.75" customHeight="1">
+    <row r="116" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="44"/>
       <c r="B116" s="44"/>
       <c r="C116" s="49"/>
@@ -21240,7 +20391,7 @@
       </c>
       <c r="I116" s="48"/>
     </row>
-    <row r="117" spans="1:9" ht="12.75" customHeight="1">
+    <row r="117" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="44"/>
       <c r="B117" s="44"/>
       <c r="C117" s="49"/>
@@ -21257,7 +20408,7 @@
       </c>
       <c r="I117" s="48"/>
     </row>
-    <row r="118" spans="1:9" ht="12.75" customHeight="1">
+    <row r="118" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="44"/>
       <c r="B118" s="44"/>
       <c r="C118" s="49"/>
@@ -21274,7 +20425,7 @@
       </c>
       <c r="I118" s="48"/>
     </row>
-    <row r="119" spans="1:9" ht="12.75" customHeight="1">
+    <row r="119" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="44"/>
       <c r="B119" s="44"/>
       <c r="C119" s="49"/>
@@ -21291,7 +20442,7 @@
       </c>
       <c r="I119" s="48"/>
     </row>
-    <row r="120" spans="1:9" ht="12.75" customHeight="1">
+    <row r="120" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="44"/>
       <c r="B120" s="44"/>
       <c r="C120" s="49"/>
@@ -21308,7 +20459,7 @@
       </c>
       <c r="I120" s="48"/>
     </row>
-    <row r="121" spans="1:9" ht="12.75" customHeight="1">
+    <row r="121" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="44"/>
       <c r="B121" s="44"/>
       <c r="C121" s="49"/>
@@ -21325,7 +20476,7 @@
       </c>
       <c r="I121" s="48"/>
     </row>
-    <row r="122" spans="1:9" ht="12.75" customHeight="1">
+    <row r="122" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="44"/>
       <c r="B122" s="44"/>
       <c r="C122" s="49"/>
@@ -21342,7 +20493,7 @@
       </c>
       <c r="I122" s="48"/>
     </row>
-    <row r="123" spans="1:9" ht="12.75" customHeight="1">
+    <row r="123" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="44"/>
       <c r="B123" s="44"/>
       <c r="C123" s="49"/>
@@ -21359,7 +20510,7 @@
       </c>
       <c r="I123" s="48"/>
     </row>
-    <row r="124" spans="1:9" ht="12.75" customHeight="1">
+    <row r="124" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="44"/>
       <c r="B124" s="44"/>
       <c r="C124" s="49"/>
@@ -21376,7 +20527,7 @@
       </c>
       <c r="I124" s="48"/>
     </row>
-    <row r="125" spans="1:9" ht="12.75" customHeight="1">
+    <row r="125" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="44"/>
       <c r="B125" s="44"/>
       <c r="C125" s="49"/>
@@ -21393,7 +20544,7 @@
       </c>
       <c r="I125" s="48"/>
     </row>
-    <row r="126" spans="1:9" ht="12.75" customHeight="1">
+    <row r="126" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="44"/>
       <c r="B126" s="44"/>
       <c r="C126" s="49"/>
@@ -21410,7 +20561,7 @@
       </c>
       <c r="I126" s="48"/>
     </row>
-    <row r="127" spans="1:9" ht="12.75" customHeight="1">
+    <row r="127" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="44"/>
       <c r="B127" s="44"/>
       <c r="C127" s="49"/>
@@ -21427,7 +20578,7 @@
       </c>
       <c r="I127" s="48"/>
     </row>
-    <row r="128" spans="1:9" ht="12.75" customHeight="1">
+    <row r="128" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="44"/>
       <c r="B128" s="44"/>
       <c r="C128" s="49"/>
@@ -21444,7 +20595,7 @@
       </c>
       <c r="I128" s="48"/>
     </row>
-    <row r="129" spans="1:9" ht="12.75" customHeight="1">
+    <row r="129" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="44"/>
       <c r="B129" s="44"/>
       <c r="C129" s="49"/>
@@ -21461,7 +20612,7 @@
       </c>
       <c r="I129" s="48"/>
     </row>
-    <row r="130" spans="1:9" ht="12.75" customHeight="1">
+    <row r="130" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="44"/>
       <c r="B130" s="44"/>
       <c r="C130" s="49"/>
@@ -21478,7 +20629,7 @@
       </c>
       <c r="I130" s="48"/>
     </row>
-    <row r="131" spans="1:9" ht="12.75" customHeight="1">
+    <row r="131" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="44"/>
       <c r="B131" s="44"/>
       <c r="C131" s="49"/>
@@ -21495,7 +20646,7 @@
       </c>
       <c r="I131" s="48"/>
     </row>
-    <row r="132" spans="1:9" ht="12.75" customHeight="1">
+    <row r="132" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="44"/>
       <c r="B132" s="44"/>
       <c r="C132" s="49"/>
@@ -21512,7 +20663,7 @@
       </c>
       <c r="I132" s="48"/>
     </row>
-    <row r="133" spans="1:9" ht="12.75" customHeight="1">
+    <row r="133" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="44"/>
       <c r="B133" s="44"/>
       <c r="C133" s="49"/>
@@ -21529,7 +20680,7 @@
       </c>
       <c r="I133" s="48"/>
     </row>
-    <row r="134" spans="1:9" ht="12.75" customHeight="1">
+    <row r="134" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="44"/>
       <c r="B134" s="44"/>
       <c r="C134" s="49"/>
@@ -21546,7 +20697,7 @@
       </c>
       <c r="I134" s="48"/>
     </row>
-    <row r="135" spans="1:9" ht="12.75" customHeight="1">
+    <row r="135" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="44"/>
       <c r="B135" s="44"/>
       <c r="C135" s="49"/>
@@ -21563,7 +20714,7 @@
       </c>
       <c r="I135" s="48"/>
     </row>
-    <row r="136" spans="1:9" ht="12.75" customHeight="1">
+    <row r="136" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="44"/>
       <c r="B136" s="44"/>
       <c r="C136" s="49"/>
@@ -21580,7 +20731,7 @@
       </c>
       <c r="I136" s="48"/>
     </row>
-    <row r="137" spans="1:9" ht="12.75" customHeight="1">
+    <row r="137" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="44"/>
       <c r="B137" s="44"/>
       <c r="C137" s="49"/>
@@ -21597,7 +20748,7 @@
       </c>
       <c r="I137" s="48"/>
     </row>
-    <row r="138" spans="1:9" ht="12.75" customHeight="1">
+    <row r="138" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="44"/>
       <c r="B138" s="44"/>
       <c r="C138" s="49"/>
@@ -21614,7 +20765,7 @@
       </c>
       <c r="I138" s="48"/>
     </row>
-    <row r="139" spans="1:9" ht="12.75" customHeight="1">
+    <row r="139" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="44"/>
       <c r="B139" s="44"/>
       <c r="C139" s="49"/>
@@ -21631,7 +20782,7 @@
       </c>
       <c r="I139" s="48"/>
     </row>
-    <row r="140" spans="1:9" ht="12.75" customHeight="1">
+    <row r="140" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="44"/>
       <c r="B140" s="44"/>
       <c r="C140" s="49"/>
@@ -21648,7 +20799,7 @@
       </c>
       <c r="I140" s="48"/>
     </row>
-    <row r="141" spans="1:9" ht="12.75" customHeight="1">
+    <row r="141" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="44"/>
       <c r="B141" s="44"/>
       <c r="C141" s="49"/>
@@ -21665,7 +20816,7 @@
       </c>
       <c r="I141" s="48"/>
     </row>
-    <row r="142" spans="1:9" ht="12.75" customHeight="1">
+    <row r="142" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="44"/>
       <c r="B142" s="44"/>
       <c r="C142" s="49"/>
@@ -21682,7 +20833,7 @@
       </c>
       <c r="I142" s="48"/>
     </row>
-    <row r="143" spans="1:9" ht="12.75" customHeight="1">
+    <row r="143" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="44"/>
       <c r="B143" s="44"/>
       <c r="C143" s="49"/>
@@ -21699,7 +20850,7 @@
       </c>
       <c r="I143" s="48"/>
     </row>
-    <row r="144" spans="1:9" ht="12.75" customHeight="1">
+    <row r="144" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="44"/>
       <c r="B144" s="44"/>
       <c r="C144" s="49"/>
@@ -21716,7 +20867,7 @@
       </c>
       <c r="I144" s="48"/>
     </row>
-    <row r="145" spans="1:9" ht="12.75" customHeight="1">
+    <row r="145" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="44"/>
       <c r="B145" s="44"/>
       <c r="C145" s="49"/>
@@ -21733,7 +20884,7 @@
       </c>
       <c r="I145" s="48"/>
     </row>
-    <row r="146" spans="1:9" ht="12.75" customHeight="1">
+    <row r="146" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="44"/>
       <c r="B146" s="44"/>
       <c r="C146" s="49"/>
@@ -21750,7 +20901,7 @@
       </c>
       <c r="I146" s="48"/>
     </row>
-    <row r="147" spans="1:9" ht="12.75" customHeight="1">
+    <row r="147" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="44"/>
       <c r="B147" s="44"/>
       <c r="C147" s="49"/>
@@ -21767,7 +20918,7 @@
       </c>
       <c r="I147" s="48"/>
     </row>
-    <row r="148" spans="1:9" ht="12.75" customHeight="1">
+    <row r="148" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="44"/>
       <c r="B148" s="44"/>
       <c r="C148" s="49"/>
@@ -21784,7 +20935,7 @@
       </c>
       <c r="I148" s="48"/>
     </row>
-    <row r="149" spans="1:9" ht="12.75" customHeight="1">
+    <row r="149" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="44"/>
       <c r="B149" s="44"/>
       <c r="C149" s="49"/>
@@ -21801,7 +20952,7 @@
       </c>
       <c r="I149" s="48"/>
     </row>
-    <row r="150" spans="1:9" ht="12.75" customHeight="1">
+    <row r="150" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="44"/>
       <c r="B150" s="44"/>
       <c r="C150" s="49"/>
@@ -21818,7 +20969,7 @@
       </c>
       <c r="I150" s="48"/>
     </row>
-    <row r="151" spans="1:9" ht="12.75" customHeight="1">
+    <row r="151" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="44"/>
       <c r="B151" s="44"/>
       <c r="C151" s="49"/>
@@ -21835,7 +20986,7 @@
       </c>
       <c r="I151" s="48"/>
     </row>
-    <row r="152" spans="1:9" ht="12.75" customHeight="1">
+    <row r="152" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="44"/>
       <c r="B152" s="44"/>
       <c r="C152" s="49"/>
@@ -21852,7 +21003,7 @@
       </c>
       <c r="I152" s="48"/>
     </row>
-    <row r="153" spans="1:9" ht="12.75" customHeight="1">
+    <row r="153" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="44"/>
       <c r="B153" s="44"/>
       <c r="C153" s="49"/>
@@ -21869,7 +21020,7 @@
       </c>
       <c r="I153" s="48"/>
     </row>
-    <row r="154" spans="1:9" ht="12.75" customHeight="1">
+    <row r="154" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="44"/>
       <c r="B154" s="44"/>
       <c r="C154" s="49"/>
@@ -21886,7 +21037,7 @@
       </c>
       <c r="I154" s="48"/>
     </row>
-    <row r="155" spans="1:9" ht="12.75" customHeight="1">
+    <row r="155" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="44"/>
       <c r="B155" s="44"/>
       <c r="C155" s="49"/>
@@ -21903,7 +21054,7 @@
       </c>
       <c r="I155" s="48"/>
     </row>
-    <row r="156" spans="1:9" ht="12.75" customHeight="1">
+    <row r="156" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="44"/>
       <c r="B156" s="44"/>
       <c r="C156" s="49"/>
@@ -21920,7 +21071,7 @@
       </c>
       <c r="I156" s="48"/>
     </row>
-    <row r="157" spans="1:9" ht="12.75" customHeight="1">
+    <row r="157" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="44"/>
       <c r="B157" s="44"/>
       <c r="C157" s="49"/>
@@ -21937,7 +21088,7 @@
       </c>
       <c r="I157" s="48"/>
     </row>
-    <row r="158" spans="1:9" ht="12.75" customHeight="1">
+    <row r="158" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="44"/>
       <c r="B158" s="44"/>
       <c r="C158" s="49"/>
@@ -21954,7 +21105,7 @@
       </c>
       <c r="I158" s="48"/>
     </row>
-    <row r="159" spans="1:9" ht="12.75" customHeight="1">
+    <row r="159" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="44"/>
       <c r="B159" s="44"/>
       <c r="C159" s="49"/>
@@ -21971,7 +21122,7 @@
       </c>
       <c r="I159" s="48"/>
     </row>
-    <row r="160" spans="1:9" ht="12.75" customHeight="1">
+    <row r="160" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="44"/>
       <c r="B160" s="44"/>
       <c r="C160" s="49"/>
@@ -21988,7 +21139,7 @@
       </c>
       <c r="I160" s="48"/>
     </row>
-    <row r="161" spans="1:9" ht="12.75" customHeight="1">
+    <row r="161" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="44"/>
       <c r="B161" s="44"/>
       <c r="C161" s="49"/>
@@ -22005,7 +21156,7 @@
       </c>
       <c r="I161" s="48"/>
     </row>
-    <row r="162" spans="1:9" ht="12.75" customHeight="1">
+    <row r="162" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="44"/>
       <c r="B162" s="44"/>
       <c r="C162" s="49"/>
@@ -22022,7 +21173,7 @@
       </c>
       <c r="I162" s="48"/>
     </row>
-    <row r="163" spans="1:9" ht="12.75" customHeight="1">
+    <row r="163" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="44"/>
       <c r="B163" s="44"/>
       <c r="C163" s="49"/>
@@ -22039,7 +21190,7 @@
       </c>
       <c r="I163" s="48"/>
     </row>
-    <row r="164" spans="1:9" ht="12.75" customHeight="1">
+    <row r="164" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="44"/>
       <c r="B164" s="44"/>
       <c r="C164" s="49"/>
@@ -22056,7 +21207,7 @@
       </c>
       <c r="I164" s="48"/>
     </row>
-    <row r="165" spans="1:9" ht="12.75" customHeight="1">
+    <row r="165" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="44"/>
       <c r="B165" s="44"/>
       <c r="C165" s="49"/>
@@ -22073,7 +21224,7 @@
       </c>
       <c r="I165" s="48"/>
     </row>
-    <row r="166" spans="1:9" ht="12.75" customHeight="1">
+    <row r="166" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="44"/>
       <c r="B166" s="44"/>
       <c r="C166" s="49"/>
@@ -22090,7 +21241,7 @@
       </c>
       <c r="I166" s="48"/>
     </row>
-    <row r="167" spans="1:9" ht="12.75" customHeight="1">
+    <row r="167" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="44"/>
       <c r="B167" s="44"/>
       <c r="C167" s="49"/>
@@ -22107,7 +21258,7 @@
       </c>
       <c r="I167" s="48"/>
     </row>
-    <row r="168" spans="1:9" ht="12.75" customHeight="1">
+    <row r="168" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="44"/>
       <c r="B168" s="44"/>
       <c r="C168" s="49"/>
@@ -22124,7 +21275,7 @@
       </c>
       <c r="I168" s="48"/>
     </row>
-    <row r="169" spans="1:9" ht="12.75" customHeight="1">
+    <row r="169" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="44"/>
       <c r="B169" s="44"/>
       <c r="C169" s="49"/>
@@ -22141,7 +21292,7 @@
       </c>
       <c r="I169" s="48"/>
     </row>
-    <row r="170" spans="1:9" ht="12.75" customHeight="1">
+    <row r="170" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="44"/>
       <c r="B170" s="44"/>
       <c r="C170" s="49"/>
@@ -22155,7 +21306,7 @@
       </c>
       <c r="I170" s="48"/>
     </row>
-    <row r="171" spans="1:9" ht="12.75" customHeight="1">
+    <row r="171" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="44"/>
       <c r="B171" s="44"/>
       <c r="C171" s="49"/>
@@ -22169,7 +21320,7 @@
       </c>
       <c r="I171" s="48"/>
     </row>
-    <row r="172" spans="1:9" ht="12.75" customHeight="1">
+    <row r="172" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="44"/>
       <c r="B172" s="44"/>
       <c r="C172" s="49"/>
@@ -22183,7 +21334,7 @@
       </c>
       <c r="I172" s="48"/>
     </row>
-    <row r="173" spans="1:9" ht="12.75" customHeight="1">
+    <row r="173" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="44"/>
       <c r="B173" s="44"/>
       <c r="C173" s="49"/>

--- a/FieldData/2015/xlsx_analysis/10-003 Field Data.xlsx
+++ b/FieldData/2015/xlsx_analysis/10-003 Field Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fc4fc14c9be0aac/Documents/GitHub/CompSites/FieldData/2015/xlsx_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_F89473195F3881894CF7771C81199CAA3E0C74E0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DA4A2EB-086D-43C5-A288-341F11D87340}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_F89473195F3881894CF7771C81199CAA3E0C74E0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78972602-5CCA-4459-8336-756C2D9DC0E7}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="1515" windowWidth="20865" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marsh" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="113">
   <si>
     <t>Raw Sample Plot Data (Quadrats)</t>
   </si>
@@ -362,6 +362,12 @@
   </si>
   <si>
     <t>MAX_LH</t>
+  </si>
+  <si>
+    <t>SPECIES_CODE</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -1411,9 +1417,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1430,6 +1433,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1501,7 +1507,7 @@
     <xf numFmtId="1" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2895,46 +2901,46 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:H1"/>
+      <selection pane="bottomRight" activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.59765625" style="97" customWidth="1"/>
-    <col min="2" max="2" width="5.8984375" style="97" customWidth="1"/>
-    <col min="3" max="3" width="5.09765625" style="97" customWidth="1"/>
-    <col min="4" max="4" width="19.09765625" style="97" customWidth="1"/>
-    <col min="5" max="5" width="16.69921875" style="97" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.59765625" style="97" customWidth="1"/>
-    <col min="7" max="7" width="6.69921875" style="97" customWidth="1"/>
-    <col min="8" max="8" width="5.5" style="97" customWidth="1"/>
-    <col min="9" max="248" width="8.59765625" style="97" customWidth="1"/>
-    <col min="249" max="16384" width="8.59765625" style="98"/>
+    <col min="1" max="1" width="8.59765625" style="96" customWidth="1"/>
+    <col min="2" max="2" width="5.8984375" style="96" customWidth="1"/>
+    <col min="3" max="3" width="5.09765625" style="96" customWidth="1"/>
+    <col min="4" max="4" width="19.09765625" style="96" customWidth="1"/>
+    <col min="5" max="5" width="16.69921875" style="96" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.59765625" style="96" customWidth="1"/>
+    <col min="7" max="7" width="6.69921875" style="96" customWidth="1"/>
+    <col min="8" max="8" width="5.5" style="96" customWidth="1"/>
+    <col min="9" max="248" width="8.59765625" style="96" customWidth="1"/>
+    <col min="249" max="16384" width="8.59765625" style="97"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="34.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="123" t="s">
+      <c r="C1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="123" t="s">
+      <c r="D1" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="123" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="123" t="s">
+      <c r="E1" s="99" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="123" t="s">
+      <c r="G1" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="123" t="s">
+      <c r="H1" s="99" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2943,19 +2949,23 @@
         <v>13</v>
       </c>
       <c r="B2" s="83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="84">
         <v>2</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="s">
-        <v>54</v>
+      <c r="D2" s="89" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="90" t="s">
+        <v>58</v>
       </c>
       <c r="F2" s="88">
-        <v>100</v>
-      </c>
-      <c r="G2" s="83"/>
+        <v>1</v>
+      </c>
+      <c r="G2" s="83" t="s">
+        <v>12</v>
+      </c>
       <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2968,17 +2978,17 @@
       <c r="C3" s="84">
         <v>2</v>
       </c>
-      <c r="D3" s="86" t="s">
-        <v>56</v>
+      <c r="D3" s="91" t="s">
+        <v>59</v>
       </c>
       <c r="E3" s="87" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="F3" s="88">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="G3" s="83" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="H3" s="85"/>
     </row>
@@ -2987,19 +2997,19 @@
         <v>13</v>
       </c>
       <c r="B4" s="83" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" s="84">
-        <v>2</v>
-      </c>
-      <c r="D4" s="89" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="90" t="s">
-        <v>58</v>
+        <v>1</v>
+      </c>
+      <c r="D4" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="87" t="s">
+        <v>68</v>
       </c>
       <c r="F4" s="88">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4" s="83" t="s">
         <v>12</v>
@@ -3011,20 +3021,23 @@
         <v>13</v>
       </c>
       <c r="B5" s="83" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="84">
-        <v>2</v>
-      </c>
-      <c r="D5" s="91"/>
+        <v>1</v>
+      </c>
+      <c r="D5" s="93" t="s">
+        <v>72</v>
+      </c>
       <c r="E5" s="87" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="F5" s="88">
-        <f>100-F6-F4-F3</f>
-        <v>88.5</v>
-      </c>
-      <c r="G5" s="83"/>
+        <v>12</v>
+      </c>
+      <c r="G5" s="83" t="s">
+        <v>12</v>
+      </c>
       <c r="H5" s="85"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3032,16 +3045,16 @@
         <v>13</v>
       </c>
       <c r="B6" s="83" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" s="84">
-        <v>2</v>
-      </c>
-      <c r="D6" s="91" t="s">
-        <v>59</v>
+        <v>1</v>
+      </c>
+      <c r="D6" s="86" t="s">
+        <v>83</v>
       </c>
       <c r="E6" s="87" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="F6" s="88">
         <v>0.5</v>
@@ -3056,22 +3069,22 @@
         <v>13</v>
       </c>
       <c r="B7" s="83" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" s="84">
-        <v>2</v>
-      </c>
-      <c r="D7" s="91" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="87" t="s">
-        <v>61</v>
+        <v>1</v>
+      </c>
+      <c r="D7" s="89" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="90" t="s">
+        <v>58</v>
       </c>
       <c r="F7" s="88">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="G7" s="83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H7" s="85"/>
     </row>
@@ -3080,19 +3093,23 @@
         <v>13</v>
       </c>
       <c r="B8" s="83" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C8" s="84">
-        <v>2</v>
-      </c>
-      <c r="D8" s="86"/>
-      <c r="E8" s="87" t="s">
-        <v>54</v>
+        <v>1</v>
+      </c>
+      <c r="D8" s="94" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="95" t="s">
+        <v>88</v>
       </c>
       <c r="F8" s="88">
-        <v>84</v>
-      </c>
-      <c r="G8" s="83"/>
+        <v>7</v>
+      </c>
+      <c r="G8" s="83" t="s">
+        <v>12</v>
+      </c>
       <c r="H8" s="85"/>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3100,22 +3117,22 @@
         <v>13</v>
       </c>
       <c r="B9" s="83" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C9" s="84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="86" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="E9" s="87" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="F9" s="88">
         <v>6</v>
       </c>
       <c r="G9" s="83" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="H9" s="85"/>
     </row>
@@ -3124,48 +3141,46 @@
         <v>13</v>
       </c>
       <c r="B10" s="83" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" s="84">
         <v>1</v>
       </c>
-      <c r="D10" s="91" t="s">
-        <v>60</v>
+      <c r="D10" s="86" t="s">
+        <v>92</v>
       </c>
       <c r="E10" s="87" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="F10" s="88">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G10" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="85">
-        <v>120</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H10" s="85"/>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="83" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="83" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C11" s="84">
         <v>1</v>
       </c>
-      <c r="D11" s="86" t="s">
-        <v>104</v>
+      <c r="D11" s="93" t="s">
+        <v>102</v>
       </c>
       <c r="E11" s="87" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="F11" s="88">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G11" s="83" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="H11" s="85"/>
     </row>
@@ -3174,22 +3189,22 @@
         <v>13</v>
       </c>
       <c r="B12" s="83" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C12" s="84">
         <v>1</v>
       </c>
-      <c r="D12" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="92" t="s">
-        <v>66</v>
+      <c r="D12" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="87" t="s">
+        <v>68</v>
       </c>
       <c r="F12" s="88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12" s="83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H12" s="85"/>
     </row>
@@ -3198,19 +3213,19 @@
         <v>13</v>
       </c>
       <c r="B13" s="83" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C13" s="84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="86" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E13" s="87" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F13" s="88">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G13" s="83" t="s">
         <v>105</v>
@@ -3222,22 +3237,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="86" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E14" s="87" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F14" s="88">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="G14" s="83" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="H14" s="85"/>
     </row>
@@ -3252,16 +3267,16 @@
         <v>1</v>
       </c>
       <c r="D15" s="86" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E15" s="87" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F15" s="88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G15" s="83" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="H15" s="85"/>
     </row>
@@ -3270,22 +3285,22 @@
         <v>13</v>
       </c>
       <c r="B16" s="83" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="84">
         <v>1</v>
       </c>
-      <c r="D16" s="94" t="s">
-        <v>72</v>
+      <c r="D16" s="86" t="s">
+        <v>78</v>
       </c>
       <c r="E16" s="87" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="F16" s="88">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G16" s="83" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="H16" s="85"/>
     </row>
@@ -3294,19 +3309,23 @@
         <v>13</v>
       </c>
       <c r="B17" s="83" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C17" s="84">
         <v>1</v>
       </c>
-      <c r="D17" s="86"/>
+      <c r="D17" s="86" t="s">
+        <v>87</v>
+      </c>
       <c r="E17" s="87" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F17" s="88">
-        <v>30</v>
-      </c>
-      <c r="G17" s="83"/>
+        <v>22</v>
+      </c>
+      <c r="G17" s="83" t="s">
+        <v>105</v>
+      </c>
       <c r="H17" s="85"/>
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3314,22 +3333,22 @@
         <v>13</v>
       </c>
       <c r="B18" s="83" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C18" s="84">
         <v>1</v>
       </c>
       <c r="D18" s="86" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E18" s="87" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F18" s="88">
         <v>2</v>
       </c>
       <c r="G18" s="83" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="H18" s="85"/>
     </row>
@@ -3338,22 +3357,22 @@
         <v>13</v>
       </c>
       <c r="B19" s="83" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C19" s="84">
         <v>1</v>
       </c>
       <c r="D19" s="86" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="E19" s="87" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F19" s="88">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="G19" s="83" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="H19" s="85"/>
     </row>
@@ -3362,20 +3381,23 @@
         <v>13</v>
       </c>
       <c r="B20" s="83" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C20" s="84">
         <v>1</v>
       </c>
-      <c r="D20" s="86"/>
+      <c r="D20" s="86" t="s">
+        <v>87</v>
+      </c>
       <c r="E20" s="87" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F20" s="88">
-        <f>100-F19-F18-F17-F16-F15-0.5-1-3-7-17</f>
-        <v>22</v>
-      </c>
-      <c r="G20" s="83"/>
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="83" t="s">
+        <v>105</v>
+      </c>
       <c r="H20" s="85"/>
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3383,19 +3405,19 @@
         <v>13</v>
       </c>
       <c r="B21" s="83" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C21" s="84">
         <v>1</v>
       </c>
       <c r="D21" s="86" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="E21" s="87" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F21" s="88">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G21" s="83" t="s">
         <v>105</v>
@@ -3407,19 +3429,19 @@
         <v>13</v>
       </c>
       <c r="B22" s="83" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C22" s="84">
-        <v>1</v>
-      </c>
-      <c r="D22" s="86" t="s">
-        <v>79</v>
+        <v>2</v>
+      </c>
+      <c r="D22" s="91" t="s">
+        <v>60</v>
       </c>
       <c r="E22" s="87" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="F22" s="88">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G22" s="83" t="s">
         <v>11</v>
@@ -3431,46 +3453,48 @@
         <v>13</v>
       </c>
       <c r="B23" s="83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="84">
         <v>1</v>
       </c>
-      <c r="D23" s="86" t="s">
-        <v>81</v>
+      <c r="D23" s="91" t="s">
+        <v>60</v>
       </c>
       <c r="E23" s="87" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F23" s="88">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G23" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="85"/>
+      <c r="H23" s="85">
+        <v>120</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="83" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" s="84">
         <v>1</v>
       </c>
-      <c r="D24" s="86" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="87" t="s">
-        <v>84</v>
+      <c r="D24" s="91" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="92" t="s">
+        <v>66</v>
       </c>
       <c r="F24" s="88">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="G24" s="83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H24" s="85"/>
     </row>
@@ -3479,22 +3503,22 @@
         <v>13</v>
       </c>
       <c r="B25" s="83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="84">
         <v>1</v>
       </c>
-      <c r="D25" s="89" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="90" t="s">
-        <v>58</v>
+      <c r="D25" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="87" t="s">
+        <v>70</v>
       </c>
       <c r="F25" s="88">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="G25" s="83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H25" s="85"/>
     </row>
@@ -3503,19 +3527,23 @@
         <v>13</v>
       </c>
       <c r="B26" s="83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" s="84">
         <v>1</v>
       </c>
-      <c r="D26" s="86"/>
+      <c r="D26" s="86" t="s">
+        <v>74</v>
+      </c>
       <c r="E26" s="87" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F26" s="88">
-        <v>60</v>
-      </c>
-      <c r="G26" s="83"/>
+        <v>2</v>
+      </c>
+      <c r="G26" s="83" t="s">
+        <v>11</v>
+      </c>
       <c r="H26" s="85"/>
     </row>
     <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3523,20 +3551,23 @@
         <v>13</v>
       </c>
       <c r="B27" s="83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" s="84">
         <v>1</v>
       </c>
-      <c r="D27" s="86"/>
+      <c r="D27" s="86" t="s">
+        <v>76</v>
+      </c>
       <c r="E27" s="87" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="F27" s="88">
-        <f>100-60-1-9-10</f>
-        <v>20</v>
-      </c>
-      <c r="G27" s="83"/>
+        <v>0.5</v>
+      </c>
+      <c r="G27" s="83" t="s">
+        <v>11</v>
+      </c>
       <c r="H27" s="85"/>
     </row>
     <row r="28" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3544,19 +3575,23 @@
         <v>13</v>
       </c>
       <c r="B28" s="83" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C28" s="84">
         <v>1</v>
       </c>
-      <c r="D28" s="86"/>
+      <c r="D28" s="86" t="s">
+        <v>79</v>
+      </c>
       <c r="E28" s="87" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F28" s="88">
-        <v>80</v>
-      </c>
-      <c r="G28" s="83"/>
+        <v>6</v>
+      </c>
+      <c r="G28" s="83" t="s">
+        <v>11</v>
+      </c>
       <c r="H28" s="85"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3564,19 +3599,23 @@
         <v>13</v>
       </c>
       <c r="B29" s="83" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C29" s="84">
         <v>1</v>
       </c>
-      <c r="D29" s="86"/>
+      <c r="D29" s="86" t="s">
+        <v>81</v>
+      </c>
       <c r="E29" s="87" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F29" s="88">
-        <v>20</v>
-      </c>
-      <c r="G29" s="83"/>
+        <v>3</v>
+      </c>
+      <c r="G29" s="83" t="s">
+        <v>11</v>
+      </c>
       <c r="H29" s="85"/>
     </row>
     <row r="30" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3590,18 +3629,20 @@
         <v>1</v>
       </c>
       <c r="D30" s="86" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="E30" s="87" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="F30" s="88">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G30" s="83" t="s">
-        <v>105</v>
-      </c>
-      <c r="H30" s="85"/>
+        <v>11</v>
+      </c>
+      <c r="H30" s="85">
+        <v>59</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="83" t="s">
@@ -3614,20 +3655,18 @@
         <v>1</v>
       </c>
       <c r="D31" s="86" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E31" s="87" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F31" s="88">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G31" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="85">
-        <v>59</v>
-      </c>
+      <c r="H31" s="85"/>
     </row>
     <row r="32" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="83" t="s">
@@ -3639,17 +3678,17 @@
       <c r="C32" s="84">
         <v>1</v>
       </c>
-      <c r="D32" s="95" t="s">
-        <v>89</v>
-      </c>
-      <c r="E32" s="96" t="s">
-        <v>88</v>
+      <c r="D32" s="86" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="87" t="s">
+        <v>77</v>
       </c>
       <c r="F32" s="88">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G32" s="83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H32" s="85"/>
     </row>
@@ -3664,18 +3703,20 @@
         <v>1</v>
       </c>
       <c r="D33" s="86" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="E33" s="87" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="F33" s="88">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G33" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="H33" s="85"/>
+      <c r="H33" s="85">
+        <v>50</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="83" t="s">
@@ -3687,14 +3728,14 @@
       <c r="C34" s="84">
         <v>1</v>
       </c>
-      <c r="D34" s="86" t="s">
-        <v>76</v>
+      <c r="D34" s="93" t="s">
+        <v>93</v>
       </c>
       <c r="E34" s="87" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="F34" s="88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34" s="83" t="s">
         <v>11</v>
@@ -3712,16 +3753,16 @@
         <v>1</v>
       </c>
       <c r="D35" s="86" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E35" s="87" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="F35" s="88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G35" s="83" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="H35" s="85"/>
     </row>
@@ -3730,22 +3771,22 @@
         <v>13</v>
       </c>
       <c r="B36" s="83" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C36" s="84">
         <v>1</v>
       </c>
       <c r="D36" s="86" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E36" s="87" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F36" s="88">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G36" s="83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H36" s="85"/>
     </row>
@@ -3754,48 +3795,46 @@
         <v>13</v>
       </c>
       <c r="B37" s="83" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C37" s="84">
         <v>1</v>
       </c>
       <c r="D37" s="86" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E37" s="87" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F37" s="88">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G37" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="H37" s="85">
-        <v>50</v>
-      </c>
+      <c r="H37" s="85"/>
     </row>
     <row r="38" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="83" t="s">
         <v>13</v>
       </c>
       <c r="B38" s="83" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C38" s="84">
         <v>1</v>
       </c>
       <c r="D38" s="86" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E38" s="87" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="F38" s="88">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G38" s="83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H38" s="85"/>
     </row>
@@ -3804,19 +3843,19 @@
         <v>13</v>
       </c>
       <c r="B39" s="83" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C39" s="84">
         <v>1</v>
       </c>
-      <c r="D39" s="93" t="s">
-        <v>93</v>
+      <c r="D39" s="123" t="s">
+        <v>76</v>
       </c>
       <c r="E39" s="87" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F39" s="88">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G39" s="83" t="s">
         <v>11</v>
@@ -3828,16 +3867,16 @@
         <v>13</v>
       </c>
       <c r="B40" s="83" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C40" s="84">
         <v>1</v>
       </c>
       <c r="D40" s="86" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="E40" s="87" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="F40" s="88">
         <v>3</v>
@@ -3852,39 +3891,49 @@
         <v>13</v>
       </c>
       <c r="B41" s="83" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C41" s="84">
         <v>1</v>
       </c>
-      <c r="D41" s="86"/>
-      <c r="E41" s="83" t="s">
-        <v>54</v>
+      <c r="D41" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="87" t="s">
+        <v>26</v>
       </c>
       <c r="F41" s="88">
-        <v>35</v>
-      </c>
-      <c r="G41" s="83"/>
-      <c r="H41" s="85"/>
+        <v>70</v>
+      </c>
+      <c r="G41" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="85">
+        <v>69</v>
+      </c>
     </row>
     <row r="42" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="83" t="s">
         <v>13</v>
       </c>
       <c r="B42" s="83" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C42" s="84">
         <v>1</v>
       </c>
-      <c r="D42" s="86"/>
+      <c r="D42" s="86" t="s">
+        <v>90</v>
+      </c>
       <c r="E42" s="87" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="F42" s="88">
-        <v>95</v>
-      </c>
-      <c r="G42" s="83"/>
+        <v>4</v>
+      </c>
+      <c r="G42" s="83" t="s">
+        <v>11</v>
+      </c>
       <c r="H42" s="85"/>
     </row>
     <row r="43" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3892,19 +3941,19 @@
         <v>13</v>
       </c>
       <c r="B43" s="83" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C43" s="84">
         <v>1</v>
       </c>
       <c r="D43" s="86" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="E43" s="87" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="F43" s="88">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G43" s="83" t="s">
         <v>11</v>
@@ -3916,19 +3965,19 @@
         <v>13</v>
       </c>
       <c r="B44" s="83" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C44" s="84">
         <v>1</v>
       </c>
       <c r="D44" s="86" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="E44" s="87" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="F44" s="88">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G44" s="83" t="s">
         <v>11</v>
@@ -3940,19 +3989,19 @@
         <v>13</v>
       </c>
       <c r="B45" s="83" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C45" s="84">
         <v>1</v>
       </c>
       <c r="D45" s="86" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E45" s="87" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F45" s="88">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G45" s="83" t="s">
         <v>11</v>
@@ -3964,7 +4013,7 @@
         <v>13</v>
       </c>
       <c r="B46" s="83" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C46" s="84">
         <v>1</v>
@@ -3976,7 +4025,7 @@
         <v>77</v>
       </c>
       <c r="F46" s="88">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G46" s="83" t="s">
         <v>11</v>
@@ -3988,22 +4037,22 @@
         <v>13</v>
       </c>
       <c r="B47" s="83" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C47" s="84">
         <v>1</v>
       </c>
       <c r="D47" s="86" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="E47" s="87" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F47" s="88">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G47" s="83" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H47" s="85"/>
     </row>
@@ -4018,16 +4067,16 @@
         <v>1</v>
       </c>
       <c r="D48" s="86" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="E48" s="87" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="F48" s="88">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G48" s="83" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="H48" s="85"/>
     </row>
@@ -4036,48 +4085,42 @@
         <v>13</v>
       </c>
       <c r="B49" s="83" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C49" s="84">
-        <v>1</v>
-      </c>
-      <c r="D49" s="86" t="s">
-        <v>99</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D49" s="86"/>
       <c r="E49" s="87" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="F49" s="88">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G49" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="H49" s="85">
-        <v>69</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="H49" s="85"/>
     </row>
     <row r="50" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="83" t="s">
         <v>13</v>
       </c>
       <c r="B50" s="83" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C50" s="84">
-        <v>1</v>
-      </c>
-      <c r="D50" s="86" t="s">
-        <v>104</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D50" s="91"/>
       <c r="E50" s="87" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F50" s="88">
-        <v>7</v>
+        <v>88.5</v>
       </c>
       <c r="G50" s="83" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="H50" s="85"/>
     </row>
@@ -4086,22 +4129,20 @@
         <v>13</v>
       </c>
       <c r="B51" s="83" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C51" s="84">
-        <v>1</v>
-      </c>
-      <c r="D51" s="86" t="s">
-        <v>90</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D51" s="86"/>
       <c r="E51" s="87" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="F51" s="88">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="G51" s="83" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="H51" s="85"/>
     </row>
@@ -4110,22 +4151,20 @@
         <v>13</v>
       </c>
       <c r="B52" s="83" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C52" s="84">
         <v>1</v>
       </c>
-      <c r="D52" s="86" t="s">
-        <v>100</v>
-      </c>
+      <c r="D52" s="86"/>
       <c r="E52" s="87" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="F52" s="88">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G52" s="83" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="H52" s="85"/>
     </row>
@@ -4134,7 +4173,7 @@
         <v>13</v>
       </c>
       <c r="B53" s="83" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C53" s="84">
         <v>1</v>
@@ -4144,9 +4183,11 @@
         <v>54</v>
       </c>
       <c r="F53" s="88">
-        <v>8</v>
-      </c>
-      <c r="G53" s="83"/>
+        <v>22</v>
+      </c>
+      <c r="G53" s="83" t="s">
+        <v>112</v>
+      </c>
       <c r="H53" s="85"/>
     </row>
     <row r="54" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4154,22 +4195,20 @@
         <v>13</v>
       </c>
       <c r="B54" s="83" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C54" s="84">
         <v>1</v>
       </c>
-      <c r="D54" s="86" t="s">
-        <v>76</v>
-      </c>
+      <c r="D54" s="86"/>
       <c r="E54" s="87" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F54" s="88">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G54" s="83" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="H54" s="85"/>
     </row>
@@ -4178,22 +4217,20 @@
         <v>13</v>
       </c>
       <c r="B55" s="83" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C55" s="84">
         <v>1</v>
       </c>
-      <c r="D55" s="86" t="s">
-        <v>87</v>
-      </c>
+      <c r="D55" s="86"/>
       <c r="E55" s="87" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="F55" s="88">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="G55" s="83" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="H55" s="85"/>
     </row>
@@ -4202,19 +4239,21 @@
         <v>13</v>
       </c>
       <c r="B56" s="83" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C56" s="84">
         <v>1</v>
       </c>
       <c r="D56" s="86"/>
-      <c r="E56" s="83" t="s">
-        <v>85</v>
+      <c r="E56" s="87" t="s">
+        <v>73</v>
       </c>
       <c r="F56" s="88">
-        <v>99</v>
-      </c>
-      <c r="G56" s="83"/>
+        <v>80</v>
+      </c>
+      <c r="G56" s="83" t="s">
+        <v>112</v>
+      </c>
       <c r="H56" s="85"/>
     </row>
     <row r="57" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4222,22 +4261,20 @@
         <v>13</v>
       </c>
       <c r="B57" s="83" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C57" s="84">
         <v>1</v>
       </c>
-      <c r="D57" s="86" t="s">
-        <v>56</v>
-      </c>
+      <c r="D57" s="86"/>
       <c r="E57" s="87" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F57" s="88">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G57" s="83" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="H57" s="85"/>
     </row>
@@ -4246,22 +4283,20 @@
         <v>13</v>
       </c>
       <c r="B58" s="83" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C58" s="84">
         <v>1</v>
       </c>
-      <c r="D58" s="86" t="s">
-        <v>95</v>
-      </c>
-      <c r="E58" s="87" t="s">
-        <v>98</v>
+      <c r="D58" s="86"/>
+      <c r="E58" s="83" t="s">
+        <v>54</v>
       </c>
       <c r="F58" s="88">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="G58" s="83" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="H58" s="85"/>
     </row>
@@ -4270,22 +4305,20 @@
         <v>13</v>
       </c>
       <c r="B59" s="83" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C59" s="84">
         <v>1</v>
       </c>
-      <c r="D59" s="86" t="s">
-        <v>76</v>
-      </c>
+      <c r="D59" s="86"/>
       <c r="E59" s="87" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F59" s="88">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="G59" s="83" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="H59" s="85"/>
     </row>
@@ -4294,22 +4327,20 @@
         <v>13</v>
       </c>
       <c r="B60" s="83" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C60" s="84">
         <v>1</v>
       </c>
-      <c r="D60" s="93" t="s">
-        <v>102</v>
-      </c>
+      <c r="D60" s="123"/>
       <c r="E60" s="87" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="F60" s="88">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G60" s="83" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="H60" s="85"/>
     </row>
@@ -4318,22 +4349,20 @@
         <v>13</v>
       </c>
       <c r="B61" s="83" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C61" s="84">
         <v>1</v>
       </c>
-      <c r="D61" s="86" t="s">
-        <v>67</v>
-      </c>
-      <c r="E61" s="87" t="s">
-        <v>68</v>
+      <c r="D61" s="86"/>
+      <c r="E61" s="83" t="s">
+        <v>85</v>
       </c>
       <c r="F61" s="88">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="G61" s="83" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="H61" s="85"/>
     </row>
@@ -4354,7 +4383,9 @@
       <c r="F62" s="88">
         <v>30</v>
       </c>
-      <c r="G62" s="83"/>
+      <c r="G62" s="83" t="s">
+        <v>112</v>
+      </c>
       <c r="H62" s="85"/>
     </row>
     <row r="63" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4367,17 +4398,22 @@
       <c r="C63" s="84">
         <v>1</v>
       </c>
-      <c r="D63" s="95"/>
+      <c r="D63" s="94"/>
       <c r="E63" s="83" t="s">
         <v>85</v>
       </c>
       <c r="F63" s="85">
         <v>70</v>
       </c>
-      <c r="G63" s="99"/>
-      <c r="H63" s="99"/>
+      <c r="G63" s="98" t="s">
+        <v>112</v>
+      </c>
+      <c r="H63" s="98"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:IN63">
+    <sortCondition ref="G2:G63"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
